--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="HƯỚNG DẪN" sheetId="8" r:id="rId1"/>
-    <sheet name="ĐỊNH GIÁ " sheetId="9" r:id="rId2"/>
+    <sheet name="ĐỊNH GIÁ" sheetId="9" r:id="rId2"/>
     <sheet name="DANH MỤC" sheetId="4" r:id="rId3"/>
     <sheet name="LSK-Vốn Gốc" sheetId="6" r:id="rId4"/>
     <sheet name="LSK-Tiền Đều" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
+    <sheet name="Hidden" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
@@ -995,7 +995,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1085,9 +1085,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1139,19 +1136,25 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1527,9 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A29"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
@@ -1577,7 +1578,7 @@
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="85"/>
+      <c r="C13" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1588,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1606,22 +1607,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.9" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42"/>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="108"/>
+      <c r="E1" s="112"/>
       <c r="F1"/>
       <c r="H1"/>
       <c r="J1"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:14" ht="22.8">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="43" t="e">
@@ -1629,7 +1630,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C2" s="44"/>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="105" t="s">
         <v>85</v>
       </c>
       <c r="E2" s="45" t="e">
@@ -1647,14 +1648,14 @@
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="23.1" customHeight="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="103" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="42"/>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="105" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="48"/>
@@ -1666,11 +1667,11 @@
       <c r="A4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="105" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="48"/>
@@ -1679,11 +1680,11 @@
       <c r="A5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="105" t="s">
         <v>88</v>
       </c>
       <c r="E5" s="48"/>
@@ -1692,7 +1693,7 @@
       <c r="A6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="103" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="42"/>
@@ -1702,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="50" t="e">
-        <f>Sheet1!C13</f>
+        <f>Hidden!C13</f>
         <v>#VALUE!</v>
       </c>
       <c r="C7" s="42"/>
@@ -1717,7 +1718,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="53" t="e">
-        <f>Sheet1!C16</f>
+        <f>Hidden!C16</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="42"/>
@@ -1731,7 +1732,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="53" t="e">
-        <f>Sheet1!C17</f>
+        <f>Hidden!C17</f>
         <v>#VALUE!</v>
       </c>
       <c r="C10" s="42"/>
@@ -1741,7 +1742,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="53" t="e">
-        <f>Sheet1!C18</f>
+        <f>Hidden!C18</f>
         <v>#VALUE!</v>
       </c>
       <c r="C11" s="42"/>
@@ -1751,7 +1752,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="56" t="e">
-        <f>Sheet1!C19</f>
+        <f>Hidden!C19</f>
         <v>#VALUE!</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -1761,7 +1762,7 @@
       <c r="F12"/>
     </row>
     <row r="13" spans="1:14" s="39" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="101" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="59"/>
@@ -1793,15 +1794,15 @@
       <c r="I14" s="65"/>
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
     </row>
     <row r="15" spans="1:14" ht="18.899999999999999" customHeight="1">
       <c r="A15" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="109">
+      <c r="B15" s="106">
         <v>0</v>
       </c>
       <c r="C15" s="67" t="e">
@@ -1828,7 +1829,7 @@
       <c r="A17" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="108">
         <v>57.34</v>
       </c>
       <c r="C17" s="67" t="e">
@@ -1843,7 +1844,7 @@
       <c r="A18" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="108">
         <v>491.69</v>
       </c>
       <c r="C18" s="67" t="e">
@@ -1858,7 +1859,7 @@
       <c r="A19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="109" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="67" t="e">
@@ -1873,7 +1874,7 @@
       <c r="A20" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="109" t="s">
         <v>94</v>
       </c>
       <c r="C20" s="67" t="e">
@@ -1888,7 +1889,7 @@
       <c r="A21" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="68">
+      <c r="B21" s="108">
         <v>44.83</v>
       </c>
       <c r="C21" s="67" t="e">
@@ -1903,7 +1904,7 @@
       <c r="A22" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="108">
         <v>0.81</v>
       </c>
       <c r="C22" s="67" t="e">
@@ -1918,7 +1919,7 @@
       <c r="A23" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="109" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="67" t="e">
@@ -1933,7 +1934,7 @@
       <c r="A24" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="68">
+      <c r="B24" s="108">
         <v>2.0099999999999998</v>
       </c>
       <c r="C24" s="67" t="e">
@@ -1995,10 +1996,10 @@
       <c r="A28" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="71">
+      <c r="B28" s="110">
         <v>1.59</v>
       </c>
-      <c r="C28" s="72" t="e">
+      <c r="C28" s="71" t="e">
         <f ca="1">_xlfn.IFS(B28&lt;=5,"YES",B28&gt;5,"NO")</f>
         <v>#NAME?</v>
       </c>
@@ -2028,90 +2029,90 @@
       <c r="K31"/>
     </row>
     <row r="183" spans="1:3" s="3" customFormat="1">
-      <c r="A183" s="74"/>
-      <c r="B183" s="74"/>
+      <c r="A183" s="73"/>
+      <c r="B183" s="73"/>
     </row>
     <row r="184" spans="1:3" s="4" customFormat="1">
-      <c r="A184" s="75"/>
-      <c r="B184" s="75"/>
+      <c r="A184" s="74"/>
+      <c r="B184" s="74"/>
     </row>
     <row r="185" spans="1:3" s="4" customFormat="1">
-      <c r="A185" s="75" t="s">
+      <c r="A185" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B185" s="76" t="str">
+      <c r="B185" s="75" t="str">
         <f>B4</f>
         <v>#TLCT</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="4" customFormat="1">
-      <c r="A186" s="75" t="s">
+      <c r="A186" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B186" s="75" t="e">
+      <c r="B186" s="74" t="e">
         <f>B185*10*B6</f>
         <v>#VALUE!</v>
       </c>
       <c r="C186" s="22"/>
     </row>
     <row r="187" spans="1:3" s="4" customFormat="1">
-      <c r="A187" s="75" t="s">
+      <c r="A187" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B187" s="75" t="e">
+      <c r="B187" s="74" t="e">
         <f>#REF!-B186</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="4" customFormat="1" ht="17.399999999999999">
-      <c r="A188" s="77" t="s">
+      <c r="A188" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B188" s="77" t="e">
+      <c r="B188" s="76" t="e">
         <f>B187+B3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="4" customFormat="1">
-      <c r="A189" s="75" t="s">
+      <c r="A189" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="B189" s="78" t="e">
+      <c r="B189" s="77" t="e">
         <f>#REF!/B3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="4" customFormat="1">
-      <c r="A190" s="75" t="s">
+      <c r="A190" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B190" s="79" t="e">
+      <c r="B190" s="78" t="e">
         <f>B189*B187</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="4" customFormat="1" ht="17.399999999999999">
-      <c r="A191" s="77" t="s">
+      <c r="A191" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B191" s="80" t="e">
+      <c r="B191" s="79" t="e">
         <f>B190+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="4" customFormat="1">
-      <c r="A192" s="75"/>
-      <c r="B192" s="75"/>
+      <c r="A192" s="74"/>
+      <c r="B192" s="74"/>
     </row>
     <row r="193" spans="1:12" s="4" customFormat="1">
-      <c r="A193" s="75"/>
-      <c r="B193" s="75"/>
+      <c r="A193" s="74"/>
+      <c r="B193" s="74"/>
     </row>
     <row r="194" spans="1:12" s="4" customFormat="1">
-      <c r="A194" s="75" t="s">
+      <c r="A194" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B194" s="75">
+      <c r="B194" s="74">
         <v>2017</v>
       </c>
       <c r="C194" s="4">
@@ -2143,10 +2144,10 @@
       </c>
     </row>
     <row r="195" spans="1:12" s="4" customFormat="1" ht="17.399999999999999">
-      <c r="A195" s="77" t="s">
+      <c r="A195" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B195" s="77">
+      <c r="B195" s="76">
         <v>1</v>
       </c>
       <c r="C195" s="23">
@@ -2178,10 +2179,10 @@
       </c>
     </row>
     <row r="196" spans="1:12" s="4" customFormat="1">
-      <c r="A196" s="77" t="s">
+      <c r="A196" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B196" s="79" t="e">
+      <c r="B196" s="78" t="e">
         <f>B191</f>
         <v>#REF!</v>
       </c>
@@ -2223,18 +2224,18 @@
       </c>
     </row>
     <row r="197" spans="1:12" s="4" customFormat="1">
-      <c r="A197" s="77" t="s">
+      <c r="A197" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B197" s="81">
+      <c r="B197" s="80">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="198" spans="1:12" s="4" customFormat="1">
-      <c r="A198" s="77" t="s">
+      <c r="A198" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B198" s="79" t="e">
+      <c r="B198" s="78" t="e">
         <f>B196/(1+#REF!)^B195</f>
         <v>#REF!</v>
       </c>
@@ -2277,64 +2278,64 @@
       <c r="L198" s="25"/>
     </row>
     <row r="199" spans="1:12" s="4" customFormat="1" ht="17.399999999999999">
-      <c r="A199" s="77" t="s">
+      <c r="A199" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B199" s="77" t="e">
+      <c r="B199" s="76" t="e">
         <f>B188</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="200" spans="1:12" s="4" customFormat="1">
-      <c r="A200" s="77" t="s">
+      <c r="A200" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B200" s="75" t="str">
+      <c r="B200" s="74" t="str">
         <f>B6</f>
         <v>#TSLCP</v>
       </c>
     </row>
     <row r="201" spans="1:12" s="4" customFormat="1">
-      <c r="A201" s="77" t="s">
+      <c r="A201" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B201" s="82" t="e">
+      <c r="B201" s="81" t="e">
         <f>((B198+C198+D198+E198+F198+G198+H198+I198+J198+K198)+B199)*(1-0.1*3.14)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="202" spans="1:12" s="4" customFormat="1" ht="17.399999999999999">
-      <c r="A202" s="77" t="s">
+      <c r="A202" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B202" s="83" t="e">
+      <c r="B202" s="82" t="e">
         <f>(B201*1000000000)/(B200*1000000)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="203" spans="1:12" s="5" customFormat="1">
-      <c r="A203" s="84"/>
-      <c r="B203" s="84"/>
+      <c r="A203" s="83"/>
+      <c r="B203" s="83"/>
     </row>
     <row r="204" spans="1:12" s="5" customFormat="1">
-      <c r="A204" s="84"/>
-      <c r="B204" s="84"/>
+      <c r="A204" s="83"/>
+      <c r="B204" s="83"/>
     </row>
     <row r="205" spans="1:12" s="5" customFormat="1">
-      <c r="A205" s="84"/>
-      <c r="B205" s="84"/>
+      <c r="A205" s="83"/>
+      <c r="B205" s="83"/>
     </row>
     <row r="206" spans="1:12" s="5" customFormat="1">
-      <c r="A206" s="84"/>
-      <c r="B206" s="84"/>
+      <c r="A206" s="83"/>
+      <c r="B206" s="83"/>
     </row>
     <row r="207" spans="1:12" s="5" customFormat="1">
-      <c r="A207" s="84"/>
-      <c r="B207" s="84"/>
+      <c r="A207" s="83"/>
+      <c r="B207" s="83"/>
     </row>
     <row r="208" spans="1:12" s="5" customFormat="1">
-      <c r="A208" s="84"/>
-      <c r="B208" s="84"/>
+      <c r="A208" s="83"/>
+      <c r="B208" s="83"/>
     </row>
     <row r="209" spans="1:2" s="6" customFormat="1">
       <c r="A209" s="40"/>
@@ -2349,32 +2350,32 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B13">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B13">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C28">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2387,7 +2388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2417,25 +2418,25 @@
       </c>
     </row>
     <row r="5" spans="2:9" s="10" customFormat="1">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="99" t="s">
+      <c r="H5" s="98" t="s">
         <v>56</v>
       </c>
       <c r="I5" s="35"/>
@@ -2468,25 +2469,25 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="96">
         <v>0.05</v>
       </c>
-      <c r="D7" s="97">
+      <c r="D7" s="96">
         <v>0.05</v>
       </c>
-      <c r="E7" s="97">
+      <c r="E7" s="96">
         <v>0.1</v>
       </c>
-      <c r="F7" s="97">
+      <c r="F7" s="96">
         <v>0.11</v>
       </c>
-      <c r="G7" s="97">
+      <c r="G7" s="96">
         <v>0.05</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="96">
         <v>0.06</v>
       </c>
       <c r="I7" s="38">
@@ -2522,7 +2523,7 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="36">
@@ -2549,31 +2550,31 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="28.8">
-      <c r="C10" s="96">
+      <c r="C10" s="95">
         <f>SUM(C6:C9)</f>
         <v>0.29499999999999998</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="95">
         <f t="shared" ref="D10:I10" si="0">SUM(D6:D9)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="95">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="95">
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="G10" s="96">
+      <c r="G10" s="95">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
-      <c r="H10" s="96">
+      <c r="H10" s="95">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="I10" s="98">
+      <c r="I10" s="97">
         <f t="shared" si="0"/>
         <v>0.39250000000000002</v>
       </c>
@@ -2640,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2714,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2732,7 +2733,7 @@
       <c r="C2" s="30">
         <v>1000000</v>
       </c>
-      <c r="E2" s="86">
+      <c r="E2" s="85">
         <f>FV(C3,C4,C2)*(-1)</f>
         <v>1000000.0000000009</v>
       </c>
@@ -2772,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2856,11 +2857,11 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="88" t="e">
-        <f>'ĐỊNH GIÁ '!B2</f>
+      <c r="C4" s="87" t="e">
+        <f>'ĐỊNH GIÁ'!B2</f>
         <v>#VALUE!</v>
       </c>
       <c r="D4" s="10"/>
@@ -2974,38 +2975,38 @@
       <c r="M7" s="13"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="87" t="str">
-        <f>'ĐỊNH GIÁ '!B3</f>
+      <c r="C8" s="86" t="str">
+        <f>'ĐỊNH GIÁ'!B3</f>
         <v>#VCSH</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="88" t="str">
-        <f>'ĐỊNH GIÁ '!B6</f>
+      <c r="C9" s="87" t="str">
+        <f>'ĐỊNH GIÁ'!B6</f>
         <v>#TSLCP</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="90" t="str">
-        <f>'ĐỊNH GIÁ '!B4</f>
+      <c r="C10" s="89" t="str">
+        <f>'ĐỊNH GIÁ'!B4</f>
         <v>#TLCT</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="49.8">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="89" t="str">
-        <f>'ĐỊNH GIÁ '!B5</f>
+      <c r="C11" s="88" t="str">
+        <f>'ĐỊNH GIÁ'!B5</f>
         <v>#TGCP</v>
       </c>
     </row>
@@ -3022,7 +3023,7 @@
       <c r="B13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="91" t="e">
+      <c r="C13" s="90" t="e">
         <f>(C12*1000000000)/(C9*1000000)</f>
         <v>#VALUE!</v>
       </c>
@@ -3053,7 +3054,7 @@
       <c r="B16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="94" t="e">
+      <c r="C16" s="93" t="e">
         <f>C13/C11-1</f>
         <v>#VALUE!</v>
       </c>
@@ -3065,7 +3066,7 @@
       <c r="B17" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="94" t="e">
+      <c r="C17" s="93" t="e">
         <f>0.95*C10*10000/C11</f>
         <v>#VALUE!</v>
       </c>
@@ -3074,16 +3075,16 @@
       <c r="B18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="94" t="e">
+      <c r="C18" s="93" t="e">
         <f>C14/C13-1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="49.8">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="93" t="e">
+      <c r="C19" s="92" t="e">
         <f>C16+C17+C18</f>
         <v>#VALUE!</v>
       </c>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HƯỚNG DẪN" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -123,13 +123,181 @@
     <t>B/P&lt;2(nhỏ hơn hoặc bằng 2)</t>
   </si>
   <si>
+    <t>Nợ dài hạn/LNST (quý hiện tại) nhỏ hơn  hoặc bằng 5</t>
+  </si>
+  <si>
+    <t>Tỷ lệ cổ tức</t>
+  </si>
+  <si>
+    <t>Số tiền chi cổ tức (tỷ đồng)</t>
+  </si>
+  <si>
+    <t>Số tiền tăng vốn chủ sở hữu</t>
+  </si>
+  <si>
+    <t>Vốn chủ sở hữu sau 1 năm</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>Tiền tăng lợi nhuận</t>
+  </si>
+  <si>
+    <t>Lợi nhuận mới</t>
+  </si>
+  <si>
+    <t>vnm</t>
+  </si>
+  <si>
+    <t>Năm</t>
+  </si>
+  <si>
+    <t>Lợi nhuận (tỷ đồng)</t>
+  </si>
+  <si>
+    <t>Lạm phát (%)</t>
+  </si>
+  <si>
+    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng)</t>
+  </si>
+  <si>
+    <t>Vốn chủ sở hữu hiện tại (tỷ đồng)</t>
+  </si>
+  <si>
+    <t>Tổng số lượng cổ phiếu (triệu cp)</t>
+  </si>
+  <si>
+    <t>Tổng giá trị thực doanh nghiệp (tỷ đồng)</t>
+  </si>
+  <si>
+    <t>Giá trị thực cổ phiếu</t>
+  </si>
+  <si>
+    <t>Tiêu chí/Cổ phiếu</t>
+  </si>
+  <si>
+    <t>HPG</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>MWG</t>
+  </si>
+  <si>
+    <t>DHG</t>
+  </si>
+  <si>
+    <t>SSI</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>Lãi vốn</t>
+  </si>
+  <si>
+    <t>Dòng tiền</t>
+  </si>
+  <si>
+    <t>Tăng giá trị</t>
+  </si>
+  <si>
+    <t>Lướng sóng dự kiến</t>
+  </si>
+  <si>
+    <t>* Các con số trên chỉ mang giá trị tham khảo</t>
+  </si>
+  <si>
+    <t>Nhà đầu tư cần tự Tìm Cổ Phiếu Tốt, Định Giá &amp; Thiết Lập Danh Mục)</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Lãi suất tháng</t>
+  </si>
+  <si>
+    <t>Số kỳ (tháng)</t>
+  </si>
+  <si>
+    <t>Lãi suất năm</t>
+  </si>
+  <si>
+    <t>Mục tiêu đủ lớn</t>
+  </si>
+  <si>
+    <t>Có kế hoạch, chọn cp</t>
+  </si>
+  <si>
+    <t>Phản biện chính mình, Lôi các thầy ra phản biện</t>
+  </si>
+  <si>
+    <t>LỢI NHUẬN TRUNG BÌNH MỖI NĂM TRONG 10 NĂM TỚI</t>
+  </si>
+  <si>
+    <t>Lợi nhuận đưa vào công thức (tỷ đồng)</t>
+  </si>
+  <si>
+    <t>Giá thị trường cổ phiếu (đồng/cp)</t>
+  </si>
+  <si>
+    <t>Giá trị thực cổ phiếu hiện tại</t>
+  </si>
+  <si>
+    <t>Giá trị thực sau 1 năm</t>
+  </si>
+  <si>
+    <t>Lãi vốn (mua rẻ tài sản)</t>
+  </si>
+  <si>
+    <t>Dòng tiền (tỷ lệ cổ tức)</t>
+  </si>
+  <si>
+    <t>THÀNH CÔNG</t>
+  </si>
+  <si>
+    <t>LNST 4 qúy gần nhất</t>
+  </si>
+  <si>
+    <t>cpc</t>
+  </si>
+  <si>
+    <t>#Q0</t>
+  </si>
+  <si>
+    <t>#Q1</t>
+  </si>
+  <si>
+    <t>#Q2</t>
+  </si>
+  <si>
+    <t>#Q3</t>
+  </si>
+  <si>
+    <t>#VCSH</t>
+  </si>
+  <si>
+    <t>#TLCT</t>
+  </si>
+  <si>
+    <t>#TGCP</t>
+  </si>
+  <si>
+    <t>#TSLCP</t>
+  </si>
+  <si>
+    <t>#ROA</t>
+  </si>
+  <si>
+    <t>#ROE</t>
+  </si>
+  <si>
+    <t>#PE</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Mô hình đơn giản tập chung    </t>
     </r>
     <r>
@@ -137,142 +305,11 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
+        <charset val="163"/>
       </rPr>
       <t>(cột chỉ số nếu :đạt=1,không đạt =0)</t>
     </r>
-  </si>
-  <si>
-    <t>Nợ dài hạn/LNST (quý hiện tại) nhỏ hơn  hoặc bằng 5</t>
-  </si>
-  <si>
-    <t>Tỷ lệ cổ tức</t>
-  </si>
-  <si>
-    <t>Số tiền chi cổ tức (tỷ đồng)</t>
-  </si>
-  <si>
-    <t>Số tiền tăng vốn chủ sở hữu</t>
-  </si>
-  <si>
-    <t>Vốn chủ sở hữu sau 1 năm</t>
-  </si>
-  <si>
-    <t>ROE</t>
-  </si>
-  <si>
-    <t>Tiền tăng lợi nhuận</t>
-  </si>
-  <si>
-    <t>Lợi nhuận mới</t>
-  </si>
-  <si>
-    <t>vnm</t>
-  </si>
-  <si>
-    <t>Năm</t>
-  </si>
-  <si>
-    <t>Lợi nhuận (tỷ đồng)</t>
-  </si>
-  <si>
-    <t>Lạm phát (%)</t>
-  </si>
-  <si>
-    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng)</t>
-  </si>
-  <si>
-    <t>Vốn chủ sở hữu hiện tại (tỷ đồng)</t>
-  </si>
-  <si>
-    <t>Tổng số lượng cổ phiếu (triệu cp)</t>
-  </si>
-  <si>
-    <t>Tổng giá trị thực doanh nghiệp (tỷ đồng)</t>
-  </si>
-  <si>
-    <t>Giá trị thực cổ phiếu</t>
-  </si>
-  <si>
-    <t>Tiêu chí/Cổ phiếu</t>
-  </si>
-  <si>
-    <t>HPG</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>MWG</t>
-  </si>
-  <si>
-    <t>DHG</t>
-  </si>
-  <si>
-    <t>SSI</t>
-  </si>
-  <si>
-    <t>VIC</t>
-  </si>
-  <si>
-    <t>Lãi vốn</t>
-  </si>
-  <si>
-    <t>Dòng tiền</t>
-  </si>
-  <si>
-    <t>Tăng giá trị</t>
-  </si>
-  <si>
-    <t>Lướng sóng dự kiến</t>
-  </si>
-  <si>
-    <t>* Các con số trên chỉ mang giá trị tham khảo</t>
-  </si>
-  <si>
-    <t>Nhà đầu tư cần tự Tìm Cổ Phiếu Tốt, Định Giá &amp; Thiết Lập Danh Mục)</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Lãi suất tháng</t>
-  </si>
-  <si>
-    <t>Số kỳ (tháng)</t>
-  </si>
-  <si>
-    <t>Lãi suất năm</t>
-  </si>
-  <si>
-    <t>Mục tiêu đủ lớn</t>
-  </si>
-  <si>
-    <t>Có kế hoạch, chọn cp</t>
-  </si>
-  <si>
-    <t>Phản biện chính mình, Lôi các thầy ra phản biện</t>
-  </si>
-  <si>
-    <t>LỢI NHUẬN TRUNG BÌNH MỖI NĂM TRONG 10 NĂM TỚI</t>
-  </si>
-  <si>
-    <t>Lợi nhuận đưa vào công thức (tỷ đồng)</t>
-  </si>
-  <si>
-    <t>Giá thị trường cổ phiếu (đồng/cp)</t>
-  </si>
-  <si>
-    <t>Giá trị thực cổ phiếu hiện tại</t>
-  </si>
-  <si>
-    <t>Giá trị thực sau 1 năm</t>
-  </si>
-  <si>
-    <t>Lãi vốn (mua rẻ tài sản)</t>
-  </si>
-  <si>
-    <t>Dòng tiền (tỷ lệ cổ tức)</t>
   </si>
   <si>
     <r>
@@ -283,7 +320,8 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
+        <charset val="163"/>
       </rPr>
       <t>(cột chỉ số nếu :đạt=1,không đạt =0)</t>
     </r>
@@ -297,100 +335,53 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
+        <charset val="163"/>
       </rPr>
       <t>( nếu:đạt=1 không đạt =0)</t>
     </r>
   </si>
   <si>
+    <t>LỢI NHUẬN SAU THUẾ 4 QUÝ GẦN NHẤT (tỷ đồng)</t>
+  </si>
+  <si>
+    <t>#DTUP</t>
+  </si>
+  <si>
+    <t>#LNGUP</t>
+  </si>
+  <si>
     <r>
-      <t>Lợi nhuận gộp tăng đều theo biểu đồ</t>
+      <t xml:space="preserve">Lợi nhuận gộp tăng đều theo biểu đồ </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
+        <charset val="163"/>
       </rPr>
-      <t xml:space="preserve">(cột chỉ số:đạt=1,không đạt =0)  </t>
+      <t xml:space="preserve">(Đạt=1, Không đạt = 0)  </t>
     </r>
   </si>
   <si>
     <r>
-      <t>Doanh thu tăng đều theo biểu đồ</t>
+      <t xml:space="preserve">Doanh thu tăng đều theo biểu đồ </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
+        <charset val="163"/>
       </rPr>
-      <t>(cột chỉ số nếu:đạt=1,không đạt =0)</t>
+      <t>(Đạt = 1, Không đạt = 0)</t>
     </r>
   </si>
   <si>
-    <t>THÀNH CÔNG</t>
-  </si>
-  <si>
-    <t>LNST 4 qúy gần nhất</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LỢI NHUẬN SAU THUẾ 4 QUÝ GẦN NHẤT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (tỷ đồng)</t>
-    </r>
-  </si>
-  <si>
-    <t>cpc</t>
-  </si>
-  <si>
-    <t>#Q0</t>
-  </si>
-  <si>
-    <t>#Q1</t>
-  </si>
-  <si>
-    <t>#Q2</t>
-  </si>
-  <si>
-    <t>#Q3</t>
-  </si>
-  <si>
-    <t>#VCSH</t>
-  </si>
-  <si>
-    <t>#TLCT</t>
-  </si>
-  <si>
-    <t>#TGCP</t>
-  </si>
-  <si>
-    <t>#TSLCP</t>
-  </si>
-  <si>
-    <t>#ROA</t>
-  </si>
-  <si>
-    <t>#ROE</t>
-  </si>
-  <si>
-    <t>#PE</t>
+    <t>#GOS</t>
   </si>
 </sst>
 </file>
@@ -405,7 +396,7 @@
     <numFmt numFmtId="166" formatCode="0.00_ "/>
     <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,115 +507,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -704,31 +592,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFBC32E4"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -736,7 +599,67 @@
       <charset val="163"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFBC32E4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
@@ -991,11 +914,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1037,122 +960,117 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="6" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="20" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="23" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="25" fillId="7" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="29" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="29" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="29" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="6" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="37" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="40" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="32" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="7" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="32" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="32" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="32" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="33" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1530,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
@@ -1578,7 +1496,7 @@
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="84"/>
+      <c r="C13" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1587,206 +1505,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:L210"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="57.33203125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="7"/>
-    <col min="5" max="5" width="15.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="7"/>
-    <col min="7" max="11" width="8.88671875" style="7" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5546875" customWidth="1"/>
+    <col min="1" max="1" width="58.21875" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="58"/>
+    <col min="7" max="11" width="8.88671875" style="58" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="57" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5546875" style="57" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.9" customHeight="1">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="109"/>
+      <c r="F1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="86" t="e">
+        <f>E2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="88" t="e">
+        <f>D2+D3+D5+D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="58"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="111" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1"/>
-      <c r="H1"/>
-      <c r="J1"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" ht="22.8">
-      <c r="A2" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="43" t="e">
-        <f>E2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="105" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="45" t="e">
-        <f>D2+D3+D5+D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" ht="23.1" customHeight="1">
-      <c r="A3" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="105" t="s">
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="G3" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="23.1" customHeight="1">
-      <c r="A4" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="48"/>
-    </row>
-    <row r="5" spans="1:14" ht="23.1" customHeight="1">
-      <c r="A5" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="105" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="48"/>
-    </row>
-    <row r="6" spans="1:14" ht="23.1" customHeight="1">
-      <c r="A6" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="42"/>
-    </row>
-    <row r="7" spans="1:14" ht="23.1" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="C6" s="56"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="50" t="e">
+      <c r="B7" s="95" t="e">
         <f>Hidden!C13</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C7" s="42"/>
-    </row>
-    <row r="8" spans="1:14" ht="23.1" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="42"/>
-    </row>
-    <row r="9" spans="1:14" ht="23.1" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="C7" s="56"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="56"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="53" t="e">
+      <c r="B9" s="98" t="e">
         <f>Hidden!C16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="54"/>
-      <c r="G9" s="7" t="s">
+      <c r="C9" s="56"/>
+      <c r="D9" s="61"/>
+      <c r="G9" s="58" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="23.1" customHeight="1">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53" t="e">
+      <c r="B10" s="98" t="e">
         <f>Hidden!C17</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C10" s="42"/>
-    </row>
-    <row r="11" spans="1:14" ht="23.1" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="C10" s="56"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="53" t="e">
+      <c r="B11" s="98" t="e">
         <f>Hidden!C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C11" s="42"/>
-    </row>
-    <row r="12" spans="1:14" ht="23.1" customHeight="1">
-      <c r="A12" s="55" t="s">
+      <c r="C11" s="56"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="56" t="e">
+      <c r="B12" s="100" t="e">
         <f>Hidden!C19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:14" s="39" customFormat="1" ht="30" customHeight="1">
+      <c r="D12" s="63"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:12" s="66" customFormat="1">
       <c r="A13" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-    </row>
-    <row r="14" spans="1:14" s="39" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A14" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="102"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+    </row>
+    <row r="14" spans="1:12" s="66" customFormat="1" ht="27.6">
+      <c r="A14" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="61"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
@@ -1794,557 +1710,518 @@
       <c r="I14" s="65"/>
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-    </row>
-    <row r="15" spans="1:14" ht="18.899999999999999" customHeight="1">
-      <c r="A15" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="106">
-        <v>0</v>
-      </c>
-      <c r="C15" s="67" t="e">
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="71" t="e">
         <f ca="1">_xlfn.IFS(B15=1,"YES",B15=0,"NO")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.899999999999999" customHeight="1">
-      <c r="A16" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="68">
-        <v>0</v>
-      </c>
-      <c r="C16" s="67" t="e">
+    <row r="16" spans="1:12">
+      <c r="A16" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="71" t="e">
         <f ca="1">_xlfn.IFS(B16=1,"YES",B16=0,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A17" s="66" t="s">
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="108">
-        <v>57.34</v>
-      </c>
-      <c r="C17" s="67" t="e">
+      <c r="B17" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="71" t="e">
         <f ca="1">_xlfn.IFS(B17&gt;=15,"YES",B17&lt;15,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A18" s="66" t="s">
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="108">
+      <c r="B18" s="55">
         <v>491.69</v>
       </c>
-      <c r="C18" s="67" t="e">
+      <c r="C18" s="71" t="e">
         <f ca="1">_xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A19" s="66" t="s">
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="67" t="e">
+      <c r="B19" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="71" t="e">
         <f ca="1">_xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A20" s="66" t="s">
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="67" t="e">
+      <c r="B20" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="71" t="e">
         <f ca="1">_xlfn.IFS(B20&gt;=15,"YES",B20&lt;15,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A21" s="66" t="s">
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="108">
+      <c r="B21" s="55">
         <v>44.83</v>
       </c>
-      <c r="C21" s="67" t="e">
+      <c r="C21" s="71" t="e">
         <f ca="1">_xlfn.IFS(B21&gt;=10,"YES",B21&lt;10,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A22" s="66" t="s">
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="108">
+      <c r="B22" s="55">
         <v>0.81</v>
       </c>
-      <c r="C22" s="67" t="e">
+      <c r="C22" s="71" t="e">
         <f ca="1">_xlfn.IFS(B22&lt;=1,"YES",B22&gt;1,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A23" s="66" t="s">
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="67" t="e">
+      <c r="B23" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="71" t="e">
         <f ca="1">_xlfn.IFS(B23&lt;=15,"YES",B23&gt;15,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A24" s="66" t="s">
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="108">
+      <c r="B24" s="55">
         <v>2.0099999999999998</v>
       </c>
-      <c r="C24" s="67" t="e">
+      <c r="C24" s="71" t="e">
         <f ca="1">_xlfn.IFS(B24&lt;=2,"YES",B24&gt;2,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A25" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="68">
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="72">
         <v>1</v>
       </c>
-      <c r="C25" s="67" t="e">
+      <c r="C25" s="71" t="e">
         <f t="shared" ref="C25:C27" ca="1" si="0">_xlfn.IFS(B25=1,"YES",B25=0,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A26" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="68">
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="72">
         <v>0</v>
       </c>
-      <c r="C26" s="67" t="e">
+      <c r="C26" s="71" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A27" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="68">
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="72">
         <v>1</v>
       </c>
-      <c r="C27" s="67" t="e">
+      <c r="C27" s="71" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.899999999999999" customHeight="1">
-      <c r="A28" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="110">
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="75">
         <v>1.59</v>
       </c>
-      <c r="C28" s="71" t="e">
+      <c r="C28" s="76" t="e">
         <f ca="1">_xlfn.IFS(B28&lt;=5,"YES",B28&gt;5,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="1:11" ht="14.4">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="1:11" ht="14.4">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:11" ht="14.4">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-    </row>
-    <row r="183" spans="1:3" s="3" customFormat="1">
-      <c r="A183" s="73"/>
-      <c r="B183" s="73"/>
-    </row>
-    <row r="184" spans="1:3" s="4" customFormat="1">
-      <c r="A184" s="74"/>
-      <c r="B184" s="74"/>
-    </row>
-    <row r="185" spans="1:3" s="4" customFormat="1">
-      <c r="A185" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B185" s="75" t="str">
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="183" spans="1:3" s="77" customFormat="1"/>
+    <row r="184" spans="1:3" s="78" customFormat="1"/>
+    <row r="185" spans="1:3" s="78" customFormat="1">
+      <c r="A185" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B185" s="103" t="str">
         <f>B4</f>
         <v>#TLCT</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="4" customFormat="1">
-      <c r="A186" s="74" t="s">
+    <row r="186" spans="1:3" s="78" customFormat="1">
+      <c r="A186" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B186" s="78" t="e">
+        <f>B185*10*B6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C186" s="79"/>
+    </row>
+    <row r="187" spans="1:3" s="78" customFormat="1">
+      <c r="A187" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B186" s="74" t="e">
-        <f>B185*10*B6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C186" s="22"/>
-    </row>
-    <row r="187" spans="1:3" s="4" customFormat="1">
-      <c r="A187" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="B187" s="74" t="e">
+      <c r="B187" s="78" t="e">
         <f>#REF!-B186</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="4" customFormat="1" ht="17.399999999999999">
-      <c r="A188" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="B188" s="76" t="e">
+    <row r="188" spans="1:3" s="78" customFormat="1">
+      <c r="A188" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B188" s="80" t="e">
         <f>B187+B3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="4" customFormat="1">
-      <c r="A189" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="B189" s="77" t="e">
+    <row r="189" spans="1:3" s="78" customFormat="1">
+      <c r="A189" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B189" s="104" t="e">
         <f>#REF!/B3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="4" customFormat="1">
-      <c r="A190" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="B190" s="78" t="e">
+    <row r="190" spans="1:3" s="78" customFormat="1">
+      <c r="A190" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B190" s="81" t="e">
         <f>B189*B187</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="4" customFormat="1" ht="17.399999999999999">
-      <c r="A191" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B191" s="79" t="e">
+    <row r="191" spans="1:3" s="78" customFormat="1">
+      <c r="A191" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B191" s="105" t="e">
         <f>B190+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="4" customFormat="1">
-      <c r="A192" s="74"/>
-      <c r="B192" s="74"/>
-    </row>
-    <row r="193" spans="1:12" s="4" customFormat="1">
-      <c r="A193" s="74"/>
-      <c r="B193" s="74"/>
-    </row>
-    <row r="194" spans="1:12" s="4" customFormat="1">
-      <c r="A194" s="74" t="s">
+    <row r="192" spans="1:3" s="78" customFormat="1"/>
+    <row r="193" spans="1:12" s="78" customFormat="1"/>
+    <row r="194" spans="1:12" s="78" customFormat="1">
+      <c r="A194" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194" s="78">
+        <v>2017</v>
+      </c>
+      <c r="C194" s="78">
+        <v>2018</v>
+      </c>
+      <c r="D194" s="78">
+        <v>2019</v>
+      </c>
+      <c r="E194" s="78">
+        <v>2020</v>
+      </c>
+      <c r="F194" s="78">
+        <v>2021</v>
+      </c>
+      <c r="G194" s="78">
+        <v>2022</v>
+      </c>
+      <c r="H194" s="78">
+        <v>2023</v>
+      </c>
+      <c r="I194" s="78">
+        <v>2024</v>
+      </c>
+      <c r="J194" s="78">
+        <v>2025</v>
+      </c>
+      <c r="K194" s="78">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" s="78" customFormat="1">
+      <c r="A195" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B194" s="74">
-        <v>2017</v>
-      </c>
-      <c r="C194" s="4">
-        <v>2018</v>
-      </c>
-      <c r="D194" s="4">
-        <v>2019</v>
-      </c>
-      <c r="E194" s="4">
-        <v>2020</v>
-      </c>
-      <c r="F194" s="4">
-        <v>2021</v>
-      </c>
-      <c r="G194" s="4">
-        <v>2022</v>
-      </c>
-      <c r="H194" s="4">
-        <v>2023</v>
-      </c>
-      <c r="I194" s="4">
-        <v>2024</v>
-      </c>
-      <c r="J194" s="4">
-        <v>2025</v>
-      </c>
-      <c r="K194" s="4">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" s="4" customFormat="1" ht="17.399999999999999">
-      <c r="A195" s="76" t="s">
+      <c r="B195" s="80">
+        <v>1</v>
+      </c>
+      <c r="C195" s="80">
+        <v>2</v>
+      </c>
+      <c r="D195" s="80">
+        <v>3</v>
+      </c>
+      <c r="E195" s="80">
+        <v>4</v>
+      </c>
+      <c r="F195" s="80">
+        <v>5</v>
+      </c>
+      <c r="G195" s="80">
+        <v>6</v>
+      </c>
+      <c r="H195" s="80">
+        <v>7</v>
+      </c>
+      <c r="I195" s="80">
+        <v>8</v>
+      </c>
+      <c r="J195" s="80">
+        <v>9</v>
+      </c>
+      <c r="K195" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" s="78" customFormat="1">
+      <c r="A196" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B195" s="76">
-        <v>1</v>
-      </c>
-      <c r="C195" s="23">
-        <v>2</v>
-      </c>
-      <c r="D195" s="23">
-        <v>3</v>
-      </c>
-      <c r="E195" s="23">
-        <v>4</v>
-      </c>
-      <c r="F195" s="23">
-        <v>5</v>
-      </c>
-      <c r="G195" s="23">
-        <v>6</v>
-      </c>
-      <c r="H195" s="23">
-        <v>7</v>
-      </c>
-      <c r="I195" s="23">
-        <v>8</v>
-      </c>
-      <c r="J195" s="23">
-        <v>9</v>
-      </c>
-      <c r="K195" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" s="4" customFormat="1">
-      <c r="A196" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B196" s="78" t="e">
+      <c r="B196" s="81" t="e">
         <f>B191</f>
         <v>#REF!</v>
       </c>
-      <c r="C196" s="4" t="e">
+      <c r="C196" s="78" t="e">
         <f>B196</f>
         <v>#REF!</v>
       </c>
-      <c r="D196" s="4" t="e">
+      <c r="D196" s="78" t="e">
         <f>C196</f>
         <v>#REF!</v>
       </c>
-      <c r="E196" s="4" t="e">
+      <c r="E196" s="78" t="e">
         <f t="shared" ref="E196:K196" si="1">D196</f>
         <v>#REF!</v>
       </c>
-      <c r="F196" s="4" t="e">
+      <c r="F196" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="G196" s="4" t="e">
+      <c r="G196" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="H196" s="4" t="e">
+      <c r="H196" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="I196" s="4" t="e">
+      <c r="I196" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="J196" s="4" t="e">
+      <c r="J196" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="K196" s="4" t="e">
+      <c r="K196" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="197" spans="1:12" s="4" customFormat="1">
-      <c r="A197" s="76" t="s">
+    <row r="197" spans="1:12" s="78" customFormat="1">
+      <c r="A197" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B197" s="106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" s="78" customFormat="1">
+      <c r="A198" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B197" s="80">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" s="4" customFormat="1">
-      <c r="A198" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B198" s="78" t="e">
+      <c r="B198" s="81" t="e">
         <f>B196/(1+#REF!)^B195</f>
         <v>#REF!</v>
       </c>
-      <c r="C198" s="25" t="e">
+      <c r="C198" s="81" t="e">
         <f>C196/(1+#REF!)^C195</f>
         <v>#REF!</v>
       </c>
-      <c r="D198" s="25" t="e">
+      <c r="D198" s="81" t="e">
         <f>D196/(1+#REF!)^D195</f>
         <v>#REF!</v>
       </c>
-      <c r="E198" s="25" t="e">
+      <c r="E198" s="81" t="e">
         <f>E196/(1+#REF!)^E195</f>
         <v>#REF!</v>
       </c>
-      <c r="F198" s="25" t="e">
+      <c r="F198" s="81" t="e">
         <f>F196/(1+#REF!)^F195</f>
         <v>#REF!</v>
       </c>
-      <c r="G198" s="25" t="e">
+      <c r="G198" s="81" t="e">
         <f>G196/(1+#REF!)^G195</f>
         <v>#REF!</v>
       </c>
-      <c r="H198" s="25" t="e">
+      <c r="H198" s="81" t="e">
         <f>H196/(1+#REF!)^H195</f>
         <v>#REF!</v>
       </c>
-      <c r="I198" s="25" t="e">
+      <c r="I198" s="81" t="e">
         <f>I196/(1+#REF!)^I195</f>
         <v>#REF!</v>
       </c>
-      <c r="J198" s="25" t="e">
+      <c r="J198" s="81" t="e">
         <f>J196/(1+#REF!)^J195</f>
         <v>#REF!</v>
       </c>
-      <c r="K198" s="25" t="e">
+      <c r="K198" s="81" t="e">
         <f>K196/(1+#REF!)^K195</f>
         <v>#REF!</v>
       </c>
-      <c r="L198" s="25"/>
-    </row>
-    <row r="199" spans="1:12" s="4" customFormat="1" ht="17.399999999999999">
-      <c r="A199" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B199" s="76" t="e">
+      <c r="L198" s="81"/>
+    </row>
+    <row r="199" spans="1:12" s="78" customFormat="1">
+      <c r="A199" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B199" s="80" t="e">
         <f>B188</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="200" spans="1:12" s="4" customFormat="1">
-      <c r="A200" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="B200" s="74" t="str">
+    <row r="200" spans="1:12" s="78" customFormat="1">
+      <c r="A200" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B200" s="78" t="str">
         <f>B6</f>
         <v>#TSLCP</v>
       </c>
     </row>
-    <row r="201" spans="1:12" s="4" customFormat="1">
-      <c r="A201" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B201" s="81" t="e">
+    <row r="201" spans="1:12" s="78" customFormat="1">
+      <c r="A201" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B201" s="79" t="e">
         <f>((B198+C198+D198+E198+F198+G198+H198+I198+J198+K198)+B199)*(1-0.1*3.14)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="202" spans="1:12" s="4" customFormat="1" ht="17.399999999999999">
-      <c r="A202" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="B202" s="82" t="e">
+    <row r="202" spans="1:12" s="78" customFormat="1">
+      <c r="A202" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B202" s="107" t="e">
         <f>(B201*1000000000)/(B200*1000000)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="203" spans="1:12" s="5" customFormat="1">
-      <c r="A203" s="83"/>
-      <c r="B203" s="83"/>
-    </row>
-    <row r="204" spans="1:12" s="5" customFormat="1">
-      <c r="A204" s="83"/>
-      <c r="B204" s="83"/>
-    </row>
-    <row r="205" spans="1:12" s="5" customFormat="1">
-      <c r="A205" s="83"/>
-      <c r="B205" s="83"/>
-    </row>
-    <row r="206" spans="1:12" s="5" customFormat="1">
-      <c r="A206" s="83"/>
-      <c r="B206" s="83"/>
-    </row>
-    <row r="207" spans="1:12" s="5" customFormat="1">
-      <c r="A207" s="83"/>
-      <c r="B207" s="83"/>
-    </row>
-    <row r="208" spans="1:12" s="5" customFormat="1">
-      <c r="A208" s="83"/>
-      <c r="B208" s="83"/>
-    </row>
-    <row r="209" spans="1:2" s="6" customFormat="1">
-      <c r="A209" s="40"/>
-      <c r="B209" s="40"/>
-    </row>
-    <row r="210" spans="1:2" s="6" customFormat="1">
-      <c r="A210" s="40"/>
-      <c r="B210" s="40"/>
-    </row>
+    <row r="203" spans="1:12" s="82" customFormat="1"/>
+    <row r="204" spans="1:12" s="82" customFormat="1"/>
+    <row r="205" spans="1:12" s="82" customFormat="1"/>
+    <row r="206" spans="1:12" s="82" customFormat="1"/>
+    <row r="207" spans="1:12" s="82" customFormat="1"/>
+    <row r="208" spans="1:12" s="82" customFormat="1"/>
+    <row r="209" s="57" customFormat="1"/>
+    <row r="210" s="57" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
@@ -2418,32 +2295,32 @@
       </c>
     </row>
     <row r="5" spans="2:9" s="10" customFormat="1">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="D5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="E5" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="F5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="G5" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="H5" s="53" t="s">
         <v>55</v>
-      </c>
-      <c r="H5" s="98" t="s">
-        <v>56</v>
       </c>
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="36">
         <v>0.17499999999999999</v>
@@ -2469,25 +2346,25 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="96">
+      <c r="B7" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="51">
         <v>0.05</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="51">
         <v>0.05</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="51">
         <v>0.1</v>
       </c>
-      <c r="F7" s="96">
+      <c r="F7" s="51">
         <v>0.11</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="51">
         <v>0.05</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="51">
         <v>0.06</v>
       </c>
       <c r="I7" s="38">
@@ -2497,7 +2374,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="36">
         <v>7.0000000000000007E-2</v>
@@ -2523,8 +2400,8 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="86" t="s">
-        <v>60</v>
+      <c r="B9" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="C9" s="36">
         <v>0</v>
@@ -2550,31 +2427,31 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="28.8">
-      <c r="C10" s="95">
+      <c r="C10" s="50">
         <f>SUM(C6:C9)</f>
         <v>0.29499999999999998</v>
       </c>
-      <c r="D10" s="95">
+      <c r="D10" s="50">
         <f t="shared" ref="D10:I10" si="0">SUM(D6:D9)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="50">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F10" s="95">
+      <c r="F10" s="50">
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="G10" s="95">
+      <c r="G10" s="50">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
-      <c r="H10" s="95">
+      <c r="H10" s="50">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="I10" s="97">
+      <c r="I10" s="52">
         <f t="shared" si="0"/>
         <v>0.39250000000000002</v>
       </c>
@@ -2589,7 +2466,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="C12" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -2599,7 +2476,7 @@
     </row>
     <row r="13" spans="2:9">
       <c r="C13" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -2655,7 +2532,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.8">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="33">
         <v>100000000</v>
@@ -2667,7 +2544,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="32">
         <v>0.02</v>
@@ -2675,7 +2552,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="30">
         <v>1</v>
@@ -2683,7 +2560,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="32">
         <f>(1+C3)^12-1</f>
@@ -2692,17 +2569,17 @@
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2728,19 +2605,19 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.8">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="30">
         <v>1000000</v>
       </c>
-      <c r="E2" s="85">
+      <c r="E2" s="40">
         <f>FV(C3,C4,C2)*(-1)</f>
         <v>1000000.0000000009</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="31">
         <v>0.02</v>
@@ -2748,7 +2625,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2756,7 +2633,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="32">
         <f>(1+C3)^12-1</f>
@@ -2822,7 +2699,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -2857,10 +2734,10 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="87" t="e">
+      <c r="B4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="42" t="e">
         <f>'ĐỊNH GIÁ'!B2</f>
         <v>#VALUE!</v>
       </c>
@@ -2877,7 +2754,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="e">
         <f>C4</f>
@@ -2922,7 +2799,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="11">
         <v>7.0000000000000007E-2</v>
@@ -2930,7 +2807,7 @@
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1">
       <c r="B7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="13" t="e">
         <f>C5/(1+$C$6)^C3</f>
@@ -2975,44 +2852,44 @@
       <c r="M7" s="13"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="86" t="str">
+      <c r="B8" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="41" t="str">
         <f>'ĐỊNH GIÁ'!B3</f>
         <v>#VCSH</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="87" t="str">
+      <c r="B9" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="42" t="str">
         <f>'ĐỊNH GIÁ'!B6</f>
         <v>#TSLCP</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="89" t="str">
+      <c r="B10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="44" t="str">
         <f>'ĐỊNH GIÁ'!B4</f>
         <v>#TLCT</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="49.8">
-      <c r="B11" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="88" t="str">
+      <c r="B11" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="43" t="str">
         <f>'ĐỊNH GIÁ'!B5</f>
         <v>#TGCP</v>
       </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>((C7+D7+E7+F7+G7+H7+I7+J7+K7+L7)+C8)*(1-0.1*3.14)</f>
@@ -3021,16 +2898,16 @@
     </row>
     <row r="13" spans="2:13" ht="49.8">
       <c r="B13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="90" t="e">
+        <v>72</v>
+      </c>
+      <c r="C13" s="45" t="e">
         <f>(C12*1000000000)/(C9*1000000)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="16" t="e">
         <f>C208</f>
@@ -3052,9 +2929,9 @@
     </row>
     <row r="16" spans="2:13" ht="49.8">
       <c r="B16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="93" t="e">
+        <v>74</v>
+      </c>
+      <c r="C16" s="48" t="e">
         <f>C13/C11-1</f>
         <v>#VALUE!</v>
       </c>
@@ -3064,27 +2941,27 @@
     </row>
     <row r="17" spans="2:3" ht="49.8">
       <c r="B17" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="93" t="e">
+        <v>75</v>
+      </c>
+      <c r="C17" s="48" t="e">
         <f>0.95*C10*10000/C11</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="49.8">
       <c r="B18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="93" t="e">
+        <v>58</v>
+      </c>
+      <c r="C18" s="48" t="e">
         <f>C14/C13-1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="49.8">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="92" t="e">
+      <c r="C19" s="47" t="e">
         <f>C16+C17+C18</f>
         <v>#VALUE!</v>
       </c>
@@ -3093,7 +2970,7 @@
     <row r="190" spans="2:4" s="4" customFormat="1"/>
     <row r="191" spans="2:4" s="4" customFormat="1">
       <c r="B191" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C191" s="21" t="str">
         <f>C10</f>
@@ -3102,7 +2979,7 @@
     </row>
     <row r="192" spans="2:4" s="4" customFormat="1">
       <c r="B192" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C192" s="4" t="e">
         <f>C191*10*C9</f>
@@ -3112,7 +2989,7 @@
     </row>
     <row r="193" spans="2:13" s="4" customFormat="1">
       <c r="B193" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C193" s="4" t="e">
         <f>C5-C192</f>
@@ -3121,7 +2998,7 @@
     </row>
     <row r="194" spans="2:13" s="4" customFormat="1">
       <c r="B194" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C194" s="23" t="e">
         <f>C193+C8</f>
@@ -3130,7 +3007,7 @@
     </row>
     <row r="195" spans="2:13" s="4" customFormat="1">
       <c r="B195" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C195" s="24" t="e">
         <f>C5/C8</f>
@@ -3139,7 +3016,7 @@
     </row>
     <row r="196" spans="2:13" s="4" customFormat="1">
       <c r="B196" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C196" s="25" t="e">
         <f>C195*C193</f>
@@ -3148,7 +3025,7 @@
     </row>
     <row r="197" spans="2:13" s="4" customFormat="1">
       <c r="B197" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C197" s="26" t="e">
         <f>C196+C5</f>
@@ -3159,7 +3036,7 @@
     <row r="199" spans="2:13" s="4" customFormat="1"/>
     <row r="200" spans="2:13" s="4" customFormat="1">
       <c r="B200" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C200" s="4">
         <v>2017</v>
@@ -3194,7 +3071,7 @@
     </row>
     <row r="201" spans="2:13" s="4" customFormat="1">
       <c r="B201" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C201" s="23">
         <v>1</v>
@@ -3229,7 +3106,7 @@
     </row>
     <row r="202" spans="2:13" s="4" customFormat="1">
       <c r="B202" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C202" s="25" t="e">
         <f>C197</f>
@@ -3274,7 +3151,7 @@
     </row>
     <row r="203" spans="2:13" s="4" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C203" s="27">
         <v>7.0000000000000007E-2</v>
@@ -3282,7 +3159,7 @@
     </row>
     <row r="204" spans="2:13" s="4" customFormat="1">
       <c r="B204" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C204" s="25" t="e">
         <f>C202/(1+$C$6)^C201</f>
@@ -3328,7 +3205,7 @@
     </row>
     <row r="205" spans="2:13" s="4" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C205" s="23" t="e">
         <f>C194</f>
@@ -3337,7 +3214,7 @@
     </row>
     <row r="206" spans="2:13" s="4" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C206" s="4" t="str">
         <f>C9</f>
@@ -3346,7 +3223,7 @@
     </row>
     <row r="207" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B207" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C207" s="28" t="e">
         <f>((C204+D204+E204+F204+G204+H204+I204+J204+K204+L204)+C205)*(1-0.1*3.14)</f>
@@ -3355,7 +3232,7 @@
     </row>
     <row r="208" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B208" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C208" s="29" t="e">
         <f>(C207*1000000000)/(C206*1000000)</f>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="HƯỚNG DẪN" sheetId="8" r:id="rId1"/>
+    <sheet name="HƯỚNG DẪN" sheetId="8" state="hidden" r:id="rId1"/>
     <sheet name="ĐỊNH GIÁ" sheetId="9" r:id="rId2"/>
-    <sheet name="DANH MỤC" sheetId="4" r:id="rId3"/>
-    <sheet name="LSK-Vốn Gốc" sheetId="6" r:id="rId4"/>
-    <sheet name="LSK-Tiền Đều" sheetId="7" r:id="rId5"/>
+    <sheet name="DANH MỤC" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="LSK-Vốn Gốc" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="LSK-Tiền Đều" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="Hidden" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -120,9 +120,6 @@
     <t>P/E &lt;15(có thể 20) nhỏ hơn hoặc bằng 15</t>
   </si>
   <si>
-    <t>B/P&lt;2(nhỏ hơn hoặc bằng 2)</t>
-  </si>
-  <si>
     <t>Nợ dài hạn/LNST (quý hiện tại) nhỏ hơn  hoặc bằng 5</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>LNST 4 qúy gần nhất</t>
   </si>
   <si>
-    <t>cpc</t>
-  </si>
-  <si>
     <t>#Q0</t>
   </si>
   <si>
@@ -295,51 +289,6 @@
   </si>
   <si>
     <t>#PE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mô hình đơn giản tập chung    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-      </rPr>
-      <t>(cột chỉ số nếu :đạt=1,không đạt =0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ban  lãnh đạo mua bán cố phần</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-      </rPr>
-      <t>(cột chỉ số nếu :đạt=1,không đạt =0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dòng tiền từ hoạt động Kinh doanh dương</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-      </rPr>
-      <t>( nếu:đạt=1 không đạt =0)</t>
-    </r>
   </si>
   <si>
     <t>LỢI NHUẬN SAU THUẾ 4 QUÝ GẦN NHẤT (tỷ đồng)</t>
@@ -382,6 +331,81 @@
   </si>
   <si>
     <t>#GOS</t>
+  </si>
+  <si>
+    <t>#NPM</t>
+  </si>
+  <si>
+    <t>#ROIC</t>
+  </si>
+  <si>
+    <t>#NOVCSH</t>
+  </si>
+  <si>
+    <t>P/B&lt;2(nhỏ hơn hoặc bằng 2)</t>
+  </si>
+  <si>
+    <t>#PB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mô hình đơn giản tập chung </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(Đạt = 1, Không đạt = 0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dòng tiền từ hoạt động Kinh doanh dương </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(Đạt = 1, Không đạt = 0)</t>
+    </r>
+  </si>
+  <si>
+    <t>#DTP</t>
+  </si>
+  <si>
+    <t>#NDHLNST</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ban lãnh đạo mua bán cố phần </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(Đạt = 1, Không đạt = 0)</t>
+    </r>
+  </si>
+  <si>
+    <t>#BLDMB</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>#SYMBOL</t>
   </si>
 </sst>
 </file>
@@ -1508,16 +1532,16 @@
   <dimension ref="A1:L210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="58.21875" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="57" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="58" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="58" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="58"/>
     <col min="7" max="11" width="8.88671875" style="58" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="57" hidden="1" customWidth="1"/>
@@ -1527,12 +1551,12 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="83" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="56"/>
       <c r="D1" s="108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="109"/>
       <c r="F1" s="57"/>
@@ -1542,7 +1566,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="85" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B2" s="86" t="e">
         <f>E2</f>
@@ -1550,7 +1574,7 @@
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="88" t="e">
         <f>D2+D3+D5+D4</f>
@@ -1571,11 +1595,11 @@
         <v>9</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>10</v>
@@ -1586,11 +1610,11 @@
         <v>11</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1598,11 +1622,11 @@
         <v>12</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1610,7 +1634,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="56"/>
     </row>
@@ -1679,7 +1703,7 @@
     </row>
     <row r="13" spans="1:12" s="66" customFormat="1">
       <c r="A13" s="101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="102"/>
       <c r="C13" s="64"/>
@@ -1713,10 +1737,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="70" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C15" s="71" t="e">
         <f ca="1">_xlfn.IFS(B15=1,"YES",B15=0,"NO")</f>
@@ -1725,10 +1749,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="70" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C16" s="71" t="e">
         <f ca="1">_xlfn.IFS(B16=1,"YES",B16=0,"NO")</f>
@@ -1743,7 +1767,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C17" s="71" t="e">
         <f ca="1">_xlfn.IFS(B17&gt;=15,"YES",B17&lt;15,"NO")</f>
@@ -1757,8 +1781,8 @@
       <c r="A18" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="55">
-        <v>491.69</v>
+      <c r="B18" s="55" t="s">
+        <v>94</v>
       </c>
       <c r="C18" s="71" t="e">
         <f ca="1">_xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO")</f>
@@ -1773,7 +1797,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="71" t="e">
         <f ca="1">_xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO")</f>
@@ -1788,7 +1812,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20" s="71" t="e">
         <f ca="1">_xlfn.IFS(B20&gt;=15,"YES",B20&lt;15,"NO")</f>
@@ -1802,8 +1826,8 @@
       <c r="A21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="55">
-        <v>44.83</v>
+      <c r="B21" s="55" t="s">
+        <v>95</v>
       </c>
       <c r="C21" s="71" t="e">
         <f ca="1">_xlfn.IFS(B21&gt;=10,"YES",B21&lt;10,"NO")</f>
@@ -1817,8 +1841,8 @@
       <c r="A22" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="55">
-        <v>0.81</v>
+      <c r="B22" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="C22" s="71" t="e">
         <f ca="1">_xlfn.IFS(B22&lt;=1,"YES",B22&gt;1,"NO")</f>
@@ -1833,7 +1857,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="71" t="e">
         <f ca="1">_xlfn.IFS(B23&lt;=15,"YES",B23&gt;15,"NO")</f>
@@ -1845,10 +1869,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="55">
-        <v>2.0099999999999998</v>
+        <v>97</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>98</v>
       </c>
       <c r="C24" s="71" t="e">
         <f ca="1">_xlfn.IFS(B24&lt;=2,"YES",B24&gt;2,"NO")</f>
@@ -1862,10 +1886,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="72">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>105</v>
       </c>
       <c r="C25" s="71" t="e">
         <f t="shared" ref="C25:C27" ca="1" si="0">_xlfn.IFS(B25=1,"YES",B25=0,"NO")</f>
@@ -1877,10 +1901,10 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="72">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>104</v>
       </c>
       <c r="C26" s="71" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -1892,10 +1916,10 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="72">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>101</v>
       </c>
       <c r="C27" s="71" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -1907,10 +1931,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="75">
-        <v>1.59</v>
+        <v>31</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>102</v>
       </c>
       <c r="C28" s="76" t="e">
         <f ca="1">_xlfn.IFS(B28&lt;=5,"YES",B28&gt;5,"NO")</f>
@@ -1945,7 +1969,7 @@
     <row r="184" spans="1:3" s="78" customFormat="1"/>
     <row r="185" spans="1:3" s="78" customFormat="1">
       <c r="A185" s="78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B185" s="103" t="str">
         <f>B4</f>
@@ -1954,7 +1978,7 @@
     </row>
     <row r="186" spans="1:3" s="78" customFormat="1">
       <c r="A186" s="78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B186" s="78" t="e">
         <f>B185*10*B6</f>
@@ -1964,7 +1988,7 @@
     </row>
     <row r="187" spans="1:3" s="78" customFormat="1">
       <c r="A187" s="78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B187" s="78" t="e">
         <f>#REF!-B186</f>
@@ -1973,7 +1997,7 @@
     </row>
     <row r="188" spans="1:3" s="78" customFormat="1">
       <c r="A188" s="80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B188" s="80" t="e">
         <f>B187+B3</f>
@@ -1982,7 +2006,7 @@
     </row>
     <row r="189" spans="1:3" s="78" customFormat="1">
       <c r="A189" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B189" s="104" t="e">
         <f>#REF!/B3</f>
@@ -1991,7 +2015,7 @@
     </row>
     <row r="190" spans="1:3" s="78" customFormat="1">
       <c r="A190" s="78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B190" s="81" t="e">
         <f>B189*B187</f>
@@ -2000,7 +2024,7 @@
     </row>
     <row r="191" spans="1:3" s="78" customFormat="1">
       <c r="A191" s="80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B191" s="105" t="e">
         <f>B190+#REF!</f>
@@ -2011,7 +2035,7 @@
     <row r="193" spans="1:12" s="78" customFormat="1"/>
     <row r="194" spans="1:12" s="78" customFormat="1">
       <c r="A194" s="78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B194" s="78">
         <v>2017</v>
@@ -2046,7 +2070,7 @@
     </row>
     <row r="195" spans="1:12" s="78" customFormat="1">
       <c r="A195" s="80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B195" s="80">
         <v>1</v>
@@ -2081,7 +2105,7 @@
     </row>
     <row r="196" spans="1:12" s="78" customFormat="1">
       <c r="A196" s="80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B196" s="81" t="e">
         <f>B191</f>
@@ -2126,7 +2150,7 @@
     </row>
     <row r="197" spans="1:12" s="78" customFormat="1">
       <c r="A197" s="80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B197" s="106">
         <v>7.0000000000000007E-2</v>
@@ -2134,7 +2158,7 @@
     </row>
     <row r="198" spans="1:12" s="78" customFormat="1">
       <c r="A198" s="80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B198" s="81" t="e">
         <f>B196/(1+#REF!)^B195</f>
@@ -2180,7 +2204,7 @@
     </row>
     <row r="199" spans="1:12" s="78" customFormat="1">
       <c r="A199" s="80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B199" s="80" t="e">
         <f>B188</f>
@@ -2189,7 +2213,7 @@
     </row>
     <row r="200" spans="1:12" s="78" customFormat="1">
       <c r="A200" s="80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B200" s="78" t="str">
         <f>B6</f>
@@ -2198,7 +2222,7 @@
     </row>
     <row r="201" spans="1:12" s="78" customFormat="1">
       <c r="A201" s="80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B201" s="79" t="e">
         <f>((B198+C198+D198+E198+F198+G198+H198+I198+J198+K198)+B199)*(1-0.1*3.14)</f>
@@ -2207,7 +2231,7 @@
     </row>
     <row r="202" spans="1:12" s="78" customFormat="1">
       <c r="A202" s="80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B202" s="107" t="e">
         <f>(B201*1000000000)/(B200*1000000)</f>
@@ -2296,31 +2320,31 @@
     </row>
     <row r="5" spans="2:9" s="10" customFormat="1">
       <c r="B5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="D5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="E5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="F5" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="G5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="H5" s="53" t="s">
         <v>54</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>55</v>
       </c>
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="36">
         <v>0.17499999999999999</v>
@@ -2347,7 +2371,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="51">
         <v>0.05</v>
@@ -2374,7 +2398,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="36">
         <v>7.0000000000000007E-2</v>
@@ -2401,7 +2425,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="36">
         <v>0</v>
@@ -2466,7 +2490,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="C12" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -2476,7 +2500,7 @@
     </row>
     <row r="13" spans="2:9">
       <c r="C13" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -2519,7 +2543,7 @@
   <dimension ref="B2:E40"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2532,7 +2556,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.8">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="33">
         <v>100000000</v>
@@ -2544,7 +2568,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="32">
         <v>0.02</v>
@@ -2552,7 +2576,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="30">
         <v>1</v>
@@ -2560,7 +2584,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="32">
         <f>(1+C3)^12-1</f>
@@ -2569,17 +2593,17 @@
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +2617,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2605,7 +2629,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.8">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="30">
         <v>1000000</v>
@@ -2617,7 +2641,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="31">
         <v>0.02</v>
@@ -2625,7 +2649,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2633,7 +2657,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="32">
         <f>(1+C3)^12-1</f>
@@ -2699,7 +2723,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -2735,7 +2759,7 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="42" t="e">
         <f>'ĐỊNH GIÁ'!B2</f>
@@ -2754,7 +2778,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="6" t="e">
         <f>C4</f>
@@ -2799,7 +2823,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="11">
         <v>7.0000000000000007E-2</v>
@@ -2807,7 +2831,7 @@
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1">
       <c r="B7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="13" t="e">
         <f>C5/(1+$C$6)^C3</f>
@@ -2853,7 +2877,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="41" t="str">
         <f>'ĐỊNH GIÁ'!B3</f>
@@ -2862,7 +2886,7 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="42" t="str">
         <f>'ĐỊNH GIÁ'!B6</f>
@@ -2871,7 +2895,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="44" t="str">
         <f>'ĐỊNH GIÁ'!B4</f>
@@ -2880,7 +2904,7 @@
     </row>
     <row r="11" spans="2:13" ht="49.8">
       <c r="B11" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="43" t="str">
         <f>'ĐỊNH GIÁ'!B5</f>
@@ -2889,7 +2913,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>((C7+D7+E7+F7+G7+H7+I7+J7+K7+L7)+C8)*(1-0.1*3.14)</f>
@@ -2898,7 +2922,7 @@
     </row>
     <row r="13" spans="2:13" ht="49.8">
       <c r="B13" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="45" t="e">
         <f>(C12*1000000000)/(C9*1000000)</f>
@@ -2907,7 +2931,7 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="16" t="e">
         <f>C208</f>
@@ -2929,7 +2953,7 @@
     </row>
     <row r="16" spans="2:13" ht="49.8">
       <c r="B16" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="48" t="e">
         <f>C13/C11-1</f>
@@ -2941,7 +2965,7 @@
     </row>
     <row r="17" spans="2:3" ht="49.8">
       <c r="B17" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="48" t="e">
         <f>0.95*C10*10000/C11</f>
@@ -2950,7 +2974,7 @@
     </row>
     <row r="18" spans="2:3" ht="49.8">
       <c r="B18" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="48" t="e">
         <f>C14/C13-1</f>
@@ -2970,7 +2994,7 @@
     <row r="190" spans="2:4" s="4" customFormat="1"/>
     <row r="191" spans="2:4" s="4" customFormat="1">
       <c r="B191" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C191" s="21" t="str">
         <f>C10</f>
@@ -2979,7 +3003,7 @@
     </row>
     <row r="192" spans="2:4" s="4" customFormat="1">
       <c r="B192" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C192" s="4" t="e">
         <f>C191*10*C9</f>
@@ -2989,7 +3013,7 @@
     </row>
     <row r="193" spans="2:13" s="4" customFormat="1">
       <c r="B193" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C193" s="4" t="e">
         <f>C5-C192</f>
@@ -2998,7 +3022,7 @@
     </row>
     <row r="194" spans="2:13" s="4" customFormat="1">
       <c r="B194" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C194" s="23" t="e">
         <f>C193+C8</f>
@@ -3007,7 +3031,7 @@
     </row>
     <row r="195" spans="2:13" s="4" customFormat="1">
       <c r="B195" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C195" s="24" t="e">
         <f>C5/C8</f>
@@ -3016,7 +3040,7 @@
     </row>
     <row r="196" spans="2:13" s="4" customFormat="1">
       <c r="B196" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C196" s="25" t="e">
         <f>C195*C193</f>
@@ -3025,7 +3049,7 @@
     </row>
     <row r="197" spans="2:13" s="4" customFormat="1">
       <c r="B197" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C197" s="26" t="e">
         <f>C196+C5</f>
@@ -3036,7 +3060,7 @@
     <row r="199" spans="2:13" s="4" customFormat="1"/>
     <row r="200" spans="2:13" s="4" customFormat="1">
       <c r="B200" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C200" s="4">
         <v>2017</v>
@@ -3071,7 +3095,7 @@
     </row>
     <row r="201" spans="2:13" s="4" customFormat="1">
       <c r="B201" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C201" s="23">
         <v>1</v>
@@ -3106,7 +3130,7 @@
     </row>
     <row r="202" spans="2:13" s="4" customFormat="1">
       <c r="B202" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C202" s="25" t="e">
         <f>C197</f>
@@ -3151,7 +3175,7 @@
     </row>
     <row r="203" spans="2:13" s="4" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C203" s="27">
         <v>7.0000000000000007E-2</v>
@@ -3159,7 +3183,7 @@
     </row>
     <row r="204" spans="2:13" s="4" customFormat="1">
       <c r="B204" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C204" s="25" t="e">
         <f>C202/(1+$C$6)^C201</f>
@@ -3205,7 +3229,7 @@
     </row>
     <row r="205" spans="2:13" s="4" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C205" s="23" t="e">
         <f>C194</f>
@@ -3214,7 +3238,7 @@
     </row>
     <row r="206" spans="2:13" s="4" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C206" s="4" t="str">
         <f>C9</f>
@@ -3223,7 +3247,7 @@
     </row>
     <row r="207" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B207" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C207" s="28" t="e">
         <f>((C204+D204+E204+F204+G204+H204+I204+J204+K204+L204)+C205)*(1-0.1*3.14)</f>
@@ -3232,7 +3256,7 @@
     </row>
     <row r="208" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B208" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C208" s="29" t="e">
         <f>(C207*1000000000)/(C206*1000000)</f>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -71,13 +71,7 @@
     <t>GIÁ TRỊ THỰC CỔ PHIẾU</t>
   </si>
   <si>
-    <t>LÃI VỐN (mua rẻ tài sản)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>DÒNG TIỀN THỰC (cổ tức)</t>
   </si>
   <si>
     <t>TĂNG GIÁ TRỊ</t>
@@ -406,6 +400,12 @@
   </si>
   <si>
     <t>#SYMBOL</t>
+  </si>
+  <si>
+    <t>DÒNG TIỀN THỰC (Cổ tức #CT)</t>
+  </si>
+  <si>
+    <t>LÃI VỐN (Mua rẻ tài sản)</t>
   </si>
 </sst>
 </file>
@@ -748,17 +748,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -928,6 +917,21 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -942,7 +946,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1001,10 +1005,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1013,37 +1017,37 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1052,12 +1056,9 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1065,27 +1066,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="28" fillId="7" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="7" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="32" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="32" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1094,7 +1095,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1106,9 +1107,28 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1122,28 +1142,9 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1531,9 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L210"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
@@ -1549,39 +1548,39 @@
     <col min="14" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="84"/>
+    <row r="1" spans="1:12" ht="14.4" thickBot="1">
+      <c r="A1" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="83"/>
       <c r="C1" s="56"/>
-      <c r="D1" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="109"/>
+      <c r="D1" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="107"/>
       <c r="F1" s="57"/>
       <c r="H1" s="57"/>
       <c r="J1" s="57"/>
       <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="86" t="e">
+      <c r="A2" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="85" t="e">
         <f>E2</f>
         <v>#VALUE!</v>
       </c>
       <c r="C2" s="59"/>
-      <c r="D2" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="88" t="e">
+      <c r="D2" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="87" t="e">
         <f>D2+D3+D5+D4</f>
         <v>#VALUE!</v>
       </c>
       <c r="F2" s="60"/>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="88" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="60"/>
@@ -1591,121 +1590,121 @@
       <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="91" t="s">
-        <v>81</v>
+      <c r="B3" s="90" t="s">
+        <v>79</v>
       </c>
       <c r="C3" s="56"/>
-      <c r="D3" s="87" t="s">
-        <v>78</v>
+      <c r="D3" s="86" t="s">
+        <v>76</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="87" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="87" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>84</v>
-      </c>
       <c r="C6" s="56"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="95" t="e">
+      <c r="B7" s="94" t="e">
         <f>Hidden!C13</f>
         <v>#VALUE!</v>
       </c>
       <c r="C7" s="56"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="96"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="56"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="98" t="e">
+      <c r="A9" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="97" t="e">
         <f>Hidden!C16</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="61"/>
       <c r="G9" s="58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="97" t="e">
+        <f>Hidden!C17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="56"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="95" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="96" t="s">
+      <c r="B11" s="97" t="e">
+        <f>Hidden!C18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="56"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="98" t="e">
-        <f>Hidden!C17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="56"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="96" t="s">
+      <c r="B12" s="99" t="e">
+        <f>Hidden!C19</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" s="62" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="98" t="e">
-        <f>Hidden!C18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="56"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="100" t="e">
-        <f>Hidden!C19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>20</v>
       </c>
       <c r="D12" s="63"/>
       <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:12" s="66" customFormat="1">
-      <c r="A13" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="102"/>
+      <c r="A13" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="101"/>
       <c r="C13" s="64"/>
       <c r="D13" s="65"/>
       <c r="E13" s="65"/>
@@ -1718,13 +1717,13 @@
     </row>
     <row r="14" spans="1:12" s="66" customFormat="1" ht="27.6">
       <c r="A14" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="69" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>23</v>
       </c>
       <c r="D14" s="65"/>
       <c r="E14" s="65"/>
@@ -1737,10 +1736,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="71" t="e">
         <f ca="1">_xlfn.IFS(B15=1,"YES",B15=0,"NO")</f>
@@ -1749,10 +1748,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="71" t="e">
         <f ca="1">_xlfn.IFS(B16=1,"YES",B16=0,"NO")</f>
@@ -1764,10 +1763,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="71" t="e">
         <f ca="1">_xlfn.IFS(B17&gt;=15,"YES",B17&lt;15,"NO")</f>
@@ -1779,10 +1778,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="71" t="e">
         <f ca="1">_xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO")</f>
@@ -1794,10 +1793,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="71" t="e">
         <f ca="1">_xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO")</f>
@@ -1809,10 +1808,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="71" t="e">
         <f ca="1">_xlfn.IFS(B20&gt;=15,"YES",B20&lt;15,"NO")</f>
@@ -1824,10 +1823,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="70" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" s="71" t="e">
         <f ca="1">_xlfn.IFS(B21&gt;=10,"YES",B21&lt;10,"NO")</f>
@@ -1839,10 +1838,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" s="71" t="e">
         <f ca="1">_xlfn.IFS(B22&lt;=1,"YES",B22&gt;1,"NO")</f>
@@ -1854,10 +1853,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="71" t="e">
         <f ca="1">_xlfn.IFS(B23&lt;=15,"YES",B23&gt;15,"NO")</f>
@@ -1869,10 +1868,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" s="71" t="e">
         <f ca="1">_xlfn.IFS(B24&lt;=2,"YES",B24&gt;2,"NO")</f>
@@ -1886,10 +1885,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" s="71" t="e">
         <f t="shared" ref="C25:C27" ca="1" si="0">_xlfn.IFS(B25=1,"YES",B25=0,"NO")</f>
@@ -1901,10 +1900,10 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="71" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -1916,10 +1915,10 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" s="71" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -1931,10 +1930,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="76" t="e">
         <f ca="1">_xlfn.IFS(B28&lt;=5,"YES",B28&gt;5,"NO")</f>
@@ -1969,16 +1968,16 @@
     <row r="184" spans="1:3" s="78" customFormat="1"/>
     <row r="185" spans="1:3" s="78" customFormat="1">
       <c r="A185" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B185" s="103" t="str">
+        <v>30</v>
+      </c>
+      <c r="B185" s="102" t="str">
         <f>B4</f>
         <v>#TLCT</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="78" customFormat="1">
       <c r="A186" s="78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B186" s="78" t="e">
         <f>B185*10*B6</f>
@@ -1988,7 +1987,7 @@
     </row>
     <row r="187" spans="1:3" s="78" customFormat="1">
       <c r="A187" s="78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B187" s="78" t="e">
         <f>#REF!-B186</f>
@@ -1997,7 +1996,7 @@
     </row>
     <row r="188" spans="1:3" s="78" customFormat="1">
       <c r="A188" s="80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B188" s="80" t="e">
         <f>B187+B3</f>
@@ -2006,16 +2005,16 @@
     </row>
     <row r="189" spans="1:3" s="78" customFormat="1">
       <c r="A189" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B189" s="104" t="e">
+        <v>34</v>
+      </c>
+      <c r="B189" s="103" t="e">
         <f>#REF!/B3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="78" customFormat="1">
       <c r="A190" s="78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B190" s="81" t="e">
         <f>B189*B187</f>
@@ -2024,9 +2023,9 @@
     </row>
     <row r="191" spans="1:3" s="78" customFormat="1">
       <c r="A191" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B191" s="105" t="e">
+        <v>36</v>
+      </c>
+      <c r="B191" s="104" t="e">
         <f>B190+#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2035,7 +2034,7 @@
     <row r="193" spans="1:12" s="78" customFormat="1"/>
     <row r="194" spans="1:12" s="78" customFormat="1">
       <c r="A194" s="78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B194" s="78">
         <v>2017</v>
@@ -2070,7 +2069,7 @@
     </row>
     <row r="195" spans="1:12" s="78" customFormat="1">
       <c r="A195" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B195" s="80">
         <v>1</v>
@@ -2105,7 +2104,7 @@
     </row>
     <row r="196" spans="1:12" s="78" customFormat="1">
       <c r="A196" s="80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B196" s="81" t="e">
         <f>B191</f>
@@ -2150,15 +2149,15 @@
     </row>
     <row r="197" spans="1:12" s="78" customFormat="1">
       <c r="A197" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B197" s="106">
+        <v>40</v>
+      </c>
+      <c r="B197" s="105">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="198" spans="1:12" s="78" customFormat="1">
       <c r="A198" s="80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B198" s="81" t="e">
         <f>B196/(1+#REF!)^B195</f>
@@ -2204,7 +2203,7 @@
     </row>
     <row r="199" spans="1:12" s="78" customFormat="1">
       <c r="A199" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B199" s="80" t="e">
         <f>B188</f>
@@ -2213,7 +2212,7 @@
     </row>
     <row r="200" spans="1:12" s="78" customFormat="1">
       <c r="A200" s="80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B200" s="78" t="str">
         <f>B6</f>
@@ -2222,7 +2221,7 @@
     </row>
     <row r="201" spans="1:12" s="78" customFormat="1">
       <c r="A201" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B201" s="79" t="e">
         <f>((B198+C198+D198+E198+F198+G198+H198+I198+J198+K198)+B199)*(1-0.1*3.14)</f>
@@ -2231,9 +2230,9 @@
     </row>
     <row r="202" spans="1:12" s="78" customFormat="1">
       <c r="A202" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="B202" s="107" t="e">
+        <v>45</v>
+      </c>
+      <c r="B202" s="106" t="e">
         <f>(B201*1000000000)/(B200*1000000)</f>
         <v>#REF!</v>
       </c>
@@ -2261,23 +2260,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C28">
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.27500000000000002" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2320,31 +2319,31 @@
     </row>
     <row r="5" spans="2:9" s="10" customFormat="1">
       <c r="B5" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="E5" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="F5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="G5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="H5" s="53" t="s">
         <v>52</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>54</v>
       </c>
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="36">
         <v>0.17499999999999999</v>
@@ -2371,7 +2370,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="51">
         <v>0.05</v>
@@ -2398,7 +2397,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="36">
         <v>7.0000000000000007E-2</v>
@@ -2425,7 +2424,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="36">
         <v>0</v>
@@ -2490,7 +2489,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="C12" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -2500,7 +2499,7 @@
     </row>
     <row r="13" spans="2:9">
       <c r="C13" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -2556,7 +2555,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.8">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="33">
         <v>100000000</v>
@@ -2568,7 +2567,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="32">
         <v>0.02</v>
@@ -2576,7 +2575,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="30">
         <v>1</v>
@@ -2584,7 +2583,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="32">
         <f>(1+C3)^12-1</f>
@@ -2593,17 +2592,17 @@
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2628,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.8">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="30">
         <v>1000000</v>
@@ -2641,7 +2640,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="31">
         <v>0.02</v>
@@ -2649,7 +2648,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2657,7 +2656,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="32">
         <f>(1+C3)^12-1</f>
@@ -2723,7 +2722,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -2759,7 +2758,7 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="42" t="e">
         <f>'ĐỊNH GIÁ'!B2</f>
@@ -2778,7 +2777,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6" t="e">
         <f>C4</f>
@@ -2823,7 +2822,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="11">
         <v>7.0000000000000007E-2</v>
@@ -2831,7 +2830,7 @@
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1">
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="13" t="e">
         <f>C5/(1+$C$6)^C3</f>
@@ -2877,7 +2876,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="41" t="str">
         <f>'ĐỊNH GIÁ'!B3</f>
@@ -2886,7 +2885,7 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="42" t="str">
         <f>'ĐỊNH GIÁ'!B6</f>
@@ -2895,7 +2894,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="44" t="str">
         <f>'ĐỊNH GIÁ'!B4</f>
@@ -2904,7 +2903,7 @@
     </row>
     <row r="11" spans="2:13" ht="49.8">
       <c r="B11" s="41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="43" t="str">
         <f>'ĐỊNH GIÁ'!B5</f>
@@ -2913,7 +2912,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>((C7+D7+E7+F7+G7+H7+I7+J7+K7+L7)+C8)*(1-0.1*3.14)</f>
@@ -2922,7 +2921,7 @@
     </row>
     <row r="13" spans="2:13" ht="49.8">
       <c r="B13" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="45" t="e">
         <f>(C12*1000000000)/(C9*1000000)</f>
@@ -2931,7 +2930,7 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="16" t="e">
         <f>C208</f>
@@ -2953,19 +2952,19 @@
     </row>
     <row r="16" spans="2:13" ht="49.8">
       <c r="B16" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="48" t="e">
         <f>C13/C11-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="49.8">
       <c r="B17" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="48" t="e">
         <f>0.95*C10*10000/C11</f>
@@ -2974,7 +2973,7 @@
     </row>
     <row r="18" spans="2:3" ht="49.8">
       <c r="B18" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="48" t="e">
         <f>C14/C13-1</f>
@@ -2983,7 +2982,7 @@
     </row>
     <row r="19" spans="2:3" ht="49.8">
       <c r="B19" s="46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="47" t="e">
         <f>C16+C17+C18</f>
@@ -2994,7 +2993,7 @@
     <row r="190" spans="2:4" s="4" customFormat="1"/>
     <row r="191" spans="2:4" s="4" customFormat="1">
       <c r="B191" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C191" s="21" t="str">
         <f>C10</f>
@@ -3003,7 +3002,7 @@
     </row>
     <row r="192" spans="2:4" s="4" customFormat="1">
       <c r="B192" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C192" s="4" t="e">
         <f>C191*10*C9</f>
@@ -3013,7 +3012,7 @@
     </row>
     <row r="193" spans="2:13" s="4" customFormat="1">
       <c r="B193" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C193" s="4" t="e">
         <f>C5-C192</f>
@@ -3022,7 +3021,7 @@
     </row>
     <row r="194" spans="2:13" s="4" customFormat="1">
       <c r="B194" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C194" s="23" t="e">
         <f>C193+C8</f>
@@ -3031,7 +3030,7 @@
     </row>
     <row r="195" spans="2:13" s="4" customFormat="1">
       <c r="B195" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C195" s="24" t="e">
         <f>C5/C8</f>
@@ -3040,7 +3039,7 @@
     </row>
     <row r="196" spans="2:13" s="4" customFormat="1">
       <c r="B196" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C196" s="25" t="e">
         <f>C195*C193</f>
@@ -3049,7 +3048,7 @@
     </row>
     <row r="197" spans="2:13" s="4" customFormat="1">
       <c r="B197" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C197" s="26" t="e">
         <f>C196+C5</f>
@@ -3060,7 +3059,7 @@
     <row r="199" spans="2:13" s="4" customFormat="1"/>
     <row r="200" spans="2:13" s="4" customFormat="1">
       <c r="B200" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C200" s="4">
         <v>2017</v>
@@ -3095,7 +3094,7 @@
     </row>
     <row r="201" spans="2:13" s="4" customFormat="1">
       <c r="B201" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C201" s="23">
         <v>1</v>
@@ -3130,7 +3129,7 @@
     </row>
     <row r="202" spans="2:13" s="4" customFormat="1">
       <c r="B202" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C202" s="25" t="e">
         <f>C197</f>
@@ -3175,7 +3174,7 @@
     </row>
     <row r="203" spans="2:13" s="4" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C203" s="27">
         <v>7.0000000000000007E-2</v>
@@ -3183,7 +3182,7 @@
     </row>
     <row r="204" spans="2:13" s="4" customFormat="1">
       <c r="B204" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C204" s="25" t="e">
         <f>C202/(1+$C$6)^C201</f>
@@ -3229,7 +3228,7 @@
     </row>
     <row r="205" spans="2:13" s="4" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C205" s="23" t="e">
         <f>C194</f>
@@ -3238,7 +3237,7 @@
     </row>
     <row r="206" spans="2:13" s="4" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C206" s="4" t="str">
         <f>C9</f>
@@ -3247,7 +3246,7 @@
     </row>
     <row r="207" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B207" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C207" s="28" t="e">
         <f>((C204+D204+E204+F204+G204+H204+I204+J204+K204+L204)+C205)*(1-0.1*3.14)</f>
@@ -3256,7 +3255,7 @@
     </row>
     <row r="208" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B208" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C208" s="29" t="e">
         <f>(C207*1000000000)/(C206*1000000)</f>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>TỔNG LỢI ÍCH</t>
-  </si>
-  <si>
-    <t>GOOD</t>
   </si>
   <si>
     <t>NHỮNG TIÊU CHUẨN ĐỂ
@@ -93,30 +90,6 @@
     <t>YES/NO</t>
   </si>
   <si>
-    <t>Tỷ lệ lãi gộp lớn hơn hoặc bằng 15%</t>
-  </si>
-  <si>
-    <t>Tỷ lệ lãi ròng lớn hơn hoặc bằng 5</t>
-  </si>
-  <si>
-    <t>ROA lớn hơn hoặc bằng 5%</t>
-  </si>
-  <si>
-    <t>ROE lớn hơn hoặc bằng 15%</t>
-  </si>
-  <si>
-    <t>ROIC lớn hơn hoặc bằng 10%</t>
-  </si>
-  <si>
-    <t>Nợ/VCSH nhỏ hơn hoặc =1</t>
-  </si>
-  <si>
-    <t>P/E &lt;15(có thể 20) nhỏ hơn hoặc bằng 15</t>
-  </si>
-  <si>
-    <t>Nợ dài hạn/LNST (quý hiện tại) nhỏ hơn  hoặc bằng 5</t>
-  </si>
-  <si>
     <t>Tỷ lệ cổ tức</t>
   </si>
   <si>
@@ -285,45 +258,12 @@
     <t>#PE</t>
   </si>
   <si>
-    <t>LỢI NHUẬN SAU THUẾ 4 QUÝ GẦN NHẤT (tỷ đồng)</t>
-  </si>
-  <si>
     <t>#DTUP</t>
   </si>
   <si>
     <t>#LNGUP</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lợi nhuận gộp tăng đều theo biểu đồ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve">(Đạt=1, Không đạt = 0)  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Doanh thu tăng đều theo biểu đồ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-      </rPr>
-      <t>(Đạt = 1, Không đạt = 0)</t>
-    </r>
-  </si>
-  <si>
     <t>#GOS</t>
   </si>
   <si>
@@ -334,9 +274,6 @@
   </si>
   <si>
     <t>#NOVCSH</t>
-  </si>
-  <si>
-    <t>P/B&lt;2(nhỏ hơn hoặc bằng 2)</t>
   </si>
   <si>
     <t>#PB</t>
@@ -357,8 +294,29 @@
     </r>
   </si>
   <si>
+    <t>#DTP</t>
+  </si>
+  <si>
+    <t>#NDHLNST</t>
+  </si>
+  <si>
+    <t>#BLDMB</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>#SYMBOL</t>
+  </si>
+  <si>
+    <t>DÒNG TIỀN THỰC (Cổ tức #CT)</t>
+  </si>
+  <si>
+    <t>LÃI VỐN (Mua rẻ tài sản)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Dòng tiền từ hoạt động Kinh doanh dương </t>
+      <t xml:space="preserve">Dòng tiền từ HĐKD dương </t>
     </r>
     <r>
       <rPr>
@@ -372,14 +330,50 @@
     </r>
   </si>
   <si>
-    <t>#DTP</t>
-  </si>
-  <si>
-    <t>#NDHLNST</t>
+    <t>Nợ dài hạn/LNST (quý hiện tại) &lt;= 5</t>
+  </si>
+  <si>
+    <t>P/B&lt;2(&lt;= 2)</t>
+  </si>
+  <si>
+    <t>P/E &lt;15(có thể 20) &lt;=15</t>
+  </si>
+  <si>
+    <t>Tỷ lệ lãi gộp (&gt;=15%)</t>
+  </si>
+  <si>
+    <t>Tỷ lệ lãi ròng (&gt;= 5)</t>
+  </si>
+  <si>
+    <t>ROA (&gt;= 5%)</t>
+  </si>
+  <si>
+    <t>ROE (&gt;= 15%)</t>
+  </si>
+  <si>
+    <t>ROIC (&gt;= 10%)</t>
+  </si>
+  <si>
+    <t>Nợ/VCSH (&lt;= 1)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ban lãnh đạo mua bán cố phần </t>
+      <t xml:space="preserve">Lợi nhuận gộp tăng đều  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">(Đạt=1, Không đạt = 0)  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Doanh thu tăng đều </t>
     </r>
     <r>
       <rPr>
@@ -393,19 +387,22 @@
     </r>
   </si>
   <si>
-    <t>#BLDMB</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>#SYMBOL</t>
-  </si>
-  <si>
-    <t>DÒNG TIỀN THỰC (Cổ tức #CT)</t>
-  </si>
-  <si>
-    <t>LÃI VỐN (Mua rẻ tài sản)</t>
+    <t>LNST 4 QUÝ GẦN NHẤT (tỷ đồng)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ban lãnh đạo mua/bán cố phần </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(Đạt = 1, Không đạt = 0)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -420,7 +417,7 @@
     <numFmt numFmtId="166" formatCode="0.00_ "/>
     <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,14 +673,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFBC32E4"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
@@ -946,7 +935,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1079,7 +1068,6 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="28" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="27" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="28" fillId="7" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1092,10 +1080,10 @@
     <xf numFmtId="2" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="32" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="33" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1530,15 +1518,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L210"/>
+  <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="57.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.44140625" style="57" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="57" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="58" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="58" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="58"/>
@@ -1549,13 +1539,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" thickBot="1">
-      <c r="A1" s="108" t="s">
-        <v>104</v>
+      <c r="A1" s="106" t="s">
+        <v>89</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="56"/>
       <c r="D1" s="107" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E1" s="107"/>
       <c r="F1" s="57"/>
@@ -1565,7 +1555,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="84" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B2" s="85" t="e">
         <f>E2</f>
@@ -1573,7 +1563,7 @@
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="86" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E2" s="87" t="e">
         <f>D2+D3+D5+D4</f>
@@ -1594,11 +1584,11 @@
         <v>9</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="86" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>10</v>
@@ -1609,11 +1599,11 @@
         <v>11</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="86" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1621,11 +1611,11 @@
         <v>12</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="86" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1633,7 +1623,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C6" s="56"/>
     </row>
@@ -1648,64 +1638,79 @@
       <c r="C7" s="56"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="96" t="e">
+        <f>Hidden!C16</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="C8" s="56"/>
+      <c r="D8" s="61"/>
+      <c r="G8" s="58" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="97" t="e">
-        <f>Hidden!C16</f>
+        <v>90</v>
+      </c>
+      <c r="B9" s="96" t="e">
+        <f>Hidden!C17</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="56"/>
-      <c r="D9" s="61"/>
-      <c r="G9" s="58" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="97" t="e">
-        <f>Hidden!C17</f>
+        <v>16</v>
+      </c>
+      <c r="B10" s="96" t="e">
+        <f>Hidden!C18</f>
         <v>#VALUE!</v>
       </c>
       <c r="C10" s="56"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="97" t="e">
-        <f>Hidden!C18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="56"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="98" t="s">
+      <c r="A11" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="99" t="e">
+      <c r="B11" s="98" t="e">
         <f>Hidden!C19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C11" s="62" t="e">
+        <f>IF(B11 &gt;= 20, "OK", "NG")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:12" s="66" customFormat="1">
+      <c r="A12" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="100"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+    </row>
+    <row r="13" spans="1:12" s="66" customFormat="1" ht="27.6">
+      <c r="A13" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="F12" s="57"/>
-    </row>
-    <row r="13" spans="1:12" s="66" customFormat="1">
-      <c r="A13" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="65"/>
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
@@ -1715,46 +1720,42 @@
       <c r="J13" s="65"/>
       <c r="K13" s="65"/>
     </row>
-    <row r="14" spans="1:12" s="66" customFormat="1" ht="27.6">
-      <c r="A14" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
+    <row r="14" spans="1:12">
+      <c r="A14" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="71" t="e">
+        <f ca="1">_xlfn.IFS(B14=1,"YES",B14=0,"NO")</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>78</v>
       </c>
       <c r="C15" s="71" t="e">
         <f ca="1">_xlfn.IFS(B15=1,"YES",B15=0,"NO")</f>
         <v>#NAME?</v>
       </c>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>79</v>
       </c>
       <c r="C16" s="71" t="e">
-        <f ca="1">_xlfn.IFS(B16=1,"YES",B16=0,"NO")</f>
+        <f ca="1">_xlfn.IFS(B16&gt;=15,"YES",B16&lt;15,"NO")</f>
         <v>#NAME?</v>
       </c>
       <c r="I16" s="57"/>
@@ -1763,13 +1764,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="70" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C17" s="71" t="e">
-        <f ca="1">_xlfn.IFS(B17&gt;=15,"YES",B17&lt;15,"NO")</f>
+        <f ca="1">_xlfn.IFS(B17&gt;=5,"YES",B17&lt;5,"NO")</f>
         <v>#NAME?</v>
       </c>
       <c r="I17" s="57"/>
@@ -1778,10 +1779,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="70" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C18" s="71" t="e">
         <f ca="1">_xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO")</f>
@@ -1793,13 +1794,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="70" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C19" s="71" t="e">
-        <f ca="1">_xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO")</f>
+        <f ca="1">_xlfn.IFS(B19&gt;=15,"YES",B19&lt;15,"NO")</f>
         <v>#NAME?</v>
       </c>
       <c r="I19" s="57"/>
@@ -1808,13 +1809,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="70" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="71" t="e">
-        <f ca="1">_xlfn.IFS(B20&gt;=15,"YES",B20&lt;15,"NO")</f>
+        <f ca="1">_xlfn.IFS(B20&gt;=10,"YES",B20&lt;10,"NO")</f>
         <v>#NAME?</v>
       </c>
       <c r="I20" s="57"/>
@@ -1823,13 +1824,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="70" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C21" s="71" t="e">
-        <f ca="1">_xlfn.IFS(B21&gt;=10,"YES",B21&lt;10,"NO")</f>
+        <f ca="1">_xlfn.IFS(B21&lt;=1,"YES",B21&gt;1,"NO")</f>
         <v>#NAME?</v>
       </c>
       <c r="I21" s="57"/>
@@ -1838,13 +1839,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="70" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C22" s="71" t="e">
-        <f ca="1">_xlfn.IFS(B22&lt;=1,"YES",B22&gt;1,"NO")</f>
+        <f ca="1">_xlfn.IFS(B22&lt;=15,"YES",B22&gt;15,"NO")</f>
         <v>#NAME?</v>
       </c>
       <c r="I22" s="57"/>
@@ -1853,45 +1854,45 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="70" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="71" t="e">
-        <f ca="1">_xlfn.IFS(B23&lt;=15,"YES",B23&gt;15,"NO")</f>
+        <f ca="1">_xlfn.IFS(B23&lt;=2,"YES",B23&gt;2,"NO")</f>
         <v>#NAME?</v>
       </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
       <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>96</v>
+        <v>84</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>88</v>
       </c>
       <c r="C24" s="71" t="e">
-        <f ca="1">_xlfn.IFS(B24&lt;=2,"YES",B24&gt;2,"NO")</f>
+        <f t="shared" ref="C24:C26" ca="1" si="0">_xlfn.IFS(B24=1,"YES",B24=0,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="K24" s="57"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="70" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C25" s="71" t="e">
-        <f t="shared" ref="C25:C27" ca="1" si="0">_xlfn.IFS(B25=1,"YES",B25=0,"NO")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="I25" s="57"/>
@@ -1900,10 +1901,10 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="70" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C26" s="71" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -1914,14 +1915,14 @@
       <c r="K26" s="57"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="71" t="e">
-        <f t="shared" ca="1" si="0"/>
+      <c r="A27" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="76" t="e">
+        <f ca="1">_xlfn.IFS(B27&lt;=5,"YES",B27&gt;5,"NO")</f>
         <v>#NAME?</v>
       </c>
       <c r="I27" s="57"/>
@@ -1929,16 +1930,8 @@
       <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="76" t="e">
-        <f ca="1">_xlfn.IFS(B28&lt;=5,"YES",B28&gt;5,"NO")</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="57"/>
@@ -1957,326 +1950,339 @@
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-    </row>
-    <row r="183" spans="1:3" s="77" customFormat="1"/>
-    <row r="184" spans="1:3" s="78" customFormat="1"/>
+    <row r="182" spans="1:3" s="77" customFormat="1"/>
+    <row r="183" spans="1:3" s="78" customFormat="1"/>
+    <row r="184" spans="1:3" s="78" customFormat="1">
+      <c r="A184" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" s="101" t="str">
+        <f>B4</f>
+        <v>#TLCT</v>
+      </c>
+    </row>
     <row r="185" spans="1:3" s="78" customFormat="1">
       <c r="A185" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B185" s="102" t="str">
-        <f>B4</f>
-        <v>#TLCT</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B185" s="78" t="e">
+        <f>B184*10*B6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C185" s="79"/>
     </row>
     <row r="186" spans="1:3" s="78" customFormat="1">
       <c r="A186" s="78" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B186" s="78" t="e">
-        <f>B185*10*B6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C186" s="79"/>
+        <f>#REF!-B185</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="187" spans="1:3" s="78" customFormat="1">
-      <c r="A187" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B187" s="78" t="e">
-        <f>#REF!-B186</f>
+      <c r="A187" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187" s="80" t="e">
+        <f>B186+B3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="78" customFormat="1">
-      <c r="A188" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="B188" s="80" t="e">
-        <f>B187+B3</f>
+      <c r="A188" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B188" s="102" t="e">
+        <f>#REF!/B3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="78" customFormat="1">
       <c r="A189" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B189" s="103" t="e">
-        <f>#REF!/B3</f>
+        <v>26</v>
+      </c>
+      <c r="B189" s="81" t="e">
+        <f>B188*B186</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="78" customFormat="1">
-      <c r="A190" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B190" s="81" t="e">
-        <f>B189*B187</f>
+      <c r="A190" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="103" t="e">
+        <f>B189+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="78" customFormat="1">
-      <c r="A191" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B191" s="104" t="e">
-        <f>B190+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
+    <row r="191" spans="1:3" s="78" customFormat="1"/>
     <row r="192" spans="1:3" s="78" customFormat="1"/>
-    <row r="193" spans="1:12" s="78" customFormat="1"/>
+    <row r="193" spans="1:12" s="78" customFormat="1">
+      <c r="A193" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B193" s="78">
+        <v>2017</v>
+      </c>
+      <c r="C193" s="78">
+        <v>2018</v>
+      </c>
+      <c r="D193" s="78">
+        <v>2019</v>
+      </c>
+      <c r="E193" s="78">
+        <v>2020</v>
+      </c>
+      <c r="F193" s="78">
+        <v>2021</v>
+      </c>
+      <c r="G193" s="78">
+        <v>2022</v>
+      </c>
+      <c r="H193" s="78">
+        <v>2023</v>
+      </c>
+      <c r="I193" s="78">
+        <v>2024</v>
+      </c>
+      <c r="J193" s="78">
+        <v>2025</v>
+      </c>
+      <c r="K193" s="78">
+        <v>2026</v>
+      </c>
+    </row>
     <row r="194" spans="1:12" s="78" customFormat="1">
-      <c r="A194" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="B194" s="78">
-        <v>2017</v>
-      </c>
-      <c r="C194" s="78">
-        <v>2018</v>
-      </c>
-      <c r="D194" s="78">
-        <v>2019</v>
-      </c>
-      <c r="E194" s="78">
-        <v>2020</v>
-      </c>
-      <c r="F194" s="78">
-        <v>2021</v>
-      </c>
-      <c r="G194" s="78">
-        <v>2022</v>
-      </c>
-      <c r="H194" s="78">
-        <v>2023</v>
-      </c>
-      <c r="I194" s="78">
-        <v>2024</v>
-      </c>
-      <c r="J194" s="78">
-        <v>2025</v>
-      </c>
-      <c r="K194" s="78">
-        <v>2026</v>
+      <c r="A194" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B194" s="80">
+        <v>1</v>
+      </c>
+      <c r="C194" s="80">
+        <v>2</v>
+      </c>
+      <c r="D194" s="80">
+        <v>3</v>
+      </c>
+      <c r="E194" s="80">
+        <v>4</v>
+      </c>
+      <c r="F194" s="80">
+        <v>5</v>
+      </c>
+      <c r="G194" s="80">
+        <v>6</v>
+      </c>
+      <c r="H194" s="80">
+        <v>7</v>
+      </c>
+      <c r="I194" s="80">
+        <v>8</v>
+      </c>
+      <c r="J194" s="80">
+        <v>9</v>
+      </c>
+      <c r="K194" s="80">
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:12" s="78" customFormat="1">
       <c r="A195" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B195" s="80">
-        <v>1</v>
-      </c>
-      <c r="C195" s="80">
-        <v>2</v>
-      </c>
-      <c r="D195" s="80">
-        <v>3</v>
-      </c>
-      <c r="E195" s="80">
-        <v>4</v>
-      </c>
-      <c r="F195" s="80">
-        <v>5</v>
-      </c>
-      <c r="G195" s="80">
-        <v>6</v>
-      </c>
-      <c r="H195" s="80">
-        <v>7</v>
-      </c>
-      <c r="I195" s="80">
-        <v>8</v>
-      </c>
-      <c r="J195" s="80">
-        <v>9</v>
-      </c>
-      <c r="K195" s="80">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="B195" s="81" t="e">
+        <f>B190</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C195" s="78" t="e">
+        <f>B195</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D195" s="78" t="e">
+        <f>C195</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E195" s="78" t="e">
+        <f t="shared" ref="E195:K195" si="1">D195</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F195" s="78" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G195" s="78" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H195" s="78" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I195" s="78" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J195" s="78" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K195" s="78" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="196" spans="1:12" s="78" customFormat="1">
       <c r="A196" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B196" s="81" t="e">
-        <f>B191</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C196" s="78" t="e">
-        <f>B196</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D196" s="78" t="e">
-        <f>C196</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E196" s="78" t="e">
-        <f t="shared" ref="E196:K196" si="1">D196</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F196" s="78" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G196" s="78" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H196" s="78" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I196" s="78" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J196" s="78" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K196" s="78" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>31</v>
+      </c>
+      <c r="B196" s="104">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="197" spans="1:12" s="78" customFormat="1">
       <c r="A197" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="B197" s="105">
-        <v>7.0000000000000007E-2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B197" s="81" t="e">
+        <f>B195/(1+#REF!)^B194</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C197" s="81" t="e">
+        <f>C195/(1+#REF!)^C194</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D197" s="81" t="e">
+        <f>D195/(1+#REF!)^D194</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E197" s="81" t="e">
+        <f>E195/(1+#REF!)^E194</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F197" s="81" t="e">
+        <f>F195/(1+#REF!)^F194</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G197" s="81" t="e">
+        <f>G195/(1+#REF!)^G194</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H197" s="81" t="e">
+        <f>H195/(1+#REF!)^H194</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I197" s="81" t="e">
+        <f>I195/(1+#REF!)^I194</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J197" s="81" t="e">
+        <f>J195/(1+#REF!)^J194</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K197" s="81" t="e">
+        <f>K195/(1+#REF!)^K194</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L197" s="81"/>
     </row>
     <row r="198" spans="1:12" s="78" customFormat="1">
       <c r="A198" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="B198" s="81" t="e">
-        <f>B196/(1+#REF!)^B195</f>
+        <v>33</v>
+      </c>
+      <c r="B198" s="80" t="e">
+        <f>B187</f>
         <v>#REF!</v>
       </c>
-      <c r="C198" s="81" t="e">
-        <f>C196/(1+#REF!)^C195</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D198" s="81" t="e">
-        <f>D196/(1+#REF!)^D195</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E198" s="81" t="e">
-        <f>E196/(1+#REF!)^E195</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F198" s="81" t="e">
-        <f>F196/(1+#REF!)^F195</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G198" s="81" t="e">
-        <f>G196/(1+#REF!)^G195</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H198" s="81" t="e">
-        <f>H196/(1+#REF!)^H195</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I198" s="81" t="e">
-        <f>I196/(1+#REF!)^I195</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J198" s="81" t="e">
-        <f>J196/(1+#REF!)^J195</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K198" s="81" t="e">
-        <f>K196/(1+#REF!)^K195</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L198" s="81"/>
     </row>
     <row r="199" spans="1:12" s="78" customFormat="1">
       <c r="A199" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B199" s="80" t="e">
-        <f>B188</f>
-        <v>#REF!</v>
+        <v>34</v>
+      </c>
+      <c r="B199" s="78" t="str">
+        <f>B6</f>
+        <v>#TSLCP</v>
       </c>
     </row>
     <row r="200" spans="1:12" s="78" customFormat="1">
       <c r="A200" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="B200" s="78" t="str">
-        <f>B6</f>
-        <v>#TSLCP</v>
+        <v>35</v>
+      </c>
+      <c r="B200" s="79" t="e">
+        <f>((B197+C197+D197+E197+F197+G197+H197+I197+J197+K197)+B198)*(1-0.1*3.14)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="201" spans="1:12" s="78" customFormat="1">
       <c r="A201" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B201" s="79" t="e">
-        <f>((B198+C198+D198+E198+F198+G198+H198+I198+J198+K198)+B199)*(1-0.1*3.14)</f>
+        <v>36</v>
+      </c>
+      <c r="B201" s="105" t="e">
+        <f>(B200*1000000000)/(B199*1000000)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="202" spans="1:12" s="78" customFormat="1">
-      <c r="A202" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="B202" s="106" t="e">
-        <f>(B201*1000000000)/(B200*1000000)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
+    <row r="202" spans="1:12" s="82" customFormat="1"/>
     <row r="203" spans="1:12" s="82" customFormat="1"/>
     <row r="204" spans="1:12" s="82" customFormat="1"/>
     <row r="205" spans="1:12" s="82" customFormat="1"/>
     <row r="206" spans="1:12" s="82" customFormat="1"/>
     <row r="207" spans="1:12" s="82" customFormat="1"/>
-    <row r="208" spans="1:12" s="82" customFormat="1"/>
-    <row r="209" s="57" customFormat="1"/>
-    <row r="210" s="57" customFormat="1"/>
+    <row r="208" spans="1:12">
+      <c r="C208" s="57"/>
+      <c r="D208" s="57"/>
+      <c r="E208" s="57"/>
+      <c r="F208" s="57"/>
+      <c r="G208" s="57"/>
+      <c r="H208" s="57"/>
+      <c r="I208" s="57"/>
+      <c r="J208" s="57"/>
+      <c r="K208" s="57"/>
+    </row>
+    <row r="209" spans="3:11">
+      <c r="C209" s="57"/>
+      <c r="D209" s="57"/>
+      <c r="E209" s="57"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="57"/>
+      <c r="H209" s="57"/>
+      <c r="I209" s="57"/>
+      <c r="J209" s="57"/>
+      <c r="K209" s="57"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:B13">
+  <conditionalFormatting sqref="B8:B12">
     <cfRule type="cellIs" dxfId="7" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B13">
+  <conditionalFormatting sqref="B11:B12">
     <cfRule type="cellIs" dxfId="6" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C28">
+  <conditionalFormatting sqref="C14:C27">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",C14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.27500000000000002" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2319,31 +2325,31 @@
     </row>
     <row r="5" spans="2:9" s="10" customFormat="1">
       <c r="B5" s="41" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C6" s="36">
         <v>0.17499999999999999</v>
@@ -2370,7 +2376,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="49" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C7" s="51">
         <v>0.05</v>
@@ -2397,7 +2403,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C8" s="36">
         <v>7.0000000000000007E-2</v>
@@ -2424,7 +2430,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="41" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C9" s="36">
         <v>0</v>
@@ -2489,7 +2495,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="C12" s="37" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -2499,7 +2505,7 @@
     </row>
     <row r="13" spans="2:9">
       <c r="C13" s="37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -2555,7 +2561,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.8">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C2" s="33">
         <v>100000000</v>
@@ -2567,7 +2573,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C3" s="32">
         <v>0.02</v>
@@ -2575,7 +2581,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C4" s="30">
         <v>1</v>
@@ -2583,7 +2589,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C5" s="32">
         <f>(1+C3)^12-1</f>
@@ -2592,17 +2598,17 @@
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2628,7 +2634,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.8">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C2" s="30">
         <v>1000000</v>
@@ -2640,7 +2646,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C3" s="31">
         <v>0.02</v>
@@ -2648,7 +2654,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2656,7 +2662,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C5" s="32">
         <f>(1+C3)^12-1</f>
@@ -2722,7 +2728,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -2758,7 +2764,7 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="41" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C4" s="42" t="e">
         <f>'ĐỊNH GIÁ'!B2</f>
@@ -2777,7 +2783,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="e">
         <f>C4</f>
@@ -2822,7 +2828,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C6" s="11">
         <v>7.0000000000000007E-2</v>
@@ -2830,7 +2836,7 @@
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1">
       <c r="B7" s="12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C7" s="13" t="e">
         <f>C5/(1+$C$6)^C3</f>
@@ -2876,7 +2882,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8" s="41" t="str">
         <f>'ĐỊNH GIÁ'!B3</f>
@@ -2885,7 +2891,7 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="41" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C9" s="42" t="str">
         <f>'ĐỊNH GIÁ'!B6</f>
@@ -2894,7 +2900,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="41" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C10" s="44" t="str">
         <f>'ĐỊNH GIÁ'!B4</f>
@@ -2903,7 +2909,7 @@
     </row>
     <row r="11" spans="2:13" ht="49.8">
       <c r="B11" s="41" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C11" s="43" t="str">
         <f>'ĐỊNH GIÁ'!B5</f>
@@ -2912,7 +2918,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>((C7+D7+E7+F7+G7+H7+I7+J7+K7+L7)+C8)*(1-0.1*3.14)</f>
@@ -2921,7 +2927,7 @@
     </row>
     <row r="13" spans="2:13" ht="49.8">
       <c r="B13" s="10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C13" s="45" t="e">
         <f>(C12*1000000000)/(C9*1000000)</f>
@@ -2930,7 +2936,7 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C14" s="16" t="e">
         <f>C208</f>
@@ -2952,7 +2958,7 @@
     </row>
     <row r="16" spans="2:13" ht="49.8">
       <c r="B16" s="20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C16" s="48" t="e">
         <f>C13/C11-1</f>
@@ -2964,7 +2970,7 @@
     </row>
     <row r="17" spans="2:3" ht="49.8">
       <c r="B17" s="20" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C17" s="48" t="e">
         <f>0.95*C10*10000/C11</f>
@@ -2973,7 +2979,7 @@
     </row>
     <row r="18" spans="2:3" ht="49.8">
       <c r="B18" s="20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C18" s="48" t="e">
         <f>C14/C13-1</f>
@@ -2993,7 +2999,7 @@
     <row r="190" spans="2:4" s="4" customFormat="1"/>
     <row r="191" spans="2:4" s="4" customFormat="1">
       <c r="B191" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C191" s="21" t="str">
         <f>C10</f>
@@ -3002,7 +3008,7 @@
     </row>
     <row r="192" spans="2:4" s="4" customFormat="1">
       <c r="B192" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C192" s="4" t="e">
         <f>C191*10*C9</f>
@@ -3012,7 +3018,7 @@
     </row>
     <row r="193" spans="2:13" s="4" customFormat="1">
       <c r="B193" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C193" s="4" t="e">
         <f>C5-C192</f>
@@ -3021,7 +3027,7 @@
     </row>
     <row r="194" spans="2:13" s="4" customFormat="1">
       <c r="B194" s="23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C194" s="23" t="e">
         <f>C193+C8</f>
@@ -3030,7 +3036,7 @@
     </row>
     <row r="195" spans="2:13" s="4" customFormat="1">
       <c r="B195" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C195" s="24" t="e">
         <f>C5/C8</f>
@@ -3039,7 +3045,7 @@
     </row>
     <row r="196" spans="2:13" s="4" customFormat="1">
       <c r="B196" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C196" s="25" t="e">
         <f>C195*C193</f>
@@ -3048,7 +3054,7 @@
     </row>
     <row r="197" spans="2:13" s="4" customFormat="1">
       <c r="B197" s="23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C197" s="26" t="e">
         <f>C196+C5</f>
@@ -3059,7 +3065,7 @@
     <row r="199" spans="2:13" s="4" customFormat="1"/>
     <row r="200" spans="2:13" s="4" customFormat="1">
       <c r="B200" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C200" s="4">
         <v>2017</v>
@@ -3094,7 +3100,7 @@
     </row>
     <row r="201" spans="2:13" s="4" customFormat="1">
       <c r="B201" s="23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C201" s="23">
         <v>1</v>
@@ -3129,7 +3135,7 @@
     </row>
     <row r="202" spans="2:13" s="4" customFormat="1">
       <c r="B202" s="23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C202" s="25" t="e">
         <f>C197</f>
@@ -3174,7 +3180,7 @@
     </row>
     <row r="203" spans="2:13" s="4" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C203" s="27">
         <v>7.0000000000000007E-2</v>
@@ -3182,7 +3188,7 @@
     </row>
     <row r="204" spans="2:13" s="4" customFormat="1">
       <c r="B204" s="23" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C204" s="25" t="e">
         <f>C202/(1+$C$6)^C201</f>
@@ -3228,7 +3234,7 @@
     </row>
     <row r="205" spans="2:13" s="4" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C205" s="23" t="e">
         <f>C194</f>
@@ -3237,7 +3243,7 @@
     </row>
     <row r="206" spans="2:13" s="4" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C206" s="4" t="str">
         <f>C9</f>
@@ -3246,7 +3252,7 @@
     </row>
     <row r="207" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B207" s="23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C207" s="28" t="e">
         <f>((C204+D204+E204+F204+G204+H204+I204+J204+K204+L204)+C205)*(1-0.1*3.14)</f>
@@ -3255,7 +3261,7 @@
     </row>
     <row r="208" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B208" s="23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C208" s="29" t="e">
         <f>(C207*1000000000)/(C206*1000000)</f>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -737,15 +737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -917,6 +908,17 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -994,10 +996,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1006,37 +1008,37 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1045,9 +1047,8 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1055,35 +1056,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="28" fillId="7" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="32" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="32" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="32" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="33" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1521,7 +1525,7 @@
   <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1538,39 +1542,39 @@
     <col min="14" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" thickBot="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="56"/>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="107"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="57"/>
       <c r="H1" s="57"/>
       <c r="J1" s="57"/>
       <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="85" t="e">
+      <c r="B2" s="84" t="e">
         <f>E2</f>
         <v>#VALUE!</v>
       </c>
       <c r="C2" s="59"/>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="87" t="e">
+      <c r="E2" s="86" t="e">
         <f>D2+D3+D5+D4</f>
         <v>#VALUE!</v>
       </c>
       <c r="F2" s="60"/>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="87" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="60"/>
@@ -1580,14 +1584,14 @@
       <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="56"/>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="85" t="s">
         <v>67</v>
       </c>
       <c r="G3" s="57" t="s">
@@ -1595,53 +1599,53 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="56"/>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="85" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="91" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="56"/>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="85" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="89" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="56"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="94" t="e">
+      <c r="B7" s="93" t="e">
         <f>Hidden!C13</f>
         <v>#VALUE!</v>
       </c>
       <c r="C7" s="56"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="96" t="e">
+      <c r="B8" s="95" t="e">
         <f>Hidden!C16</f>
         <v>#VALUE!</v>
       </c>
@@ -1652,45 +1656,45 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="96" t="e">
+      <c r="B9" s="95" t="e">
         <f>Hidden!C17</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="56"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="96" t="e">
+      <c r="B10" s="95" t="e">
         <f>Hidden!C18</f>
         <v>#VALUE!</v>
       </c>
       <c r="C10" s="56"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="98" t="e">
+      <c r="B11" s="97" t="e">
         <f>Hidden!C19</f>
         <v>#VALUE!</v>
       </c>
       <c r="C11" s="62" t="e">
-        <f>IF(B11 &gt;= 20, "OK", "NG")</f>
+        <f>IF(B11 &gt;= 20%, "OK", "NG")</f>
         <v>#VALUE!</v>
       </c>
       <c r="D11" s="63"/>
       <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:12" s="66" customFormat="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="100"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="64"/>
       <c r="D12" s="65"/>
       <c r="E12" s="65"/>
@@ -1956,7 +1960,7 @@
       <c r="A184" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B184" s="101" t="str">
+      <c r="B184" s="100" t="str">
         <f>B4</f>
         <v>#TLCT</v>
       </c>
@@ -1993,7 +1997,7 @@
       <c r="A188" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B188" s="102" t="e">
+      <c r="B188" s="101" t="e">
         <f>#REF!/B3</f>
         <v>#REF!</v>
       </c>
@@ -2011,7 +2015,7 @@
       <c r="A190" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B190" s="103" t="e">
+      <c r="B190" s="102" t="e">
         <f>B189+#REF!</f>
         <v>#REF!</v>
       </c>
@@ -2137,7 +2141,7 @@
       <c r="A196" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B196" s="104">
+      <c r="B196" s="103">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2218,7 +2222,7 @@
       <c r="A201" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B201" s="105" t="e">
+      <c r="B201" s="104" t="e">
         <f>(B200*1000000000)/(B199*1000000)</f>
         <v>#REF!</v>
       </c>
@@ -2252,8 +2256,9 @@
       <c r="K209" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B12">
     <cfRule type="cellIs" dxfId="7" priority="17" operator="lessThan">

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="110">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>"Bí Mật Định Giá Cổ Phiếu Trong 01 Phút"</t>
-  </si>
-  <si>
-    <t>VỐN CHỦ SỞ HỮU HIỆN TẠI (tỷ đồng)</t>
   </si>
   <si>
     <t>*** Anh/Chị lưu ý kỹ phần đơn vị tính: Tỷ đồng, đồng,triệu cp….</t>
@@ -220,9 +217,6 @@
   </si>
   <si>
     <t>THÀNH CÔNG</t>
-  </si>
-  <si>
-    <t>LNST 4 qúy gần nhất</t>
   </si>
   <si>
     <t>#Q0</t>
@@ -330,9 +324,6 @@
     </r>
   </si>
   <si>
-    <t>Nợ dài hạn/LNST (quý hiện tại) &lt;= 5</t>
-  </si>
-  <si>
     <t>P/B&lt;2(&lt;= 2)</t>
   </si>
   <si>
@@ -404,6 +395,27 @@
       <t>(Đạt = 1, Không đạt = 0)</t>
     </r>
   </si>
+  <si>
+    <t>LNST #QGN</t>
+  </si>
+  <si>
+    <t>#QFY0</t>
+  </si>
+  <si>
+    <t>#QFY1</t>
+  </si>
+  <si>
+    <t>#QFY2</t>
+  </si>
+  <si>
+    <t>#QFY3</t>
+  </si>
+  <si>
+    <t>VỐN CHỦ SỞ HỮU HIỆN TẠI[#VCSHFY] (tỷ đồng)</t>
+  </si>
+  <si>
+    <t>Nợ dài hạn/LNST (#NDHLNSTFY) &lt;= 5</t>
+  </si>
 </sst>
 </file>
 
@@ -417,7 +429,7 @@
     <numFmt numFmtId="166" formatCode="0.00_ "/>
     <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,21 +440,16 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,19 +457,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
@@ -471,7 +481,8 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -479,14 +490,16 @@
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="52"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,14 +507,16 @@
       <sz val="52"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3" tint="0.39994506668294322"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,14 +524,16 @@
       <sz val="20"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,7 +541,8 @@
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,14 +550,16 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,6 +696,40 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -933,11 +987,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -948,146 +1002,150 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="6" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="20" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="23" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="19" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="22" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="31" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="32" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="27" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="28" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="26" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="32" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="32" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="32" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="33" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="31" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="31" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1097,7 +1155,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1465,7 +1563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
@@ -1513,7 +1613,7 @@
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="39"/>
+      <c r="C13" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1525,735 +1625,743 @@
   <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="48.44140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="57" customWidth="1"/>
-    <col min="3" max="3" width="10" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="58" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="58" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="58"/>
-    <col min="7" max="11" width="8.88671875" style="58" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="57" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5546875" style="57" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="57"/>
+    <col min="1" max="1" width="48.44140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="10" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="57" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="57" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="57"/>
+    <col min="7" max="11" width="8.88671875" style="57" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="56" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5546875" style="56" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="107"/>
+      <c r="F1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="L1" s="57"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="81" t="e">
+        <f>E2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="83" t="e">
+        <f>D2+D3+D5+D4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="57"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="55"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="90" t="e">
+        <f>Hidden!C13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" s="55"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="84" t="e">
-        <f>E2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="86" t="e">
-        <f>D2+D3+D5+D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="85" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="56"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="92" t="s">
+      <c r="B8" s="92" t="e">
+        <f>Hidden!C16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="59"/>
+      <c r="G8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="93" t="e">
-        <f>Hidden!C13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7" s="56"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="95" t="e">
-        <f>Hidden!C16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="61"/>
-      <c r="G8" s="58" t="s">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="92" t="e">
+        <f>Hidden!C17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="55"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="91" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="95" t="e">
-        <f>Hidden!C17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="56"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="94" t="s">
+      <c r="B10" s="92" t="e">
+        <f>Hidden!C18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="55"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="95" t="e">
-        <f>Hidden!C18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="56"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="96" t="s">
+      <c r="B11" s="94" t="e">
+        <f>Hidden!C19</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="68" t="e">
+        <f>IF(B11 &gt;= 20%, "YES", "NO")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:12" s="63" customFormat="1">
+      <c r="A12" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+    </row>
+    <row r="13" spans="1:12" s="63" customFormat="1" ht="27.6">
+      <c r="A13" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="97" t="e">
-        <f>Hidden!C19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="62" t="e">
-        <f>IF(B11 &gt;= 20%, "OK", "NG")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="F11" s="57"/>
-    </row>
-    <row r="12" spans="1:12" s="66" customFormat="1">
-      <c r="A12" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-    </row>
-    <row r="13" spans="1:12" s="66" customFormat="1" ht="27.6">
-      <c r="A13" s="67" t="s">
+      <c r="B13" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="C13" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="71" t="e">
+      <c r="A14" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="68" t="e">
         <f ca="1">_xlfn.IFS(B14=1,"YES",B14=0,"NO")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="71" t="e">
+      <c r="A15" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="68" t="e">
         <f ca="1">_xlfn.IFS(B15=1,"YES",B15=0,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="71" t="e">
+      <c r="A16" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="68" t="e">
         <f ca="1">_xlfn.IFS(B16&gt;=15,"YES",B16&lt;15,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="71" t="e">
+      <c r="A17" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="68" t="e">
         <f ca="1">_xlfn.IFS(B17&gt;=5,"YES",B17&lt;5,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="71" t="e">
+      <c r="A18" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="68" t="e">
         <f ca="1">_xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="71" t="e">
+      <c r="A19" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="68" t="e">
         <f ca="1">_xlfn.IFS(B19&gt;=15,"YES",B19&lt;15,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="71" t="e">
+      <c r="A20" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="68" t="e">
         <f ca="1">_xlfn.IFS(B20&gt;=10,"YES",B20&lt;10,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="71" t="e">
+      <c r="A21" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="68" t="e">
         <f ca="1">_xlfn.IFS(B21&lt;=1,"YES",B21&gt;1,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="71" t="e">
+      <c r="A22" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="68" t="e">
         <f ca="1">_xlfn.IFS(B22&lt;=15,"YES",B22&gt;15,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="71" t="e">
+      <c r="A23" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="68" t="e">
         <f ca="1">_xlfn.IFS(B23&lt;=2,"YES",B23&gt;2,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="71" t="e">
+      <c r="A24" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="68" t="e">
         <f t="shared" ref="C24:C26" ca="1" si="0">_xlfn.IFS(B24=1,"YES",B24=0,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="71" t="e">
+      <c r="A25" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="68" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="71" t="e">
+      <c r="A26" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="68" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="76" t="e">
+      <c r="A27" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="73" t="e">
         <f ca="1">_xlfn.IFS(B27&lt;=5,"YES",B27&gt;5,"NO")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-    </row>
-    <row r="182" spans="1:3" s="77" customFormat="1"/>
-    <row r="183" spans="1:3" s="78" customFormat="1"/>
-    <row r="184" spans="1:3" s="78" customFormat="1">
-      <c r="A184" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B184" s="100" t="str">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+    </row>
+    <row r="182" spans="1:3" s="74" customFormat="1"/>
+    <row r="183" spans="1:3" s="75" customFormat="1"/>
+    <row r="184" spans="1:3" s="75" customFormat="1">
+      <c r="A184" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" s="97" t="str">
         <f>B4</f>
         <v>#TLCT</v>
       </c>
     </row>
-    <row r="185" spans="1:3" s="78" customFormat="1">
-      <c r="A185" s="78" t="s">
+    <row r="185" spans="1:3" s="75" customFormat="1">
+      <c r="A185" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" s="75" t="e">
+        <f>B184*10*B6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C185" s="76"/>
+    </row>
+    <row r="186" spans="1:3" s="75" customFormat="1">
+      <c r="A186" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B185" s="78" t="e">
-        <f>B184*10*B6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C185" s="79"/>
-    </row>
-    <row r="186" spans="1:3" s="78" customFormat="1">
-      <c r="A186" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B186" s="78" t="e">
+      <c r="B186" s="75" t="e">
         <f>#REF!-B185</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="78" customFormat="1">
-      <c r="A187" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="B187" s="80" t="e">
+    <row r="187" spans="1:3" s="75" customFormat="1">
+      <c r="A187" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="77" t="e">
         <f>B186+B3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="78" customFormat="1">
-      <c r="A188" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B188" s="101" t="e">
+    <row r="188" spans="1:3" s="75" customFormat="1">
+      <c r="A188" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" s="98" t="e">
         <f>#REF!/B3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="78" customFormat="1">
-      <c r="A189" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B189" s="81" t="e">
+    <row r="189" spans="1:3" s="75" customFormat="1">
+      <c r="A189" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B189" s="78" t="e">
         <f>B188*B186</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="78" customFormat="1">
-      <c r="A190" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B190" s="102" t="e">
+    <row r="190" spans="1:3" s="75" customFormat="1">
+      <c r="A190" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B190" s="99" t="e">
         <f>B189+#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="78" customFormat="1"/>
-    <row r="192" spans="1:3" s="78" customFormat="1"/>
-    <row r="193" spans="1:12" s="78" customFormat="1">
-      <c r="A193" s="78" t="s">
+    <row r="191" spans="1:3" s="75" customFormat="1"/>
+    <row r="192" spans="1:3" s="75" customFormat="1"/>
+    <row r="193" spans="1:12" s="75" customFormat="1">
+      <c r="A193" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B193" s="75">
+        <v>2017</v>
+      </c>
+      <c r="C193" s="75">
+        <v>2018</v>
+      </c>
+      <c r="D193" s="75">
+        <v>2019</v>
+      </c>
+      <c r="E193" s="75">
+        <v>2020</v>
+      </c>
+      <c r="F193" s="75">
+        <v>2021</v>
+      </c>
+      <c r="G193" s="75">
+        <v>2022</v>
+      </c>
+      <c r="H193" s="75">
+        <v>2023</v>
+      </c>
+      <c r="I193" s="75">
+        <v>2024</v>
+      </c>
+      <c r="J193" s="75">
+        <v>2025</v>
+      </c>
+      <c r="K193" s="75">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" s="75" customFormat="1">
+      <c r="A194" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B193" s="78">
-        <v>2017</v>
-      </c>
-      <c r="C193" s="78">
-        <v>2018</v>
-      </c>
-      <c r="D193" s="78">
-        <v>2019</v>
-      </c>
-      <c r="E193" s="78">
-        <v>2020</v>
-      </c>
-      <c r="F193" s="78">
-        <v>2021</v>
-      </c>
-      <c r="G193" s="78">
-        <v>2022</v>
-      </c>
-      <c r="H193" s="78">
-        <v>2023</v>
-      </c>
-      <c r="I193" s="78">
-        <v>2024</v>
-      </c>
-      <c r="J193" s="78">
-        <v>2025</v>
-      </c>
-      <c r="K193" s="78">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" s="78" customFormat="1">
-      <c r="A194" s="80" t="s">
+      <c r="B194" s="77">
+        <v>1</v>
+      </c>
+      <c r="C194" s="77">
+        <v>2</v>
+      </c>
+      <c r="D194" s="77">
+        <v>3</v>
+      </c>
+      <c r="E194" s="77">
+        <v>4</v>
+      </c>
+      <c r="F194" s="77">
+        <v>5</v>
+      </c>
+      <c r="G194" s="77">
+        <v>6</v>
+      </c>
+      <c r="H194" s="77">
+        <v>7</v>
+      </c>
+      <c r="I194" s="77">
+        <v>8</v>
+      </c>
+      <c r="J194" s="77">
+        <v>9</v>
+      </c>
+      <c r="K194" s="77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" s="75" customFormat="1">
+      <c r="A195" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B194" s="80">
-        <v>1</v>
-      </c>
-      <c r="C194" s="80">
-        <v>2</v>
-      </c>
-      <c r="D194" s="80">
-        <v>3</v>
-      </c>
-      <c r="E194" s="80">
-        <v>4</v>
-      </c>
-      <c r="F194" s="80">
-        <v>5</v>
-      </c>
-      <c r="G194" s="80">
-        <v>6</v>
-      </c>
-      <c r="H194" s="80">
-        <v>7</v>
-      </c>
-      <c r="I194" s="80">
-        <v>8</v>
-      </c>
-      <c r="J194" s="80">
-        <v>9</v>
-      </c>
-      <c r="K194" s="80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" s="78" customFormat="1">
-      <c r="A195" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="B195" s="81" t="e">
+      <c r="B195" s="78" t="e">
         <f>B190</f>
         <v>#REF!</v>
       </c>
-      <c r="C195" s="78" t="e">
+      <c r="C195" s="75" t="e">
         <f>B195</f>
         <v>#REF!</v>
       </c>
-      <c r="D195" s="78" t="e">
+      <c r="D195" s="75" t="e">
         <f>C195</f>
         <v>#REF!</v>
       </c>
-      <c r="E195" s="78" t="e">
+      <c r="E195" s="75" t="e">
         <f t="shared" ref="E195:K195" si="1">D195</f>
         <v>#REF!</v>
       </c>
-      <c r="F195" s="78" t="e">
+      <c r="F195" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="G195" s="78" t="e">
+      <c r="G195" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="H195" s="78" t="e">
+      <c r="H195" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="I195" s="78" t="e">
+      <c r="I195" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="J195" s="78" t="e">
+      <c r="J195" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="K195" s="78" t="e">
+      <c r="K195" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="196" spans="1:12" s="78" customFormat="1">
-      <c r="A196" s="80" t="s">
+    <row r="196" spans="1:12" s="75" customFormat="1">
+      <c r="A196" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B196" s="100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" s="75" customFormat="1">
+      <c r="A197" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B196" s="103">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" s="78" customFormat="1">
-      <c r="A197" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B197" s="81" t="e">
+      <c r="B197" s="78" t="e">
         <f>B195/(1+#REF!)^B194</f>
         <v>#REF!</v>
       </c>
-      <c r="C197" s="81" t="e">
+      <c r="C197" s="78" t="e">
         <f>C195/(1+#REF!)^C194</f>
         <v>#REF!</v>
       </c>
-      <c r="D197" s="81" t="e">
+      <c r="D197" s="78" t="e">
         <f>D195/(1+#REF!)^D194</f>
         <v>#REF!</v>
       </c>
-      <c r="E197" s="81" t="e">
+      <c r="E197" s="78" t="e">
         <f>E195/(1+#REF!)^E194</f>
         <v>#REF!</v>
       </c>
-      <c r="F197" s="81" t="e">
+      <c r="F197" s="78" t="e">
         <f>F195/(1+#REF!)^F194</f>
         <v>#REF!</v>
       </c>
-      <c r="G197" s="81" t="e">
+      <c r="G197" s="78" t="e">
         <f>G195/(1+#REF!)^G194</f>
         <v>#REF!</v>
       </c>
-      <c r="H197" s="81" t="e">
+      <c r="H197" s="78" t="e">
         <f>H195/(1+#REF!)^H194</f>
         <v>#REF!</v>
       </c>
-      <c r="I197" s="81" t="e">
+      <c r="I197" s="78" t="e">
         <f>I195/(1+#REF!)^I194</f>
         <v>#REF!</v>
       </c>
-      <c r="J197" s="81" t="e">
+      <c r="J197" s="78" t="e">
         <f>J195/(1+#REF!)^J194</f>
         <v>#REF!</v>
       </c>
-      <c r="K197" s="81" t="e">
+      <c r="K197" s="78" t="e">
         <f>K195/(1+#REF!)^K194</f>
         <v>#REF!</v>
       </c>
-      <c r="L197" s="81"/>
-    </row>
-    <row r="198" spans="1:12" s="78" customFormat="1">
-      <c r="A198" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="B198" s="80" t="e">
+      <c r="L197" s="78"/>
+    </row>
+    <row r="198" spans="1:12" s="75" customFormat="1">
+      <c r="A198" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B198" s="77" t="e">
         <f>B187</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="199" spans="1:12" s="78" customFormat="1">
-      <c r="A199" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B199" s="78" t="str">
+    <row r="199" spans="1:12" s="75" customFormat="1">
+      <c r="A199" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B199" s="75" t="str">
         <f>B6</f>
         <v>#TSLCP</v>
       </c>
     </row>
-    <row r="200" spans="1:12" s="78" customFormat="1">
-      <c r="A200" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="B200" s="79" t="e">
+    <row r="200" spans="1:12" s="75" customFormat="1">
+      <c r="A200" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B200" s="76" t="e">
         <f>((B197+C197+D197+E197+F197+G197+H197+I197+J197+K197)+B198)*(1-0.1*3.14)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="201" spans="1:12" s="78" customFormat="1">
-      <c r="A201" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B201" s="104" t="e">
+    <row r="201" spans="1:12" s="75" customFormat="1">
+      <c r="A201" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B201" s="101" t="e">
         <f>(B200*1000000000)/(B199*1000000)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="202" spans="1:12" s="82" customFormat="1"/>
-    <row r="203" spans="1:12" s="82" customFormat="1"/>
-    <row r="204" spans="1:12" s="82" customFormat="1"/>
-    <row r="205" spans="1:12" s="82" customFormat="1"/>
-    <row r="206" spans="1:12" s="82" customFormat="1"/>
-    <row r="207" spans="1:12" s="82" customFormat="1"/>
+    <row r="202" spans="1:12" s="79" customFormat="1"/>
+    <row r="203" spans="1:12" s="79" customFormat="1"/>
+    <row r="204" spans="1:12" s="79" customFormat="1"/>
+    <row r="205" spans="1:12" s="79" customFormat="1"/>
+    <row r="206" spans="1:12" s="79" customFormat="1"/>
+    <row r="207" spans="1:12" s="79" customFormat="1"/>
     <row r="208" spans="1:12">
-      <c r="C208" s="57"/>
-      <c r="D208" s="57"/>
-      <c r="E208" s="57"/>
-      <c r="F208" s="57"/>
-      <c r="G208" s="57"/>
-      <c r="H208" s="57"/>
-      <c r="I208" s="57"/>
-      <c r="J208" s="57"/>
-      <c r="K208" s="57"/>
+      <c r="C208" s="56"/>
+      <c r="D208" s="56"/>
+      <c r="E208" s="56"/>
+      <c r="F208" s="56"/>
+      <c r="G208" s="56"/>
+      <c r="H208" s="56"/>
+      <c r="I208" s="56"/>
+      <c r="J208" s="56"/>
+      <c r="K208" s="56"/>
     </row>
     <row r="209" spans="3:11">
-      <c r="C209" s="57"/>
-      <c r="D209" s="57"/>
-      <c r="E209" s="57"/>
-      <c r="F209" s="57"/>
-      <c r="G209" s="57"/>
-      <c r="H209" s="57"/>
-      <c r="I209" s="57"/>
-      <c r="J209" s="57"/>
-      <c r="K209" s="57"/>
+      <c r="C209" s="56"/>
+      <c r="D209" s="56"/>
+      <c r="E209" s="56"/>
+      <c r="F209" s="56"/>
+      <c r="G209" s="56"/>
+      <c r="H209" s="56"/>
+      <c r="I209" s="56"/>
+      <c r="J209" s="56"/>
+      <c r="K209" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2261,33 +2369,53 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B12">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C27">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.27500000000000002" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2300,12 +2428,12 @@
   <dimension ref="B4:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9">
@@ -2328,219 +2456,219 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="10" customFormat="1">
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="2:9" s="9" customFormat="1">
+      <c r="B5" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="G5" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="H5" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>0.19</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>0.05</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>0.19</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>0.3</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>0.45</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="37">
         <f>AVERAGE(C6:H6)</f>
         <v>0.22583333333333333</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="51">
+      <c r="B7" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="50">
         <v>0.05</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="50">
         <v>0.05</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="50">
         <v>0.1</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="50">
         <v>0.11</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="50">
         <v>0.05</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="50">
         <v>0.06</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="37">
         <f>AVERAGE(C7:H7)</f>
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="36">
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>0.05</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>0.1</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>0.15</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>0.12</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>0.09</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="37">
         <f>AVERAGE(C8:H8)</f>
         <v>9.6666666666666665E-2</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="36">
+      <c r="B9" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35">
         <v>0</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>0</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>0</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>0</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>0</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>0</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="37">
         <f>AVERAGE(C9:H9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="28.8">
-      <c r="C10" s="50">
+      <c r="C10" s="49">
         <f>SUM(C6:C9)</f>
         <v>0.29499999999999998</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="49">
         <f t="shared" ref="D10:I10" si="0">SUM(D6:D9)</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="49">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="49">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="51">
         <f t="shared" si="0"/>
         <v>0.39250000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="C13" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="C13" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2566,54 +2694,54 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.8">
       <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="33">
+        <v>49</v>
+      </c>
+      <c r="C2" s="32">
         <v>100000000</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="33">
         <f>C2*(1+C3)^C4</f>
         <v>102000000</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="32">
+        <v>50</v>
+      </c>
+      <c r="C3" s="31">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="30">
+        <v>51</v>
+      </c>
+      <c r="C4" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="32">
+        <v>52</v>
+      </c>
+      <c r="C5" s="31">
         <f>(1+C3)^12-1</f>
         <v>0.26824179456254527</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2639,27 +2767,27 @@
   <sheetData>
     <row r="2" spans="2:5" ht="25.8">
       <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="30">
+        <v>49</v>
+      </c>
+      <c r="C2" s="29">
         <v>1000000</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="39">
         <f>FV(C3,C4,C2)*(-1)</f>
         <v>1000000.0000000009</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="31">
+        <v>50</v>
+      </c>
+      <c r="C3" s="30">
         <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2667,9 +2795,9 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="32">
+        <v>52</v>
+      </c>
+      <c r="C5" s="31">
         <f>(1+C3)^12-1</f>
         <v>0.26824179456254527</v>
       </c>
@@ -2682,10 +2810,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M216"/>
+  <dimension ref="B2:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2697,98 +2825,108 @@
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="36.6">
-      <c r="B2" s="8"/>
-      <c r="C2">
-        <v>2017</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2018</v>
-      </c>
-      <c r="E2">
-        <v>2019</v>
-      </c>
-      <c r="F2" s="7">
-        <v>2020</v>
-      </c>
-      <c r="G2">
-        <v>2021</v>
-      </c>
-      <c r="H2" s="7">
-        <v>2022</v>
-      </c>
-      <c r="I2">
-        <v>2023</v>
-      </c>
-      <c r="J2" s="7">
+    <row r="2" spans="2:13">
+      <c r="B2" s="102"/>
+      <c r="C2" s="103">
+        <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2024</v>
       </c>
-      <c r="K2">
+      <c r="D2" s="104">
+        <f ca="1">C2+1</f>
         <v>2025</v>
       </c>
-      <c r="L2" s="7">
+      <c r="E2" s="104">
+        <f t="shared" ref="E2:L2" ca="1" si="0">D2+1</f>
         <v>2026</v>
       </c>
+      <c r="F2" s="104">
+        <f t="shared" ca="1" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="G2" s="104">
+        <f t="shared" ca="1" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="H2" s="104">
+        <f t="shared" ca="1" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="I2" s="104">
+        <f t="shared" ca="1" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="J2" s="104">
+        <f t="shared" ca="1" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="K2" s="104">
+        <f t="shared" ca="1" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="L2" s="104">
+        <f t="shared" ca="1" si="0"/>
+        <v>2033</v>
+      </c>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>4</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>5</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>6</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>7</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>8</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>9</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>10</v>
       </c>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="41" t="e">
+        <f>'ĐỊNH GIÁ'!B2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="42" t="e">
-        <f>'ĐỊNH GIÁ'!B2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C5" s="6" t="e">
         <f>C4</f>
@@ -2803,484 +2941,491 @@
         <v>#VALUE!</v>
       </c>
       <c r="F5" s="7" t="e">
-        <f t="shared" ref="F5:L5" si="0">E5</f>
+        <f t="shared" ref="F5:L5" si="1">E5</f>
         <v>#VALUE!</v>
       </c>
       <c r="G5" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H5" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I5" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="J5" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="K5" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="L5" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" s="1" customFormat="1">
+      <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" s="1" customFormat="1">
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="12" t="e">
+        <f>C5/(1+$C$6)^C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="12" t="e">
+        <f>D5/(1+$C$6)^D3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="12" t="e">
+        <f t="shared" ref="E7:L7" si="2">E5/(1+$C$6)^E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H7" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="13" t="e">
-        <f>C5/(1+$C$6)^C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D7" s="13" t="e">
-        <f>D5/(1+$C$6)^D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="13" t="e">
-        <f t="shared" ref="E7:L7" si="1">E5/(1+$C$6)^E3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="41" t="str">
+      <c r="C8" s="40" t="str">
         <f>'ĐỊNH GIÁ'!B3</f>
         <v>#VCSH</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="42" t="str">
+      <c r="B9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="41" t="str">
         <f>'ĐỊNH GIÁ'!B6</f>
         <v>#TSLCP</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="44" t="str">
+      <c r="B10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="43" t="str">
         <f>'ĐỊNH GIÁ'!B4</f>
         <v>#TLCT</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="49.8">
-      <c r="B11" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="43" t="str">
+      <c r="B11" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="42" t="str">
         <f>'ĐỊNH GIÁ'!B5</f>
         <v>#TGCP</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="14" t="e">
+      <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="13" t="e">
         <f>((C7+D7+E7+F7+G7+H7+I7+J7+K7+L7)+C8)*(1-0.1*3.14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="49.8">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="44" t="e">
+        <f>(C12*1000000000)/(C9*1000000)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="45" t="e">
-        <f>(C12*1000000000)/(C9*1000000)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="e">
+        <f>C41</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" s="2" customFormat="1">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="2:13" ht="49.8">
+      <c r="B16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="16" t="e">
-        <f>C208</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" s="2" customFormat="1">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="2:13" ht="49.8">
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="47" t="e">
+        <f>C13/C11-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="49.8">
+      <c r="B17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="48" t="e">
-        <f>C13/C11-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="49.8">
-      <c r="B17" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="48" t="e">
+      <c r="C17" s="47" t="e">
         <f>0.95*C10*10000/C11</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="49.8">
-      <c r="B18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="48" t="e">
+    <row r="18" spans="2:4" ht="49.8">
+      <c r="B18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="47" t="e">
         <f>C14/C13-1</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="49.8">
-      <c r="B19" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="47" t="e">
+    <row r="19" spans="2:4" ht="49.8">
+      <c r="B19" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="46" t="e">
         <f>C16+C17+C18</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="189" spans="2:4" s="3" customFormat="1"/>
-    <row r="190" spans="2:4" s="4" customFormat="1"/>
-    <row r="191" spans="2:4" s="4" customFormat="1">
-      <c r="B191" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C191" s="21" t="str">
+    <row r="22" spans="2:4" s="3" customFormat="1"/>
+    <row r="23" spans="2:4" s="4" customFormat="1"/>
+    <row r="24" spans="2:4" s="4" customFormat="1">
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="20" t="str">
         <f>C10</f>
         <v>#TLCT</v>
       </c>
     </row>
-    <row r="192" spans="2:4" s="4" customFormat="1">
-      <c r="B192" s="4" t="s">
+    <row r="25" spans="2:4" s="4" customFormat="1">
+      <c r="B25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="e">
+        <f>C24*10*C9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="2:4" s="4" customFormat="1">
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C192" s="4" t="e">
-        <f>C191*10*C9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D192" s="22"/>
-    </row>
-    <row r="193" spans="2:13" s="4" customFormat="1">
-      <c r="B193" s="4" t="s">
+      <c r="C26" s="4" t="e">
+        <f>C5-C25</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="4" customFormat="1">
+      <c r="B27" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C193" s="4" t="e">
-        <f>C5-C192</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="194" spans="2:13" s="4" customFormat="1">
-      <c r="B194" s="23" t="s">
+      <c r="C27" s="22" t="e">
+        <f>C26+C8</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="4" customFormat="1">
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C194" s="23" t="e">
-        <f>C193+C8</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="195" spans="2:13" s="4" customFormat="1">
-      <c r="B195" s="4" t="s">
+      <c r="C28" s="23" t="e">
+        <f>C5/C8</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="4" customFormat="1">
+      <c r="B29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C195" s="24" t="e">
-        <f>C5/C8</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="196" spans="2:13" s="4" customFormat="1">
-      <c r="B196" s="4" t="s">
+      <c r="C29" s="24" t="e">
+        <f>C28*C26</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" s="4" customFormat="1">
+      <c r="B30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C196" s="25" t="e">
-        <f>C195*C193</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="197" spans="2:13" s="4" customFormat="1">
-      <c r="B197" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C197" s="26" t="e">
-        <f>C196+C5</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="198" spans="2:13" s="4" customFormat="1"/>
-    <row r="199" spans="2:13" s="4" customFormat="1"/>
-    <row r="200" spans="2:13" s="4" customFormat="1">
-      <c r="B200" s="4" t="s">
+      <c r="C30" s="25" t="e">
+        <f>C29+C5</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" s="4" customFormat="1"/>
+    <row r="32" spans="2:4" s="4" customFormat="1"/>
+    <row r="33" spans="2:13" s="4" customFormat="1">
+      <c r="C33" s="105">
+        <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
+        <v>2024</v>
+      </c>
+      <c r="D33" s="105">
+        <f t="shared" ref="D33:L33" ca="1" si="3">C33 + 1</f>
+        <v>2025</v>
+      </c>
+      <c r="E33" s="105">
+        <f t="shared" ca="1" si="3"/>
+        <v>2026</v>
+      </c>
+      <c r="F33" s="105">
+        <f t="shared" ca="1" si="3"/>
+        <v>2027</v>
+      </c>
+      <c r="G33" s="105">
+        <f t="shared" ca="1" si="3"/>
+        <v>2028</v>
+      </c>
+      <c r="H33" s="105">
+        <f t="shared" ca="1" si="3"/>
+        <v>2029</v>
+      </c>
+      <c r="I33" s="105">
+        <f t="shared" ca="1" si="3"/>
+        <v>2030</v>
+      </c>
+      <c r="J33" s="105">
+        <f t="shared" ca="1" si="3"/>
+        <v>2031</v>
+      </c>
+      <c r="K33" s="105">
+        <f t="shared" ca="1" si="3"/>
+        <v>2032</v>
+      </c>
+      <c r="L33" s="105">
+        <f t="shared" ca="1" si="3"/>
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" s="4" customFormat="1">
+      <c r="B34" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C200" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D200" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E200" s="4">
-        <v>2019</v>
-      </c>
-      <c r="F200" s="4">
-        <v>2020</v>
-      </c>
-      <c r="G200" s="4">
-        <v>2021</v>
-      </c>
-      <c r="H200" s="4">
-        <v>2022</v>
-      </c>
-      <c r="I200" s="4">
-        <v>2023</v>
-      </c>
-      <c r="J200" s="4">
-        <v>2024</v>
-      </c>
-      <c r="K200" s="4">
-        <v>2025</v>
-      </c>
-      <c r="L200" s="4">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="201" spans="2:13" s="4" customFormat="1">
-      <c r="B201" s="23" t="s">
+      <c r="C34" s="22">
+        <v>1</v>
+      </c>
+      <c r="D34" s="22">
+        <v>2</v>
+      </c>
+      <c r="E34" s="22">
+        <v>3</v>
+      </c>
+      <c r="F34" s="22">
+        <v>4</v>
+      </c>
+      <c r="G34" s="22">
+        <v>5</v>
+      </c>
+      <c r="H34" s="22">
+        <v>6</v>
+      </c>
+      <c r="I34" s="22">
+        <v>7</v>
+      </c>
+      <c r="J34" s="22">
+        <v>8</v>
+      </c>
+      <c r="K34" s="22">
+        <v>9</v>
+      </c>
+      <c r="L34" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" s="4" customFormat="1">
+      <c r="B35" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C201" s="23">
-        <v>1</v>
-      </c>
-      <c r="D201" s="23">
-        <v>2</v>
-      </c>
-      <c r="E201" s="23">
-        <v>3</v>
-      </c>
-      <c r="F201" s="23">
-        <v>4</v>
-      </c>
-      <c r="G201" s="23">
-        <v>5</v>
-      </c>
-      <c r="H201" s="23">
-        <v>6</v>
-      </c>
-      <c r="I201" s="23">
-        <v>7</v>
-      </c>
-      <c r="J201" s="23">
-        <v>8</v>
-      </c>
-      <c r="K201" s="23">
-        <v>9</v>
-      </c>
-      <c r="L201" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="2:13" s="4" customFormat="1">
-      <c r="B202" s="23" t="s">
+      <c r="C35" s="24" t="e">
+        <f>C30</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" s="4" t="e">
+        <f>C35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" s="4" t="e">
+        <f>D35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" s="4" t="e">
+        <f t="shared" ref="F35:L35" si="4">E35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G35" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H35" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J35" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L35" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" s="4" customFormat="1">
+      <c r="B36" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C202" s="25" t="e">
-        <f>C197</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D202" s="4" t="e">
-        <f>C202</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E202" s="4" t="e">
-        <f>D202</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F202" s="4" t="e">
-        <f t="shared" ref="F202:L202" si="2">E202</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G202" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H202" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I202" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J202" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K202" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L202" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="203" spans="2:13" s="4" customFormat="1">
-      <c r="B203" s="23" t="s">
+      <c r="C36" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" s="4" customFormat="1">
+      <c r="B37" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C203" s="27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="2:13" s="4" customFormat="1">
-      <c r="B204" s="23" t="s">
+      <c r="C37" s="24" t="e">
+        <f>C35/(1+$C$6)^C34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" s="24" t="e">
+        <f>D35/(1+$C$6)^D34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" s="24" t="e">
+        <f t="shared" ref="E37:L37" si="5">E35/(1+$C$6)^E34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" s="24" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G37" s="24" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H37" s="24" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I37" s="24" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J37" s="24" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" s="24" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L37" s="24" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="2:13" s="4" customFormat="1">
+      <c r="B38" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C204" s="25" t="e">
-        <f>C202/(1+$C$6)^C201</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D204" s="25" t="e">
-        <f>D202/(1+$C$6)^D201</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E204" s="25" t="e">
-        <f t="shared" ref="E204:L204" si="3">E202/(1+$C$6)^E201</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F204" s="25" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G204" s="25" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H204" s="25" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I204" s="25" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J204" s="25" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K204" s="25" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L204" s="25" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M204" s="25"/>
-    </row>
-    <row r="205" spans="2:13" s="4" customFormat="1">
-      <c r="B205" s="23" t="s">
+      <c r="C38" s="22" t="e">
+        <f>C27</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" s="4" customFormat="1">
+      <c r="B39" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C205" s="23" t="e">
-        <f>C194</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="206" spans="2:13" s="4" customFormat="1">
-      <c r="B206" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C206" s="4" t="str">
+      <c r="C39" s="4" t="str">
         <f>C9</f>
         <v>#TSLCP</v>
       </c>
     </row>
-    <row r="207" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
-      <c r="B207" s="23" t="s">
+    <row r="40" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
+      <c r="B40" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="27" t="e">
+        <f>((C37+D37+E37+F37+G37+H37+I37+J37+K37+L37)+C38)*(1-0.1*3.14)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
+      <c r="B41" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C207" s="28" t="e">
-        <f>((C204+D204+E204+F204+G204+H204+I204+J204+K204+L204)+C205)*(1-0.1*3.14)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="208" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
-      <c r="B208" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C208" s="29" t="e">
-        <f>(C207*1000000000)/(C206*1000000)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="209" s="5" customFormat="1"/>
-    <row r="210" s="5" customFormat="1"/>
-    <row r="211" s="5" customFormat="1"/>
-    <row r="212" s="5" customFormat="1"/>
-    <row r="213" s="5" customFormat="1"/>
-    <row r="214" s="5" customFormat="1"/>
-    <row r="215" s="6" customFormat="1"/>
-    <row r="216" s="6" customFormat="1"/>
+      <c r="C41" s="28" t="e">
+        <f>(C40*1000000000)/(C39*1000000)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" s="5" customFormat="1"/>
+    <row r="43" spans="2:13" s="5" customFormat="1"/>
+    <row r="44" spans="2:13" s="5" customFormat="1"/>
+    <row r="45" spans="2:13" s="5" customFormat="1"/>
+    <row r="46" spans="2:13" s="5" customFormat="1"/>
+    <row r="47" spans="2:13" s="5" customFormat="1"/>
+    <row r="48" spans="2:13" s="6" customFormat="1"/>
+    <row r="49" s="6" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -327,12 +327,6 @@
     <t>P/B&lt;2(&lt;= 2)</t>
   </si>
   <si>
-    <t>P/E &lt;15(có thể 20) &lt;=15</t>
-  </si>
-  <si>
-    <t>Tỷ lệ lãi gộp (&gt;=15%)</t>
-  </si>
-  <si>
     <t>Tỷ lệ lãi ròng (&gt;= 5)</t>
   </si>
   <si>
@@ -414,7 +408,13 @@
     <t>VỐN CHỦ SỞ HỮU HIỆN TẠI[#VCSHFY] (tỷ đồng)</t>
   </si>
   <si>
-    <t>Nợ dài hạn/LNST (#NDHLNSTFY) &lt;= 5</t>
+    <t>Nợ dài hạn(#NDH)/LNST(#LNST) (#NDHLNSTFY) &lt;= 5</t>
+  </si>
+  <si>
+    <t>Tỷ lệ lãi gộp (&gt;= 15%)</t>
+  </si>
+  <si>
+    <t>P/E &lt;15(có thể 20) &lt;= 15</t>
   </si>
 </sst>
 </file>
@@ -1143,10 +1143,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1625,7 +1625,7 @@
   <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1642,14 +1642,14 @@
     <col min="14" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" ht="28.8" customHeight="1" thickBot="1">
       <c r="A1" s="108" t="s">
         <v>87</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="55"/>
       <c r="D1" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E1" s="107"/>
       <c r="F1" s="56"/>
@@ -1659,14 +1659,14 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="80" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="81" t="e">
         <f>E2</f>
         <v>#VALUE!</v>
       </c>
       <c r="C2" s="106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="82" t="s">
         <v>64</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="106" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="82" t="s">
         <v>65</v>
@@ -1710,7 +1710,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="82" t="s">
         <v>66</v>
@@ -1724,7 +1724,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="82" t="s">
         <v>67</v>
@@ -1834,25 +1834,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="68" t="e">
-        <f ca="1">_xlfn.IFS(B14=1,"YES",B14=0,"NO")</f>
+        <f ca="1">IF(B14="N/A", "N/A", _xlfn.IFS(B14=1,"YES",B14=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="69" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="68" t="e">
-        <f ca="1">_xlfn.IFS(B15=1,"YES",B15=0,"NO")</f>
+        <f ca="1">IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="I15" s="56"/>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="67" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B16" s="54" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="68" t="e">
-        <f ca="1">_xlfn.IFS(B16&gt;=15,"YES",B16&lt;15,"NO")</f>
+        <f ca="1">IF(B16="N/A", "N/A", _xlfn.IFS(B16&gt;=15,"YES",B16&lt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="I16" s="56"/>
@@ -1876,13 +1876,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="68" t="e">
-        <f ca="1">_xlfn.IFS(B17&gt;=5,"YES",B17&lt;5,"NO")</f>
+        <f ca="1">IF(B17="N/A", "N/A", _xlfn.IFS(B17&gt;=5,"YES",B17&lt;5,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="I17" s="56"/>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="68" t="e">
-        <f ca="1">_xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO")</f>
+        <f ca="1">IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="I18" s="56"/>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="68" t="e">
-        <f ca="1">_xlfn.IFS(B19&gt;=15,"YES",B19&lt;15,"NO")</f>
+        <f ca="1">IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=15,"YES",B19&lt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="I19" s="56"/>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="68" t="e">
-        <f ca="1">_xlfn.IFS(B20&gt;=10,"YES",B20&lt;10,"NO")</f>
+        <f ca="1">IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=10,"YES",B20&lt;10,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="I20" s="56"/>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="68" t="e">
-        <f ca="1">_xlfn.IFS(B21&lt;=1,"YES",B21&gt;1,"NO")</f>
+        <f ca="1">IF(B21="N/A", "N/A", _xlfn.IFS(B21&lt;=1,"YES",B21&gt;1,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="I21" s="56"/>
@@ -1951,13 +1951,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="67" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>74</v>
       </c>
       <c r="C22" s="68" t="e">
-        <f ca="1">_xlfn.IFS(B22&lt;=15,"YES",B22&gt;15,"NO")</f>
+        <f ca="1">IF(B22="N/A", "N/A", _xlfn.IFS(B22&lt;=15,"YES",B22&gt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="I22" s="56"/>
@@ -1972,7 +1972,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="68" t="e">
-        <f ca="1">_xlfn.IFS(B23&lt;=2,"YES",B23&gt;2,"NO")</f>
+        <f ca="1">IF(B23="N/A", "N/A", _xlfn.IFS(B23&lt;=2,"YES",B23&gt;2,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="D23" s="70"/>
@@ -1988,9 +1988,9 @@
       <c r="B24" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="68" t="e">
-        <f t="shared" ref="C24:C26" ca="1" si="0">_xlfn.IFS(B24=1,"YES",B24=0,"NO")</f>
-        <v>#NAME?</v>
+      <c r="C24" s="68" t="str">
+        <f>IF(B24="N/A", "N/A", _xlfn.IFS(B24=1,"YES",B24=0,"NO"))</f>
+        <v>N/A</v>
       </c>
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="67" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B25" s="69" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="68" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(B25="N/A", "N/A", _xlfn.IFS(B25=1,"YES",B25=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="I25" s="56"/>
@@ -2019,7 +2019,7 @@
         <v>83</v>
       </c>
       <c r="C26" s="68" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(B26="N/A", "N/A", _xlfn.IFS(B26=1,"YES",B26=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="I26" s="56"/>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" s="72" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="73" t="e">
-        <f ca="1">_xlfn.IFS(B27&lt;=5,"YES",B27&gt;5,"NO")</f>
+        <f ca="1">IF(B27="N/A", "N/A", _xlfn.IFS(B27&lt;=5,"YES",B27&gt;5,"NO"))</f>
         <v>#NAME?</v>
       </c>
       <c r="I27" s="56"/>
@@ -2217,31 +2217,31 @@
         <v>#REF!</v>
       </c>
       <c r="E195" s="75" t="e">
-        <f t="shared" ref="E195:K195" si="1">D195</f>
+        <f t="shared" ref="E195:K195" si="0">D195</f>
         <v>#REF!</v>
       </c>
       <c r="F195" s="75" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="G195" s="75" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="H195" s="75" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="I195" s="75" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="J195" s="75" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="K195" s="75" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
     </row>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -1143,10 +1143,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -1447,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>TỔNG SỐ LƯỢNG CỔ PHIẾU (triệu cp)</t>
-  </si>
-  <si>
-    <t>GIÁ TRỊ THỰC CỔ PHIẾU</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -84,15 +81,6 @@
     <t>Số tiền chi cổ tức (tỷ đồng)</t>
   </si>
   <si>
-    <t>Số tiền tăng vốn chủ sở hữu</t>
-  </si>
-  <si>
-    <t>Vốn chủ sở hữu sau 1 năm</t>
-  </si>
-  <si>
-    <t>ROE</t>
-  </si>
-  <si>
     <t>Tiền tăng lợi nhuận</t>
   </si>
   <si>
@@ -102,46 +90,16 @@
     <t>Năm</t>
   </si>
   <si>
-    <t>Lợi nhuận (tỷ đồng)</t>
-  </si>
-  <si>
     <t>Lạm phát (%)</t>
   </si>
   <si>
-    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng)</t>
-  </si>
-  <si>
     <t>Vốn chủ sở hữu hiện tại (tỷ đồng)</t>
   </si>
   <si>
     <t>Tổng số lượng cổ phiếu (triệu cp)</t>
   </si>
   <si>
-    <t>Tổng giá trị thực doanh nghiệp (tỷ đồng)</t>
-  </si>
-  <si>
-    <t>Giá trị thực cổ phiếu</t>
-  </si>
-  <si>
-    <t>Tăng giá trị</t>
-  </si>
-  <si>
-    <t>LỢI NHUẬN TRUNG BÌNH MỖI NĂM TRONG 10 NĂM TỚI</t>
-  </si>
-  <si>
-    <t>Lợi nhuận đưa vào công thức (tỷ đồng)</t>
-  </si>
-  <si>
     <t>Giá thị trường cổ phiếu (đồng/cp)</t>
-  </si>
-  <si>
-    <t>Giá trị thực cổ phiếu hiện tại</t>
-  </si>
-  <si>
-    <t>Giá trị thực sau 1 năm</t>
-  </si>
-  <si>
-    <t>Lãi vốn (mua rẻ tài sản)</t>
   </si>
   <si>
     <t>Dòng tiền (tỷ lệ cổ tức)</t>
@@ -303,9 +261,6 @@
     </r>
   </si>
   <si>
-    <t>LNST 4 QUÝ GẦN NHẤT (tỷ đồng)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Ban lãnh đạo mua/bán cố phần </t>
     </r>
@@ -346,6 +301,108 @@
   </si>
   <si>
     <t>Tỷ lệ lãi gộp &gt;= 15%</t>
+  </si>
+  <si>
+    <t>#Q4</t>
+  </si>
+  <si>
+    <t>#QFY4</t>
+  </si>
+  <si>
+    <t>LNST 4 QUÝ GẦN NHẤT (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>LNST 4 QUÝ GẦN NHẤT (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>LỢI NHUẬN TRUNG BÌNH MỖI NĂM TRONG 10 NĂM TỚI (Trước)</t>
+  </si>
+  <si>
+    <t>LỢI NHUẬN TRUNG BÌNH MỖI NĂM TRONG 10 NĂM TỚI (Sau)</t>
+  </si>
+  <si>
+    <t>Lợi nhuận đưa vào công thức (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>Lợi nhuận đưa vào công thức (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Tổng giá trị thực doanh nghiệp (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>Tổng giá trị thực doanh nghiệp (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Giá trị thực cổ phiếu hiện tại (Trước)</t>
+  </si>
+  <si>
+    <t>Giá trị thực cổ phiếu hiện tại (Sau)</t>
+  </si>
+  <si>
+    <t>GIÁ TRỊ THỰC CỔ PHIẾU (Trước, Sau)</t>
+  </si>
+  <si>
+    <t>Lãi vốn (mua rẻ tài sản) Trước</t>
+  </si>
+  <si>
+    <t>Lãi vốn (mua rẻ tài sản) Sau</t>
+  </si>
+  <si>
+    <t>Số tiền tăng vốn chủ sở hữu (Trước)</t>
+  </si>
+  <si>
+    <t>Số tiền tăng vốn chủ sở hữu (Sau)</t>
+  </si>
+  <si>
+    <t>Vốn chủ sở hữu sau 1 năm (Trước)</t>
+  </si>
+  <si>
+    <t>Vốn chủ sở hữu sau 1 năm (Sau)</t>
+  </si>
+  <si>
+    <t>ROE (Trước)</t>
+  </si>
+  <si>
+    <t>ROE (Sau)</t>
+  </si>
+  <si>
+    <t>Lợi nhuận (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>Lợi nhuận (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng) sau</t>
+  </si>
+  <si>
+    <t>Vốn chủ sở hữu hiện tại (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>Vốn chủ sở hữu hiện tại (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Giá trị thực cổ phiếu (Trước)</t>
+  </si>
+  <si>
+    <t>Giá trị thực cổ phiếu (Sau)</t>
+  </si>
+  <si>
+    <t>Giá trị thực sau 1 năm (Trước)</t>
+  </si>
+  <si>
+    <t>Giá trị thực sau 1 năm (Sau)</t>
+  </si>
+  <si>
+    <t>Tăng giá trị (Trước)</t>
+  </si>
+  <si>
+    <t>Tăng giá trị (Sau)</t>
   </si>
 </sst>
 </file>
@@ -638,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -725,11 +782,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -741,30 +800,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -836,6 +871,69 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -847,7 +945,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -861,7 +959,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -885,10 +982,10 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -896,13 +993,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,17 +1010,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -948,13 +1044,10 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="20" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -962,15 +1055,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="7" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -978,7 +1083,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1066,6 +1171,56 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1436,7 +1591,7 @@
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="28"/>
+      <c r="C13" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1445,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -1453,399 +1608,461 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="48.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="10" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="41" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="41" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="48.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="10" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="40" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="40" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="79"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="56" t="e">
+        <f>E2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="78"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="58" t="e">
-        <f>E2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="60" t="e">
+      <c r="D2" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="58" t="e">
         <f>D2+D3+D5+D4</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>43</v>
+      <c r="A3" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="83" t="e">
+        <f>E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="58" t="e">
+        <f>D3+D4+D6+D5</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="61" t="s">
+      <c r="B5" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="61" t="s">
+      <c r="B6" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="39"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="66" t="e">
-        <f>Hidden!C13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7" s="39"/>
+      <c r="B7" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="68" t="e">
-        <f>Hidden!C16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="64" t="e">
+        <f>Hidden!C17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" s="64" t="e">
+        <f>Hidden!C18</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="68" t="e">
-        <f>Hidden!C17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="39"/>
+      <c r="A9" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="74" t="e">
+        <f>Hidden!C22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="73" t="e">
+        <f>Hidden!C23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="74" t="e">
+        <f>Hidden!C24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="73" t="e">
+        <f>Hidden!C24</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="74" t="e">
+        <f>Hidden!C25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="73" t="e">
+        <f>Hidden!C26</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="68" t="e">
-        <f>Hidden!C18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="39"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A11" s="69" t="s">
+      <c r="B12" s="75" t="e">
+        <f>Hidden!C27</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" s="76" t="e">
+        <f>Hidden!C28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="42"/>
+    </row>
+    <row r="13" spans="1:5" s="44" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A13" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="78" t="e">
+        <f>IF(B12 &gt;= 20%, "YES", "NO")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="77" t="e">
+        <f>IF(C12 &gt;= 20%, "YES", "NO")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:5" s="44" customFormat="1" ht="27.6">
+      <c r="A14" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="70" t="e">
-        <f>Hidden!C19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="51" t="e">
-        <f>IF(B11 &gt;= 20%, "YES", "NO")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" spans="1:5" s="46" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A12" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-    </row>
-    <row r="13" spans="1:5" s="46" customFormat="1" ht="27.6">
-      <c r="A13" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="51" t="e">
-        <f ca="1">IF(B14="N/A", "N/A", _xlfn.IFS(B14=1,"YES",B14=0,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="51" t="e">
+      <c r="A15" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="49" t="e">
         <f ca="1">IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="51" t="e">
-        <f ca="1">IF(B16="N/A", "N/A", _xlfn.IFS(B16&gt;=15,"YES",B16&lt;15,"NO"))</f>
+      <c r="A16" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="49" t="e">
+        <f ca="1">IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="49" t="e">
+        <f ca="1">IF(B17="N/A", "N/A", _xlfn.IFS(B17&gt;=15,"YES",B17&lt;15,"NO"))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="51" t="e">
-        <f ca="1">IF(B17="N/A", "N/A", _xlfn.IFS(B17&gt;=5,"YES",B17&lt;5,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="51" t="e">
+      <c r="B18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="49" t="e">
         <f ca="1">IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="51" t="e">
-        <f ca="1">IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=15,"YES",B19&lt;15,"NO"))</f>
+      <c r="A19" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="49" t="e">
+        <f ca="1">IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="51" t="e">
-        <f ca="1">IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=10,"YES",B20&lt;10,"NO"))</f>
+      <c r="A20" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="49" t="e">
+        <f ca="1">IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=15,"YES",B20&lt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="51" t="e">
-        <f ca="1">IF(B21="N/A", "N/A", _xlfn.IFS(B21&lt;=1,"YES",B21&gt;1,"NO"))</f>
+      <c r="A21" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="49" t="e">
+        <f ca="1">IF(B21="N/A", "N/A", _xlfn.IFS(B21&gt;=10,"YES",B21&lt;10,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="51" t="e">
-        <f ca="1">IF(B22="N/A", "N/A", _xlfn.IFS(B22&lt;=15,"YES",B22&gt;15,"NO"))</f>
+      <c r="A22" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="49" t="e">
+        <f ca="1">IF(B22="N/A", "N/A", _xlfn.IFS(B22&lt;=1,"YES",B22&gt;1,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="51" t="e">
-        <f ca="1">IF(B23="N/A", "N/A", _xlfn.IFS(B23&lt;=2,"YES",B23&gt;2,"NO"))</f>
+      <c r="A23" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="49" t="e">
+        <f ca="1">IF(B23="N/A", "N/A", _xlfn.IFS(B23&lt;=15,"YES",B23&gt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="51" t="str">
-        <f>IF(B24="N/A", "N/A", _xlfn.IFS(B24=1,"YES",B24=0,"NO"))</f>
+      <c r="A24" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="49" t="e">
+        <f ca="1">IF(B24="N/A", "N/A", _xlfn.IFS(B24&lt;=2,"YES",B24&gt;2,"NO"))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="49" t="str">
+        <f>IF(B25="N/A", "N/A", _xlfn.IFS(B25=1,"YES",B25=0,"NO"))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="52" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="51" t="e">
-        <f ca="1">IF(B25="N/A", "N/A", _xlfn.IFS(B25=1,"YES",B25=0,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="51" t="e">
+      <c r="B26" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="49" t="e">
         <f ca="1">IF(B26="N/A", "N/A", _xlfn.IFS(B26=1,"YES",B26=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A27" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="56" t="str">
-        <f>IF(B27="N/A", "N/A", IF(AND(0&lt;=B27, B27&lt;=5),"YES", "NO"))</f>
+    <row r="27" spans="1:5">
+      <c r="A27" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="49" t="e">
+        <f ca="1">IF(B27="N/A", "N/A", _xlfn.IFS(B27=1,"YES",B27=0,"NO"))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A28" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="54" t="str">
+        <f>IF(B28="N/A", "N/A", IF(AND(0&lt;=B28, B28&lt;=5),"YES", "NO"))</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
+    <row r="29" spans="1:5">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:B12">
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="lessThan">
+  <conditionalFormatting sqref="C9:C12">
+    <cfRule type="cellIs" dxfId="20" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="lessThan">
+  <conditionalFormatting sqref="C15:C28">
+    <cfRule type="containsText" dxfId="19" priority="28" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="32" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B11">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C27">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C14)))</formula>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="B13">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.27500000000000002" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1855,15 +2072,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M40"/>
+  <dimension ref="B2:M59"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="57.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.109375" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" style="6" customWidth="1"/>
     <col min="5" max="12" width="8.88671875" style="6"/>
@@ -1871,44 +2088,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="73"/>
-      <c r="C2" s="74">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2024</v>
       </c>
-      <c r="D2" s="75">
+      <c r="D2" s="70">
         <f ca="1">C2+1</f>
         <v>2025</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2" s="70">
         <f t="shared" ref="E2:L2" ca="1" si="0">D2+1</f>
         <v>2026</v>
       </c>
-      <c r="F2" s="75">
+      <c r="F2" s="70">
         <f t="shared" ca="1" si="0"/>
         <v>2027</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2" s="70">
         <f t="shared" ca="1" si="0"/>
         <v>2028</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="70">
         <f t="shared" ca="1" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I2" s="75">
+      <c r="I2" s="70">
         <f t="shared" ca="1" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J2" s="75">
+      <c r="J2" s="70">
         <f t="shared" ca="1" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="70">
         <f t="shared" ca="1" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L2" s="75">
+      <c r="L2" s="70">
         <f t="shared" ca="1" si="0"/>
         <v>2033</v>
       </c>
@@ -1916,7 +2133,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1951,10 +2168,10 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="30" t="e">
+      <c r="B4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="29" t="e">
         <f>'ĐỊNH GIÁ'!B2</f>
         <v>#VALUE!</v>
       </c>
@@ -1970,496 +2187,826 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="e">
-        <f>C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="6" t="e">
-        <f>C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E5" s="6" t="e">
-        <f>D5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="6" t="e">
-        <f t="shared" ref="F5:L5" si="1">E5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I5" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J5" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L5" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="B5" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="29" t="e">
+        <f>'ĐỊNH GIÁ'!B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9">
+        <v>79</v>
+      </c>
+      <c r="C6" s="5" t="e">
+        <f>C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" s="6" t="e">
+        <f>C6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="6" t="e">
+        <f>D6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="6" t="e">
+        <f t="shared" ref="F6" si="1">E6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="6" t="e">
+        <f t="shared" ref="G6" si="2">F6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" s="6" t="e">
+        <f t="shared" ref="H6" si="3">G6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="6" t="e">
+        <f t="shared" ref="I6" si="4">H6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" s="6" t="e">
+        <f t="shared" ref="J6" si="5">I6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="6" t="e">
+        <f t="shared" ref="K6" si="6">J6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" s="6" t="e">
+        <f t="shared" ref="L6" si="7">K6</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="5" t="e">
+        <f>C5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="6" t="e">
+        <f>C7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="6" t="e">
+        <f>D7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="6" t="e">
+        <f t="shared" ref="F7:L7" si="8">E7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H7" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="1" customFormat="1">
-      <c r="B7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11" t="e">
-        <f>C5/(1+$C$6)^C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D7" s="11" t="e">
-        <f>D5/(1+$C$6)^D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="11" t="e">
-        <f t="shared" ref="E7:L7" si="2">E5/(1+$C$6)^E3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" s="11" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="29" t="str">
-        <f>'ĐỊNH GIÁ'!B3</f>
+    <row r="9" spans="2:13" s="1" customFormat="1">
+      <c r="B9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="11" t="e">
+        <f>C6/(1+$C$8)^C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="11" t="e">
+        <f t="shared" ref="D9:L9" si="9">D6/(1+$C$8)^D3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" s="11" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="2:13" s="1" customFormat="1">
+      <c r="B10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="11" t="e">
+        <f>C7/(1+$C$8)^C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="11" t="e">
+        <f>D7/(1+$C$8)^D3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="11" t="e">
+        <f t="shared" ref="E10:L10" si="10">E7/(1+$C$8)^E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L10" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="28" t="str">
+        <f>'ĐỊNH GIÁ'!B4</f>
         <v>#VCSH</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="30" t="str">
+    <row r="12" spans="2:13">
+      <c r="B12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="29" t="str">
+        <f>'ĐỊNH GIÁ'!B7</f>
+        <v>#TSLCP</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="31" t="str">
+        <f>'ĐỊNH GIÁ'!B5</f>
+        <v>#TLCT</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="49.8">
+      <c r="B14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="30" t="str">
         <f>'ĐỊNH GIÁ'!B6</f>
-        <v>#TSLCP</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="32" t="str">
-        <f>'ĐỊNH GIÁ'!B4</f>
-        <v>#TLCT</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="49.8">
-      <c r="B11" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="31" t="str">
-        <f>'ĐỊNH GIÁ'!B5</f>
         <v>#TGCP</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="12" t="e">
-        <f>((C7+D7+E7+F7+G7+H7+I7+J7+K7+L7)+C8)*(1-0.1*3.14)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="49.8">
-      <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="33" t="e">
-        <f>(C12*1000000000)/(C9*1000000)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="14" t="e">
-        <f>C40</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" s="2" customFormat="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="2:13" ht="49.8">
-      <c r="B16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="36" t="e">
-        <f>C13/C11-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>12</v>
+    <row r="15" spans="2:13">
+      <c r="B15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="12" t="e">
+        <f>((C9+D9+E9+F9+G9+H9+I9+J9+K9+L9)+C11)*(1-0.1*3.14)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="12" t="e">
+        <f>((C10+D10+E10+F10+G10+H10+I10+J10+K10+L10)+C11)*(1-0.1*3.14)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="49.8">
-      <c r="B17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="36" t="e">
-        <f>0.95*C10*10000/C11</f>
+      <c r="B17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="32" t="e">
+        <f>(C15*1000000000)/($C$12*1000000)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="49.8">
-      <c r="B18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="36" t="e">
-        <f>C14/C13-1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="49.8">
-      <c r="B19" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="35" t="e">
-        <f>C16+C17+C18</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="3" customFormat="1"/>
-    <row r="22" spans="2:12" s="4" customFormat="1"/>
-    <row r="23" spans="2:12" s="4" customFormat="1">
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="19" t="str">
-        <f>C10</f>
-        <v>#TLCT</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="4" customFormat="1">
-      <c r="B24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="4" t="e">
-        <f>C23*10*C9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="2:12" s="4" customFormat="1">
-      <c r="B25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="4" t="e">
-        <f>C5-C24</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" s="4" customFormat="1">
-      <c r="B26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="21" t="e">
-        <f>C25+C8</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" s="4" customFormat="1">
-      <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="22" t="e">
-        <f>C5/C8</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" s="4" customFormat="1">
-      <c r="B28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="23" t="e">
-        <f>C27*C25</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" s="4" customFormat="1">
-      <c r="B29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="24" t="e">
-        <f>C28+C5</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" s="4" customFormat="1"/>
+      <c r="B18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="32" t="e">
+        <f>(C16*1000000000)/($C$12*1000000)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="13" t="e">
+        <f>C58</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="13" t="e">
+        <f>C59</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="2" customFormat="1">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="2:12" ht="49.8">
+      <c r="B22" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="35" t="e">
+        <f>C17/$C$14-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="49.8">
+      <c r="B23" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="35" t="e">
+        <f>C18/$C$14-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="49.8">
+      <c r="B24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="35" t="e">
+        <f>0.95*C13*10000/C14</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="49.8">
+      <c r="B25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="35" t="e">
+        <f>C19/C17-1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="49.8">
+      <c r="B26" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="35" t="e">
+        <f>C20/C18-1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="49.8">
+      <c r="B27" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="34" t="e">
+        <f>C22+$C$24+C25</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="49.8">
+      <c r="B28" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="34" t="e">
+        <f>C23+$C$24+C26</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="3" customFormat="1"/>
     <row r="31" spans="2:12" s="4" customFormat="1"/>
     <row r="32" spans="2:12" s="4" customFormat="1">
-      <c r="C32" s="76">
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="18" t="str">
+        <f>C13</f>
+        <v>#TLCT</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="4" customFormat="1">
+      <c r="B33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4" t="e">
+        <f>C32*10*C12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="2:12" s="4" customFormat="1">
+      <c r="B34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="4" t="e">
+        <f>C6-$C$33</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="4" customFormat="1">
+      <c r="B35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="4" t="e">
+        <f>C7-$C$33</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="4" customFormat="1">
+      <c r="B36" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="20" t="e">
+        <f>C34+$C$11</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="4" customFormat="1">
+      <c r="B37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="20" t="e">
+        <f>C35+$C$11</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="4" customFormat="1">
+      <c r="B38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="21" t="e">
+        <f>C6/$C$11</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="4" customFormat="1">
+      <c r="B39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="21" t="e">
+        <f>C7/$C$11</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="4" customFormat="1">
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="22" t="e">
+        <f>C38*C34</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="4" customFormat="1">
+      <c r="B41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="22" t="e">
+        <f>C39*C35</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" s="4" customFormat="1">
+      <c r="B42" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="23" t="e">
+        <f>C40+C6</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" s="4" customFormat="1">
+      <c r="B43" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="23" t="e">
+        <f>C41+C7</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" s="4" customFormat="1"/>
+    <row r="45" spans="2:12" s="4" customFormat="1"/>
+    <row r="46" spans="2:12" s="4" customFormat="1">
+      <c r="C46" s="71">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2024</v>
       </c>
-      <c r="D32" s="76">
-        <f t="shared" ref="D32:L32" ca="1" si="3">C32 + 1</f>
+      <c r="D46" s="71">
+        <f t="shared" ref="D46:L46" ca="1" si="11">C46 + 1</f>
         <v>2025</v>
       </c>
-      <c r="E32" s="76">
-        <f t="shared" ca="1" si="3"/>
+      <c r="E46" s="71">
+        <f t="shared" ca="1" si="11"/>
         <v>2026</v>
       </c>
-      <c r="F32" s="76">
-        <f t="shared" ca="1" si="3"/>
+      <c r="F46" s="71">
+        <f t="shared" ca="1" si="11"/>
         <v>2027</v>
       </c>
-      <c r="G32" s="76">
-        <f t="shared" ca="1" si="3"/>
+      <c r="G46" s="71">
+        <f t="shared" ca="1" si="11"/>
         <v>2028</v>
       </c>
-      <c r="H32" s="76">
-        <f t="shared" ca="1" si="3"/>
+      <c r="H46" s="71">
+        <f t="shared" ca="1" si="11"/>
         <v>2029</v>
       </c>
-      <c r="I32" s="76">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I46" s="71">
+        <f t="shared" ca="1" si="11"/>
         <v>2030</v>
       </c>
-      <c r="J32" s="76">
-        <f t="shared" ca="1" si="3"/>
+      <c r="J46" s="71">
+        <f t="shared" ca="1" si="11"/>
         <v>2031</v>
       </c>
-      <c r="K32" s="76">
-        <f t="shared" ca="1" si="3"/>
+      <c r="K46" s="71">
+        <f t="shared" ca="1" si="11"/>
         <v>2032</v>
       </c>
-      <c r="L32" s="76">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L46" s="71">
+        <f t="shared" ca="1" si="11"/>
         <v>2033</v>
       </c>
     </row>
-    <row r="33" spans="2:13" s="4" customFormat="1">
-      <c r="B33" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="21">
+    <row r="47" spans="2:12" s="4" customFormat="1">
+      <c r="B47" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="20">
         <v>1</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D47" s="20">
         <v>2</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E47" s="20">
         <v>3</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F47" s="20">
         <v>4</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G47" s="20">
         <v>5</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H47" s="20">
         <v>6</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I47" s="20">
         <v>7</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J47" s="20">
         <v>8</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K47" s="20">
         <v>9</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L47" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:13" s="4" customFormat="1">
-      <c r="B34" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="23" t="e">
-        <f>C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" s="4" t="e">
-        <f>C34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E34" s="4" t="e">
-        <f>D34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" s="4" t="e">
-        <f t="shared" ref="F34:L34" si="4">E34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H34" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J34" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L34" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" s="4" customFormat="1">
-      <c r="B35" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="25">
+    <row r="48" spans="2:12" s="4" customFormat="1">
+      <c r="B48" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="22" t="e">
+        <f>C42</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D48" s="4" t="e">
+        <f>C48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="4" t="e">
+        <f>D48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="4" t="e">
+        <f t="shared" ref="F48" si="12">E48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="4" t="e">
+        <f t="shared" ref="G48" si="13">F48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="4" t="e">
+        <f t="shared" ref="H48" si="14">G48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="4" t="e">
+        <f t="shared" ref="I48" si="15">H48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J48" s="4" t="e">
+        <f t="shared" ref="J48" si="16">I48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" s="4" t="e">
+        <f t="shared" ref="K48" si="17">J48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L48" s="4" t="e">
+        <f t="shared" ref="L48" si="18">K48</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" s="4" customFormat="1">
+      <c r="B49" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="22" t="e">
+        <f>C43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" s="4" t="e">
+        <f>C49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E49" s="4" t="e">
+        <f>D49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" s="4" t="e">
+        <f t="shared" ref="F49:L49" si="19">E49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G49" s="4" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" s="4" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I49" s="4" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J49" s="4" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" s="4" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L49" s="4" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" s="4" customFormat="1">
+      <c r="B50" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="4" customFormat="1">
-      <c r="B36" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="23" t="e">
-        <f>C34/(1+$C$6)^C33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" s="23" t="e">
-        <f>D34/(1+$C$6)^D33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E36" s="23" t="e">
-        <f t="shared" ref="E36:L36" si="5">E34/(1+$C$6)^E33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H36" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I36" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J36" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L36" s="23" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M36" s="23"/>
-    </row>
-    <row r="37" spans="2:13" s="4" customFormat="1">
-      <c r="B37" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="21" t="e">
-        <f>C26</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" s="4" customFormat="1">
-      <c r="B38" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="4" t="str">
-        <f>C9</f>
+    <row r="51" spans="2:13" s="4" customFormat="1">
+      <c r="B51" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="22" t="e">
+        <f>C48/(1+$C$8)^C47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="22" t="e">
+        <f t="shared" ref="D51:L51" si="20">D48/(1+$C$8)^D47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I51" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J51" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L51" s="22" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M51" s="22"/>
+    </row>
+    <row r="52" spans="2:13" s="4" customFormat="1">
+      <c r="B52" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="22" t="e">
+        <f>C49/(1+$C$8)^C47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="22" t="e">
+        <f>D49/(1+$C$8)^D47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" s="22" t="e">
+        <f t="shared" ref="E52:L52" si="21">E49/(1+$C$8)^E47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" s="22" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" s="22" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" s="22" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I52" s="22" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J52" s="22" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" s="22" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L52" s="22" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M52" s="22"/>
+    </row>
+    <row r="53" spans="2:13" s="4" customFormat="1">
+      <c r="B53" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="20" t="e">
+        <f>C36</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" s="4" customFormat="1">
+      <c r="B54" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="20" t="e">
+        <f>C37</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" s="4" customFormat="1">
+      <c r="B55" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f>C12</f>
         <v>#TSLCP</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
-      <c r="B39" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="26" t="e">
-        <f>((C36+D36+E36+F36+G36+H36+I36+J36+K36+L36)+C37)*(1-0.1*3.14)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
-      <c r="B40" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="27" t="e">
-        <f>(C39*1000000000)/(C38*1000000)</f>
+    <row r="56" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
+      <c r="B56" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="25" t="e">
+        <f>((C51+D51+E51+F51+G51+H51+I51+J51+K51+L51)+C53)*(1-0.1*3.14)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
+      <c r="B57" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="25" t="e">
+        <f>((C52+D52+E52+F52+G52+H52+I52+J52+K52+L52)+C54)*(1-0.1*3.14)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
+      <c r="B58" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="26" t="e">
+        <f>(C56*1000000000)/($C$55*1000000)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
+      <c r="B59" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="26" t="e">
+        <f>(C57*1000000000)/($C$55*1000000)</f>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -309,12 +309,6 @@
     <t>#QFY4</t>
   </si>
   <si>
-    <t>LNST 4 QUÝ GẦN NHẤT (tỷ đồng) Trước</t>
-  </si>
-  <si>
-    <t>LNST 4 QUÝ GẦN NHẤT (tỷ đồng) Sau</t>
-  </si>
-  <si>
     <t>LỢI NHUẬN TRUNG BÌNH MỖI NĂM TRONG 10 NĂM TỚI (Trước)</t>
   </si>
   <si>
@@ -403,6 +397,12 @@
   </si>
   <si>
     <t>Tăng giá trị (Sau)</t>
+  </si>
+  <si>
+    <t>LNST #QFY0 ~ #QFY3 (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>LNST #QFY1 ~ #QFY4 (tỷ đồng) Sau</t>
   </si>
 </sst>
 </file>
@@ -1065,6 +1065,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1074,8 +1076,6 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1617,19 +1617,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" thickBot="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="38"/>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="79"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="55" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B2" s="56" t="e">
         <f>E2</f>
@@ -1647,10 +1647,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="83" t="e">
+      <c r="A3" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="80" t="e">
         <f>E3</f>
         <v>#VALUE!</v>
       </c>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="64" t="e">
         <f>Hidden!C17</f>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="29" t="e">
         <f>'ĐỊNH GIÁ'!B2</f>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="29" t="e">
         <f>'ĐỊNH GIÁ'!B3</f>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5" t="e">
         <f>C4</f>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="5" t="e">
         <f>C5</f>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="9" spans="2:13" s="1" customFormat="1">
       <c r="B9" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="11" t="e">
         <f>C6/(1+$C$8)^C3</f>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1">
       <c r="B10" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="11" t="e">
         <f>C7/(1+$C$8)^C3</f>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" s="12" t="e">
         <f>((C9+D9+E9+F9+G9+H9+I9+J9+K9+L9)+C11)*(1-0.1*3.14)</f>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="12" t="e">
         <f>((C10+D10+E10+F10+G10+H10+I10+J10+K10+L10)+C11)*(1-0.1*3.14)</f>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="17" spans="2:12" ht="49.8">
       <c r="B17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="32" t="e">
         <f>(C15*1000000000)/($C$12*1000000)</f>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="18" spans="2:12" ht="49.8">
       <c r="B18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="32" t="e">
         <f>(C16*1000000000)/($C$12*1000000)</f>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="13" t="e">
         <f>C58</f>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="13" t="e">
         <f>C59</f>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="22" spans="2:12" ht="49.8">
       <c r="B22" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" s="35" t="e">
         <f>C17/$C$14-1</f>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="23" spans="2:12" ht="49.8">
       <c r="B23" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="35" t="e">
         <f>C18/$C$14-1</f>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="25" spans="2:12" ht="49.8">
       <c r="B25" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" s="35" t="e">
         <f>C19/C17-1</f>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="26" spans="2:12" ht="49.8">
       <c r="B26" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" s="35" t="e">
         <f>C20/C18-1</f>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="34" spans="2:12" s="4" customFormat="1">
       <c r="B34" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C34" s="4" t="e">
         <f>C6-$C$33</f>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="35" spans="2:12" s="4" customFormat="1">
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="e">
         <f>C7-$C$33</f>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="36" spans="2:12" s="4" customFormat="1">
       <c r="B36" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="20" t="e">
         <f>C34+$C$11</f>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="37" spans="2:12" s="4" customFormat="1">
       <c r="B37" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" s="20" t="e">
         <f>C35+$C$11</f>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="38" spans="2:12" s="4" customFormat="1">
       <c r="B38" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C38" s="21" t="e">
         <f>C6/$C$11</f>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="39" spans="2:12" s="4" customFormat="1">
       <c r="B39" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C39" s="21" t="e">
         <f>C7/$C$11</f>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="48" spans="2:12" s="4" customFormat="1">
       <c r="B48" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="22" t="e">
         <f>C42</f>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="49" spans="2:13" s="4" customFormat="1">
       <c r="B49" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" s="22" t="e">
         <f>C43</f>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="51" spans="2:13" s="4" customFormat="1">
       <c r="B51" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" s="22" t="e">
         <f>C48/(1+$C$8)^C47</f>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="52" spans="2:13" s="4" customFormat="1">
       <c r="B52" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C52" s="22" t="e">
         <f>C49/(1+$C$8)^C47</f>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="53" spans="2:13" s="4" customFormat="1">
       <c r="B53" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" s="20" t="e">
         <f>C36</f>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="54" spans="2:13" s="4" customFormat="1">
       <c r="B54" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" s="20" t="e">
         <f>C37</f>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="56" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B56" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56" s="25" t="e">
         <f>((C51+D51+E51+F51+G51+H51+I51+J51+K51+L51)+C53)*(1-0.1*3.14)</f>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="57" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B57" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C57" s="25" t="e">
         <f>((C52+D52+E52+F52+G52+H52+I52+J52+K52+L52)+C54)*(1-0.1*3.14)</f>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="58" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B58" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C58" s="26" t="e">
         <f>(C56*1000000000)/($C$55*1000000)</f>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="59" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
       <c r="B59" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C59" s="26" t="e">
         <f>(C57*1000000000)/($C$55*1000000)</f>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="109">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>LNST #QFY1 ~ #QFY4 (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Lãi Vốn &gt; 50% cần nghiêm túc xem xét kỹ. Không loại trừ khả năng đó là 1 doanh nghiệp nhỏ &amp; tiền ẩn nhiều rủi ro.</t>
+  </si>
+  <si>
+    <t>Đối với ngành Ngân hàng: Chỉ số Vốn chủ sở hữu sẽ thay bằng mục Vốn và các quỹ. Lợi nhuận sẽ thay bằng mục Lãi ròng.</t>
   </si>
 </sst>
 </file>
@@ -645,7 +651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,8 +700,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -876,19 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -933,6 +932,30 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -945,7 +968,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -991,8 +1014,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,9 +1021,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1055,18 +1073,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="20" fillId="7" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="20" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="7" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,6 +1093,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1542,7 +1572,7 @@
   <dimension ref="C3:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1617,378 +1647,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="38"/>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="81"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="56" t="e">
+      <c r="B2" s="53" t="e">
         <f>E2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="58" t="e">
+      <c r="E2" s="55" t="e">
         <f>D2+D3+D5+D4</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="80" t="e">
+      <c r="B3" s="75" t="e">
         <f>E3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="58" t="e">
+      <c r="E3" s="55" t="e">
         <f>D3+D4+D6+D5</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="54" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="38"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="64" t="e">
+      <c r="B8" s="61" t="e">
         <f>Hidden!C17</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C8" s="64" t="e">
+      <c r="C8" s="76" t="e">
         <f>Hidden!C18</f>
         <v>#VALUE!</v>
       </c>
+      <c r="D8" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="74" t="e">
+      <c r="B9" s="70" t="e">
         <f>Hidden!C22</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C9" s="73" t="e">
+      <c r="C9" s="77" t="e">
         <f>Hidden!C23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="74" t="e">
+      <c r="B10" s="70" t="e">
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C10" s="73" t="e">
+      <c r="C10" s="77" t="e">
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="74" t="e">
+      <c r="B11" s="70" t="e">
         <f>Hidden!C25</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C11" s="73" t="e">
+      <c r="C11" s="77" t="e">
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="75" t="e">
+      <c r="B12" s="71" t="e">
         <f>Hidden!C27</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C12" s="76" t="e">
+      <c r="C12" s="71" t="e">
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="42"/>
-    </row>
-    <row r="13" spans="1:5" s="44" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A13" s="67" t="s">
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+    </row>
+    <row r="13" spans="1:5" s="42" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A13" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="78" t="e">
+      <c r="B13" s="73" t="e">
         <f>IF(B12 &gt;= 20%, "YES", "NO")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C13" s="77" t="e">
+      <c r="C13" s="72" t="e">
         <f>IF(C12 &gt;= 20%, "YES", "NO")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" spans="1:5" s="44" customFormat="1" ht="27.6">
-      <c r="A14" s="45" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:5" s="42" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A14" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="45" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="49" t="e">
+      <c r="C15" s="83" t="e">
         <f ca="1">IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="49" t="e">
+      <c r="C16" s="83" t="e">
         <f ca="1">IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="45" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="49" t="e">
+      <c r="C17" s="83" t="e">
         <f ca="1">IF(B17="N/A", "N/A", _xlfn.IFS(B17&gt;=15,"YES",B17&lt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="49" t="e">
+      <c r="C18" s="83" t="e">
         <f ca="1">IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO"))</f>
         <v>#NAME?</v>
       </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="45" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="49" t="e">
+      <c r="C19" s="46" t="e">
         <f ca="1">IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="45" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="49" t="e">
+      <c r="C20" s="46" t="e">
         <f ca="1">IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=15,"YES",B20&lt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="45" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="49" t="e">
+      <c r="C21" s="46" t="e">
         <f ca="1">IF(B21="N/A", "N/A", _xlfn.IFS(B21&gt;=10,"YES",B21&lt;10,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="49" t="e">
+      <c r="C22" s="46" t="e">
         <f ca="1">IF(B22="N/A", "N/A", _xlfn.IFS(B22&lt;=1,"YES",B22&gt;1,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="45" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="49" t="e">
+      <c r="C23" s="46" t="e">
         <f ca="1">IF(B23="N/A", "N/A", _xlfn.IFS(B23&lt;=15,"YES",B23&gt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="49" t="e">
+      <c r="C24" s="46" t="e">
         <f ca="1">IF(B24="N/A", "N/A", _xlfn.IFS(B24&lt;=2,"YES",B24&gt;2,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="49" t="str">
+      <c r="C25" s="46" t="str">
         <f>IF(B25="N/A", "N/A", _xlfn.IFS(B25=1,"YES",B25=0,"NO"))</f>
         <v>N/A</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="49" t="e">
+      <c r="C26" s="46" t="e">
         <f ca="1">IF(B26="N/A", "N/A", _xlfn.IFS(B26=1,"YES",B26=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="49" t="e">
+      <c r="C27" s="46" t="e">
         <f ca="1">IF(B27="N/A", "N/A", _xlfn.IFS(B27=1,"YES",B27=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="54" t="str">
+      <c r="C28" s="51" t="str">
         <f>IF(B28="N/A", "N/A", IF(AND(0&lt;=B28, B28&lt;=5),"YES", "NO"))</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="41.4" customHeight="1">
       <c r="A29" s="40"/>
       <c r="B29" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D8:E12"/>
+    <mergeCell ref="D14:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:C12">
     <cfRule type="cellIs" dxfId="20" priority="38" operator="lessThan">
@@ -2074,7 +2126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2088,44 +2140,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="68"/>
-      <c r="C2" s="69">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2024</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="67">
         <f ca="1">C2+1</f>
         <v>2025</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="67">
         <f t="shared" ref="E2:L2" ca="1" si="0">D2+1</f>
         <v>2026</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="67">
         <f t="shared" ca="1" si="0"/>
         <v>2027</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="67">
         <f t="shared" ca="1" si="0"/>
         <v>2028</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="67">
         <f t="shared" ca="1" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="67">
         <f t="shared" ca="1" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="67">
         <f t="shared" ca="1" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K2" s="70">
+      <c r="K2" s="67">
         <f t="shared" ca="1" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L2" s="70">
+      <c r="L2" s="67">
         <f t="shared" ca="1" si="0"/>
         <v>2033</v>
       </c>
@@ -2681,43 +2733,43 @@
     <row r="44" spans="2:12" s="4" customFormat="1"/>
     <row r="45" spans="2:12" s="4" customFormat="1"/>
     <row r="46" spans="2:12" s="4" customFormat="1">
-      <c r="C46" s="71">
+      <c r="C46" s="68">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2024</v>
       </c>
-      <c r="D46" s="71">
+      <c r="D46" s="68">
         <f t="shared" ref="D46:L46" ca="1" si="11">C46 + 1</f>
         <v>2025</v>
       </c>
-      <c r="E46" s="71">
+      <c r="E46" s="68">
         <f t="shared" ca="1" si="11"/>
         <v>2026</v>
       </c>
-      <c r="F46" s="71">
+      <c r="F46" s="68">
         <f t="shared" ca="1" si="11"/>
         <v>2027</v>
       </c>
-      <c r="G46" s="71">
+      <c r="G46" s="68">
         <f t="shared" ca="1" si="11"/>
         <v>2028</v>
       </c>
-      <c r="H46" s="71">
+      <c r="H46" s="68">
         <f t="shared" ca="1" si="11"/>
         <v>2029</v>
       </c>
-      <c r="I46" s="71">
+      <c r="I46" s="68">
         <f t="shared" ca="1" si="11"/>
         <v>2030</v>
       </c>
-      <c r="J46" s="71">
+      <c r="J46" s="68">
         <f t="shared" ca="1" si="11"/>
         <v>2031</v>
       </c>
-      <c r="K46" s="71">
+      <c r="K46" s="68">
         <f t="shared" ca="1" si="11"/>
         <v>2032</v>
       </c>
-      <c r="L46" s="71">
+      <c r="L46" s="68">
         <f t="shared" ca="1" si="11"/>
         <v>2033</v>
       </c>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -13,15 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="HƯỚNG DẪN" sheetId="8" state="hidden" r:id="rId1"/>
-    <sheet name="ĐỊNH GIÁ" sheetId="9" r:id="rId2"/>
-    <sheet name="Hidden" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Xu hướng ngành" sheetId="10" r:id="rId2"/>
+    <sheet name="Định giá" sheetId="9" r:id="rId3"/>
+    <sheet name="Hidden" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Xu hướng ngành'!$A$1:$B$20</definedName>
+  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="134">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -410,6 +414,81 @@
   <si>
     <t>Đối với ngành Ngân hàng: Chỉ số Vốn chủ sở hữu sẽ thay bằng mục Vốn và các quỹ. Lợi nhuận sẽ thay bằng mục Lãi ròng.</t>
   </si>
+  <si>
+    <t>Bất động sản</t>
+  </si>
+  <si>
+    <t>Công nghiệp</t>
+  </si>
+  <si>
+    <t>Hàng hóa không thiết yếu</t>
+  </si>
+  <si>
+    <t>Hàng hóa thiết yếu</t>
+  </si>
+  <si>
+    <t>Công nghệ</t>
+  </si>
+  <si>
+    <t>Năng lượng</t>
+  </si>
+  <si>
+    <t>Chăm sóc sức khỏe</t>
+  </si>
+  <si>
+    <t>Tài chính</t>
+  </si>
+  <si>
+    <t>Tiện ích</t>
+  </si>
+  <si>
+    <t>Nguyên vật liệu</t>
+  </si>
+  <si>
+    <t>Dịch vụ Học thuật và Giáo dục</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>Nhóm ngành</t>
+  </si>
+  <si>
+    <t>#0PEBDS</t>
+  </si>
+  <si>
+    <t>#0PECN</t>
+  </si>
+  <si>
+    <t>#0PEHHKTY</t>
+  </si>
+  <si>
+    <t>#0PEHHTT</t>
+  </si>
+  <si>
+    <t>#0PECNG</t>
+  </si>
+  <si>
+    <t>#0PENL</t>
+  </si>
+  <si>
+    <t>#0PECSSK</t>
+  </si>
+  <si>
+    <t>#0PETC</t>
+  </si>
+  <si>
+    <t>#0PETI</t>
+  </si>
+  <si>
+    <t>#0PENVL</t>
+  </si>
+  <si>
+    <t>#0PEDVHTGD</t>
+  </si>
+  <si>
+    <t>#0TREND</t>
+  </si>
 </sst>
 </file>
 
@@ -422,7 +501,7 @@
     <numFmt numFmtId="166" formatCode="0.00_ "/>
     <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,8 +729,15 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +792,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -968,7 +1060,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1085,6 +1177,22 @@
     <xf numFmtId="166" fontId="20" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1097,15 +1205,13 @@
     <xf numFmtId="9" fontId="19" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1113,7 +1219,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1264,6 +1370,69 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -1280,6 +1449,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Nhóm ngành" dataDxfId="22"/>
+    <tableColumn id="2" name="P/E" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1630,9 +1809,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="80" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="83"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1647,15 +2054,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" thickBot="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="38"/>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="78"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="52" t="s">
@@ -1758,10 +2165,10 @@
         <f>Hidden!C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="81"/>
+      <c r="E8" s="87"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="62" t="s">
@@ -1775,8 +2182,8 @@
         <f>Hidden!C23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="62" t="s">
@@ -1790,8 +2197,8 @@
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="62" t="s">
@@ -1805,8 +2212,8 @@
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" thickBot="1">
       <c r="A12" s="63" t="s">
@@ -1820,8 +2227,8 @@
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
     </row>
     <row r="13" spans="1:5" s="42" customFormat="1" ht="14.4" thickBot="1">
       <c r="A13" s="64" t="s">
@@ -1845,13 +2252,13 @@
       <c r="B14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="84"/>
+      <c r="E14" s="88"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
@@ -1860,12 +2267,12 @@
       <c r="B15" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="83" t="e">
+      <c r="C15" s="79" t="e">
         <f ca="1">IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="45" t="s">
@@ -1874,12 +2281,12 @@
       <c r="B16" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="83" t="e">
+      <c r="C16" s="79" t="e">
         <f ca="1">IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="45" t="s">
@@ -1888,12 +2295,12 @@
       <c r="B17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="83" t="e">
+      <c r="C17" s="79" t="e">
         <f ca="1">IF(B17="N/A", "N/A", _xlfn.IFS(B17&gt;=15,"YES",B17&lt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="45" t="s">
@@ -1902,12 +2309,12 @@
       <c r="B18" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="83" t="e">
+      <c r="C18" s="79" t="e">
         <f ca="1">IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="45" t="s">
@@ -2122,7 +2529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M59"/>
   <sheetViews>
@@ -2224,7 +2631,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="29" t="e">
-        <f>'ĐỊNH GIÁ'!B2</f>
+        <f>'Định giá'!B2</f>
         <v>#VALUE!</v>
       </c>
       <c r="D4" s="8"/>
@@ -2243,7 +2650,7 @@
         <v>76</v>
       </c>
       <c r="C5" s="29" t="e">
-        <f>'ĐỊNH GIÁ'!B3</f>
+        <f>'Định giá'!B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D5" s="8"/>
@@ -2452,7 +2859,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="28" t="str">
-        <f>'ĐỊNH GIÁ'!B4</f>
+        <f>'Định giá'!B4</f>
         <v>#VCSH</v>
       </c>
     </row>
@@ -2461,7 +2868,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="29" t="str">
-        <f>'ĐỊNH GIÁ'!B7</f>
+        <f>'Định giá'!B7</f>
         <v>#TSLCP</v>
       </c>
     </row>
@@ -2470,7 +2877,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="31" t="str">
-        <f>'ĐỊNH GIÁ'!B5</f>
+        <f>'Định giá'!B5</f>
         <v>#TLCT</v>
       </c>
     </row>
@@ -2479,7 +2886,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="30" t="str">
-        <f>'ĐỊNH GIÁ'!B6</f>
+        <f>'Định giá'!B6</f>
         <v>#TGCP</v>
       </c>
     </row>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -13,12 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="HƯỚNG DẪN" sheetId="8" state="hidden" r:id="rId1"/>
-    <sheet name="Xu hướng ngành" sheetId="10" r:id="rId2"/>
-    <sheet name="Định giá" sheetId="9" r:id="rId3"/>
+    <sheet name="Định giá" sheetId="9" r:id="rId2"/>
+    <sheet name="Xu hướng ngành" sheetId="10" r:id="rId3"/>
     <sheet name="Hidden" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Xu hướng ngành'!$A$1:$B$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Xu hướng ngành'!$A$1:$B$20</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
@@ -501,7 +501,7 @@
     <numFmt numFmtId="166" formatCode="0.00_ "/>
     <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +736,12 @@
       <family val="1"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1190,6 +1196,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1202,16 +1212,12 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1809,237 +1815,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="25.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="80" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="80"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="83"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="90"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A13:B20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2054,15 +1832,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" thickBot="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="38"/>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="52" t="s">
@@ -2165,10 +1943,10 @@
         <f>Hidden!C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="89"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="62" t="s">
@@ -2182,8 +1960,8 @@
         <f>Hidden!C23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="62" t="s">
@@ -2197,8 +1975,8 @@
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="62" t="s">
@@ -2212,8 +1990,8 @@
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" thickBot="1">
       <c r="A12" s="63" t="s">
@@ -2227,8 +2005,8 @@
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
     </row>
     <row r="13" spans="1:5" s="42" customFormat="1" ht="14.4" thickBot="1">
       <c r="A13" s="64" t="s">
@@ -2255,10 +2033,10 @@
       <c r="C14" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="88"/>
+      <c r="E14" s="90"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
@@ -2271,8 +2049,8 @@
         <f ca="1">IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="45" t="s">
@@ -2285,8 +2063,8 @@
         <f ca="1">IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="45" t="s">
@@ -2299,8 +2077,8 @@
         <f ca="1">IF(B17="N/A", "N/A", _xlfn.IFS(B17&gt;=15,"YES",B17&lt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="45" t="s">
@@ -2313,8 +2091,8 @@
         <f ca="1">IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="45" t="s">
@@ -2529,6 +2307,234 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="80" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="85"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="84"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M59"/>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -1200,9 +1200,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1218,6 +1215,9 @@
     <xf numFmtId="0" fontId="30" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1226,6 +1226,69 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1376,69 +1439,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -1458,10 +1458,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nhóm ngành" dataDxfId="22"/>
-    <tableColumn id="2" name="P/E" dataDxfId="21"/>
+    <tableColumn id="1" name="Nhóm ngành" dataDxfId="1"/>
+    <tableColumn id="2" name="P/E" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1817,7 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1832,15 +1832,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" thickBot="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="38"/>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="86"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="52" t="s">
@@ -1943,10 +1943,10 @@
         <f>Hidden!C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="89"/>
+      <c r="E8" s="88"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="62" t="s">
@@ -1960,8 +1960,8 @@
         <f>Hidden!C23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="62" t="s">
@@ -1975,8 +1975,8 @@
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="62" t="s">
@@ -1990,8 +1990,8 @@
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" thickBot="1">
       <c r="A12" s="63" t="s">
@@ -2005,8 +2005,8 @@
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
     </row>
     <row r="13" spans="1:5" s="42" customFormat="1" ht="14.4" thickBot="1">
       <c r="A13" s="64" t="s">
@@ -2033,10 +2033,10 @@
       <c r="C14" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="89"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
@@ -2049,8 +2049,8 @@
         <f ca="1">IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="45" t="s">
@@ -2063,8 +2063,8 @@
         <f ca="1">IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="45" t="s">
@@ -2077,8 +2077,8 @@
         <f ca="1">IF(B17="N/A", "N/A", _xlfn.IFS(B17&gt;=15,"YES",B17&lt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="45" t="s">
@@ -2091,8 +2091,8 @@
         <f ca="1">IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="45" t="s">
@@ -2228,77 +2228,77 @@
     <mergeCell ref="D14:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:C12">
-    <cfRule type="cellIs" dxfId="20" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C28">
-    <cfRule type="containsText" dxfId="19" priority="28" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="32" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B11">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2418,38 +2418,38 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="85"/>
+      <c r="B13" s="90"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="90"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="83"/>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -488,6 +488,12 @@
   </si>
   <si>
     <t>#0TREND</t>
+  </si>
+  <si>
+    <t>#DGN</t>
+  </si>
+  <si>
+    <t>Simplize:</t>
   </si>
 </sst>
 </file>
@@ -805,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1052,6 +1058,81 @@
       </left>
       <right/>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1066,7 +1147,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1200,6 +1281,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1209,14 +1300,32 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1818,7 +1927,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D9" sqref="D9:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1832,15 +1941,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="91"/>
       <c r="C1" s="38"/>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="85"/>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="52" t="s">
@@ -1944,26 +2053,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A9" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="86" t="e">
+        <f>Hidden!C22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="87" t="e">
+        <f>Hidden!C23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="88"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="70" t="e">
-        <f>Hidden!C22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="77" t="e">
-        <f>Hidden!C23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="94"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1">
       <c r="A10" s="62" t="s">
         <v>52</v>
       </c>
@@ -1975,8 +2088,8 @@
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="62" t="s">
@@ -1990,8 +2103,8 @@
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" thickBot="1">
       <c r="A12" s="63" t="s">
@@ -2005,8 +2118,8 @@
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
     </row>
     <row r="13" spans="1:5" s="42" customFormat="1" ht="14.4" thickBot="1">
       <c r="A13" s="64" t="s">
@@ -2033,10 +2146,10 @@
       <c r="C14" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="92"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
@@ -2049,8 +2162,8 @@
         <f ca="1">IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="45" t="s">
@@ -2063,8 +2176,8 @@
         <f ca="1">IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="45" t="s">
@@ -2077,8 +2190,8 @@
         <f ca="1">IF(B17="N/A", "N/A", _xlfn.IFS(B17&gt;=15,"YES",B17&lt;15,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="45" t="s">
@@ -2091,8 +2204,8 @@
         <f ca="1">IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO"))</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="45" t="s">
@@ -2224,8 +2337,8 @@
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D8:E12"/>
     <mergeCell ref="D14:E18"/>
+    <mergeCell ref="D9:E12"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:C12">
     <cfRule type="cellIs" dxfId="24" priority="38" operator="lessThan">
@@ -2418,38 +2531,38 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="90"/>
+      <c r="B13" s="99"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="99"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="99"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="99"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="99"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="83"/>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\tienpd3.github.io\website\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D421CDA4-793D-4D4B-B3AA-7E01868E0DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HƯỚNG DẪN" sheetId="8" state="hidden" r:id="rId1"/>
@@ -20,12 +21,21 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Xu hướng ngành'!$A$1:$B$20</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="137">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -67,10 +77,6 @@
   </si>
   <si>
     <t>TỔNG LỢI ÍCH</t>
-  </si>
-  <si>
-    <t>NHỮNG TIÊU CHUẨN ĐỂ
- ĐỊNH GIÁ MỘT DOANH NGHIỆP TÔT</t>
   </si>
   <si>
     <t>CHỈ SỐ</t>
@@ -412,9 +418,6 @@
     <t>Lãi Vốn &gt; 50% cần nghiêm túc xem xét kỹ. Không loại trừ khả năng đó là 1 doanh nghiệp nhỏ &amp; tiền ẩn nhiều rủi ro.</t>
   </si>
   <si>
-    <t>Đối với ngành Ngân hàng: Chỉ số Vốn chủ sở hữu sẽ thay bằng mục Vốn và các quỹ. Lợi nhuận sẽ thay bằng mục Lãi ròng.</t>
-  </si>
-  <si>
     <t>Bất động sản</t>
   </si>
   <si>
@@ -494,12 +497,53 @@
   </si>
   <si>
     <t>Simplize:</t>
+  </si>
+  <si>
+    <t>#VCSHUP</t>
+  </si>
+  <si>
+    <t>TIÊU CHUẨN ĐỊNH GIÁ DOANH NGHIỆP TỐT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VCSH tăng đều </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(Đạt=1, Không đạt = 0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#QFY1 ~ #QFY4: #CVCSH</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -507,7 +551,7 @@
     <numFmt numFmtId="166" formatCode="0.00_ "/>
     <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +792,20 @@
       <family val="1"/>
       <charset val="163"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -811,7 +869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -835,21 +893,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -966,32 +1009,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -999,17 +1016,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1045,19 +1051,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1133,6 +1126,21 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1147,13 +1155,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1168,10 +1174,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1184,92 +1190,75 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="20" fillId="7" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="7" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,62 +1266,79 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="30" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
@@ -1567,10 +1573,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nhóm ngành" dataDxfId="1"/>
-    <tableColumn id="2" name="P/E" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nhóm ngành" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="P/E" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1652,6 +1658,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1687,6 +1710,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1862,60 +1902,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="27"/>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1923,429 +1963,427 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.44140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="10" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="40" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="40" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="48.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="36" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="36" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" customHeight="1" thickBot="1">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="84"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="66" t="e">
+        <f>E2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="47" t="e">
+        <f>D2+D3+D5+D4</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="66" t="e">
+        <f>E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="47" t="e">
+        <f>D3+D4+D6+D5</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="53" t="e">
+        <f>Hidden!C17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" s="67" t="e">
+        <f>Hidden!C18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="74" t="e">
+        <f>Hidden!C22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="75" t="e">
+        <f>Hidden!C23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="86"/>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="89"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="53" t="e">
-        <f>E2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="55" t="e">
-        <f>D2+D3+D5+D4</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="75" t="e">
-        <f>E3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="55" t="e">
-        <f>D3+D4+D6+D5</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="56" t="s">
+      <c r="B10" s="62" t="e">
+        <f>Hidden!C24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="68" t="e">
+        <f>Hidden!C24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="62" t="e">
+        <f>Hidden!C25</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="68" t="e">
+        <f>Hidden!C26</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="63" t="e">
+        <f>Hidden!C27</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" s="63" t="e">
+        <f>Hidden!C28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="64" t="e">
+        <f>IF(B12 &gt;= 20%, "YES", "NO")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="64" t="e">
+        <f>IF(C12 &gt;= 20%, "YES", "NO")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="40" t="e">
+        <f>IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="40" t="e">
+        <f>IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="79" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="83" t="e">
+        <f>IF(B17="N/A", "N/A", _xlfn.IFS(B17=1,"YES",B17=0,"NO"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="40" t="str">
+        <f>IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=15,"YES",B18&lt;15,"NO"))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="40" t="str">
+        <f>IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO"))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="40" t="str">
+        <f>IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=5,"YES",B20&lt;5,"NO"))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="40" t="str">
+        <f>IF(B21="N/A", "N/A", _xlfn.IFS(B21&gt;=15,"YES",B21&lt;15,"NO"))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="40" t="str">
+        <f>IF(B22="N/A", "N/A", _xlfn.IFS(B22&gt;=10,"YES",B22&lt;10,"NO"))</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="40" t="str">
+        <f>IF(B23="N/A", "N/A", _xlfn.IFS(B23&lt;=1,"YES",B23&gt;1,"NO"))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="40" t="str">
+        <f>IF(B24="N/A", "N/A", _xlfn.IFS(B24&lt;=15,"YES",B24&gt;15,"NO"))</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="40" t="str">
+        <f>IF(B25="N/A", "N/A", _xlfn.IFS(B25&lt;=2,"YES",B25&gt;2,"NO"))</f>
+        <v>NO</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="40" t="str">
+        <f>IF(B26="N/A", "N/A", _xlfn.IFS(B26=1,"YES",B26=0,"NO"))</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="40" t="e">
+        <f>IF(B27="N/A", "N/A", _xlfn.IFS(B27=1,"YES",B27=0,"NO"))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="40" t="e">
+        <f>IF(B28="N/A", "N/A", _xlfn.IFS(B28=1,"YES",B28=0,"NO"))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A8" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="61" t="e">
-        <f>Hidden!C17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" s="76" t="e">
-        <f>Hidden!C18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D8" s="88" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A9" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="86" t="e">
-        <f>Hidden!C22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" s="87" t="e">
-        <f>Hidden!C23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="94"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A10" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="70" t="e">
-        <f>Hidden!C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="77" t="e">
-        <f>Hidden!C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="70" t="e">
-        <f>Hidden!C25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="77" t="e">
-        <f>Hidden!C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A12" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="71" t="e">
-        <f>Hidden!C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="71" t="e">
-        <f>Hidden!C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98"/>
-    </row>
-    <row r="13" spans="1:5" s="42" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A13" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="73" t="e">
-        <f>IF(B12 &gt;= 20%, "YES", "NO")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="72" t="e">
-        <f>IF(C12 &gt;= 20%, "YES", "NO")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:5" s="42" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A14" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="92"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="79" t="e">
-        <f ca="1">IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="79" t="e">
-        <f ca="1">IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="79" t="e">
-        <f ca="1">IF(B17="N/A", "N/A", _xlfn.IFS(B17&gt;=15,"YES",B17&lt;15,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="79" t="e">
-        <f ca="1">IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=5,"YES",B18&lt;5,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="46" t="e">
-        <f ca="1">IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="46" t="e">
-        <f ca="1">IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=15,"YES",B20&lt;15,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="46" t="e">
-        <f ca="1">IF(B21="N/A", "N/A", _xlfn.IFS(B21&gt;=10,"YES",B21&lt;10,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="46" t="e">
-        <f ca="1">IF(B22="N/A", "N/A", _xlfn.IFS(B22&lt;=1,"YES",B22&gt;1,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="46" t="e">
-        <f ca="1">IF(B23="N/A", "N/A", _xlfn.IFS(B23&lt;=15,"YES",B23&gt;15,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="46" t="e">
-        <f ca="1">IF(B24="N/A", "N/A", _xlfn.IFS(B24&lt;=2,"YES",B24&gt;2,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="46" t="str">
-        <f>IF(B25="N/A", "N/A", _xlfn.IFS(B25=1,"YES",B25=0,"NO"))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="46" t="e">
-        <f ca="1">IF(B26="N/A", "N/A", _xlfn.IFS(B26=1,"YES",B26=0,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="47" t="s">
+      <c r="B29" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="46" t="e">
-        <f ca="1">IF(B27="N/A", "N/A", _xlfn.IFS(B27=1,"YES",B27=0,"NO"))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A28" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="51" t="str">
-        <f>IF(B28="N/A", "N/A", IF(AND(0&lt;=B28, B28&lt;=5),"YES", "NO"))</f>
+      <c r="C29" s="45" t="str">
+        <f>IF(B29="N/A", "N/A", IF(AND(0&lt;=B29, B29&lt;=5),"YES", "NO"))</f>
         <v>NO</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41.4" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
+    <row r="30" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D14:E18"/>
     <mergeCell ref="D9:E12"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:C12">
     <cfRule type="cellIs" dxfId="24" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C28">
+  <conditionalFormatting sqref="C15:C29">
     <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
     </cfRule>
@@ -2421,220 +2459,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="80" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="80"/>
+    <col min="1" max="1" width="25.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="69" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="82" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="82" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="82" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B6" s="70" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="82" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B7" s="70" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="82" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B8" s="70" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="82" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B9" s="70" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="82" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B10" s="70" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="82" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B11" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="82" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B12" s="70" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="81" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="91" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="99"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="99"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="99"/>
-      <c r="B17" s="99"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="99"/>
-      <c r="B18" s="99"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="99"/>
-      <c r="B19" s="99"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
+      <c r="B13" s="91"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2649,941 +2619,941 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:M59"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="57.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="6" customWidth="1"/>
-    <col min="5" max="12" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="4" customWidth="1"/>
+    <col min="5" max="12" width="8.83203125" style="4"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2024</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="59">
         <f ca="1">C2+1</f>
         <v>2025</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="59">
         <f t="shared" ref="E2:L2" ca="1" si="0">D2+1</f>
         <v>2026</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="59">
         <f t="shared" ca="1" si="0"/>
         <v>2027</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="59">
         <f t="shared" ca="1" si="0"/>
         <v>2028</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="59">
         <f t="shared" ca="1" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="59">
         <f t="shared" ca="1" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="59">
         <f t="shared" ca="1" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="59">
         <f t="shared" ca="1" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="59">
         <f t="shared" ca="1" si="0"/>
         <v>2033</v>
       </c>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="7" t="s">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6">
+        <v>9</v>
+      </c>
+      <c r="L3" s="6">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="27" t="e">
+        <f>'Định giá'!B2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="27" t="e">
+        <f>'Định giá'!B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="e">
+        <f>C4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" s="4" t="e">
+        <f>C6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="4" t="e">
+        <f>D6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="4" t="e">
+        <f t="shared" ref="F6" si="1">E6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="4" t="e">
+        <f t="shared" ref="G6" si="2">F6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" s="4" t="e">
+        <f t="shared" ref="H6" si="3">G6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="4" t="e">
+        <f t="shared" ref="I6" si="4">H6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" s="4" t="e">
+        <f t="shared" ref="J6" si="5">I6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="4" t="e">
+        <f t="shared" ref="K6" si="6">J6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" s="4" t="e">
+        <f t="shared" ref="L6" si="7">K6</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="e">
+        <f>C5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="4" t="e">
+        <f>C7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="4" t="e">
+        <f>D7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="4" t="e">
+        <f t="shared" ref="F7:L7" si="8">E7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H7" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8">
-        <v>6</v>
-      </c>
-      <c r="I3" s="8">
-        <v>7</v>
-      </c>
-      <c r="J3" s="8">
-        <v>8</v>
-      </c>
-      <c r="K3" s="8">
-        <v>9</v>
-      </c>
-      <c r="L3" s="8">
-        <v>10</v>
-      </c>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="29" t="e">
-        <f>'Định giá'!B2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="29" t="e">
-        <f>'Định giá'!B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="5" t="e">
-        <f>C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D6" s="6" t="e">
-        <f>C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" s="6" t="e">
-        <f>D6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" s="6" t="e">
-        <f t="shared" ref="F6" si="1">E6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" s="6" t="e">
-        <f t="shared" ref="G6" si="2">F6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" s="6" t="e">
-        <f t="shared" ref="H6" si="3">G6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="6" t="e">
-        <f t="shared" ref="I6" si="4">H6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="6" t="e">
-        <f t="shared" ref="J6" si="5">I6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="6" t="e">
-        <f t="shared" ref="K6" si="6">J6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" s="6" t="e">
-        <f t="shared" ref="L6" si="7">K6</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="7" t="s">
+      <c r="C8" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="5" t="e">
-        <f>C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D7" s="6" t="e">
-        <f>C7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="6" t="e">
-        <f>D7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="6" t="e">
-        <f t="shared" ref="F7:L7" si="8">E7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" s="6" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="7" t="s">
+      <c r="C9" s="9" t="e">
+        <f>C6/(1+$C$8)^C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="9" t="e">
+        <f t="shared" ref="D9:L9" si="9">D6/(1+$C$8)^D3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="9" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="9" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="9" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" s="9" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="9" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" s="9" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="9" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" s="9" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="9" t="e">
+        <f>C7/(1+$C$8)^C3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="9" t="e">
+        <f>D7/(1+$C$8)^D3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="9" t="e">
+        <f t="shared" ref="E10:L10" si="10">E7/(1+$C$8)^E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L10" s="9" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" s="1" customFormat="1">
-      <c r="B9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="11" t="e">
-        <f>C6/(1+$C$8)^C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" s="11" t="e">
-        <f t="shared" ref="D9:L9" si="9">D6/(1+$C$8)^D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H9" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L9" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="2:13" s="1" customFormat="1">
-      <c r="B10" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="11" t="e">
-        <f>C7/(1+$C$8)^C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" s="11" t="e">
-        <f>D7/(1+$C$8)^D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="11" t="e">
-        <f t="shared" ref="E10:L10" si="10">E7/(1+$C$8)^E3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H10" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I10" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L10" s="11" t="e">
-        <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="28" t="str">
+      <c r="C11" s="26" t="str">
         <f>'Định giá'!B4</f>
         <v>#VCSH</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="29" t="str">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="27" t="str">
         <f>'Định giá'!B7</f>
         <v>#TSLCP</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="31" t="str">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="29" t="str">
         <f>'Định giá'!B5</f>
         <v>#TLCT</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="49.8">
-      <c r="B14" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="30" t="str">
+    <row r="14" spans="2:13" ht="50" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="28" t="str">
         <f>'Định giá'!B6</f>
         <v>#TGCP</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="10" t="e">
+        <f>((C9+D9+E9+F9+G9+H9+I9+J9+K9+L9)+C11)*(1-0.1*3.14)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="12" t="e">
-        <f>((C9+D9+E9+F9+G9+H9+I9+J9+K9+L9)+C11)*(1-0.1*3.14)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="10" t="e">
+        <f>((C10+D10+E10+F10+G10+H10+I10+J10+K10+L10)+C11)*(1-0.1*3.14)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="12" t="e">
-        <f>((C10+D10+E10+F10+G10+H10+I10+J10+K10+L10)+C11)*(1-0.1*3.14)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="49.8">
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="30" t="e">
+        <f>(C15*1000000000)/($C$12*1000000)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="32" t="e">
-        <f>(C15*1000000000)/($C$12*1000000)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="49.8">
-      <c r="B18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="32" t="e">
+      <c r="C18" s="30" t="e">
         <f>(C16*1000000000)/($C$12*1000000)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="11" t="e">
+        <f>C58</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="13" t="e">
-        <f>C58</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="11" t="e">
+        <f>C59</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="33" t="e">
+        <f>C17/$C$14-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="33" t="e">
+        <f>C18/$C$14-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="33" t="e">
+        <f>0.95*C13*10000/C14</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="13" t="e">
-        <f>C59</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="2" customFormat="1">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="2:12" ht="49.8">
-      <c r="B22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="35" t="e">
-        <f>C17/$C$14-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="49.8">
-      <c r="B23" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="35" t="e">
-        <f>C18/$C$14-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="49.8">
-      <c r="B24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="35" t="e">
-        <f>0.95*C13*10000/C14</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="49.8">
-      <c r="B25" s="17" t="s">
+      <c r="C25" s="33" t="e">
+        <f>C19/C17-1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="35" t="e">
-        <f>C19/C17-1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="49.8">
-      <c r="B26" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="35" t="e">
+      <c r="C26" s="33" t="e">
         <f>C20/C18-1</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="49.8">
-      <c r="B27" s="33" t="s">
+    <row r="27" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="34" t="e">
+      <c r="C27" s="32" t="e">
         <f>C22+$C$24+C25</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="49.8">
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="34" t="e">
+      <c r="C28" s="32" t="e">
         <f>C23+$C$24+C26</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="3" customFormat="1"/>
-    <row r="31" spans="2:12" s="4" customFormat="1"/>
-    <row r="32" spans="2:12" s="4" customFormat="1">
-      <c r="B32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="18" t="str">
+    <row r="30" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="16" t="str">
         <f>C13</f>
         <v>#TLCT</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="4" customFormat="1">
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="3" t="e">
+        <f>C32*10*C12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" s="17"/>
+    </row>
+    <row r="34" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3" t="e">
+        <f>C6-$C$33</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="3" t="e">
+        <f>C7-$C$33</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="18" t="e">
+        <f>C34+$C$11</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="18" t="e">
+        <f>C35+$C$11</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="19" t="e">
+        <f>C6/$C$11</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="19" t="e">
+        <f>C7/$C$11</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="4" t="e">
-        <f>C32*10*C12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="2:12" s="4" customFormat="1">
-      <c r="B34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="4" t="e">
-        <f>C6-$C$33</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" s="4" customFormat="1">
-      <c r="B35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="4" t="e">
-        <f>C7-$C$33</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" s="4" customFormat="1">
-      <c r="B36" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="20" t="e">
-        <f>C34+$C$11</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" s="4" customFormat="1">
-      <c r="B37" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="20" t="e">
-        <f>C35+$C$11</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" s="4" customFormat="1">
-      <c r="B38" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="21" t="e">
-        <f>C6/$C$11</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" s="4" customFormat="1">
-      <c r="B39" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="21" t="e">
-        <f>C7/$C$11</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" s="4" customFormat="1">
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="20" t="e">
+        <f>C38*C34</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="20" t="e">
+        <f>C39*C35</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="22" t="e">
-        <f>C38*C34</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" s="4" customFormat="1">
-      <c r="B41" s="4" t="s">
+      <c r="C42" s="21" t="e">
+        <f>C40+C6</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="22" t="e">
-        <f>C39*C35</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" s="4" customFormat="1">
-      <c r="B42" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="23" t="e">
-        <f>C40+C6</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" s="4" customFormat="1">
-      <c r="B43" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="23" t="e">
+      <c r="C43" s="21" t="e">
         <f>C41+C7</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="4" customFormat="1"/>
-    <row r="45" spans="2:12" s="4" customFormat="1"/>
-    <row r="46" spans="2:12" s="4" customFormat="1">
-      <c r="C46" s="68">
+    <row r="44" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="60">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2024</v>
       </c>
-      <c r="D46" s="68">
+      <c r="D46" s="60">
         <f t="shared" ref="D46:L46" ca="1" si="11">C46 + 1</f>
         <v>2025</v>
       </c>
-      <c r="E46" s="68">
+      <c r="E46" s="60">
         <f t="shared" ca="1" si="11"/>
         <v>2026</v>
       </c>
-      <c r="F46" s="68">
+      <c r="F46" s="60">
         <f t="shared" ca="1" si="11"/>
         <v>2027</v>
       </c>
-      <c r="G46" s="68">
+      <c r="G46" s="60">
         <f t="shared" ca="1" si="11"/>
         <v>2028</v>
       </c>
-      <c r="H46" s="68">
+      <c r="H46" s="60">
         <f t="shared" ca="1" si="11"/>
         <v>2029</v>
       </c>
-      <c r="I46" s="68">
+      <c r="I46" s="60">
         <f t="shared" ca="1" si="11"/>
         <v>2030</v>
       </c>
-      <c r="J46" s="68">
+      <c r="J46" s="60">
         <f t="shared" ca="1" si="11"/>
         <v>2031</v>
       </c>
-      <c r="K46" s="68">
+      <c r="K46" s="60">
         <f t="shared" ca="1" si="11"/>
         <v>2032</v>
       </c>
-      <c r="L46" s="68">
+      <c r="L46" s="60">
         <f t="shared" ca="1" si="11"/>
         <v>2033</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="4" customFormat="1">
-      <c r="B47" s="20" t="s">
+    <row r="47" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2</v>
+      </c>
+      <c r="E47" s="18">
+        <v>3</v>
+      </c>
+      <c r="F47" s="18">
+        <v>4</v>
+      </c>
+      <c r="G47" s="18">
+        <v>5</v>
+      </c>
+      <c r="H47" s="18">
+        <v>6</v>
+      </c>
+      <c r="I47" s="18">
+        <v>7</v>
+      </c>
+      <c r="J47" s="18">
+        <v>8</v>
+      </c>
+      <c r="K47" s="18">
+        <v>9</v>
+      </c>
+      <c r="L47" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="20" t="e">
+        <f>C42</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D48" s="3" t="e">
+        <f>C48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="3" t="e">
+        <f>D48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="3" t="e">
+        <f t="shared" ref="F48" si="12">E48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="3" t="e">
+        <f t="shared" ref="G48" si="13">F48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="3" t="e">
+        <f t="shared" ref="H48" si="14">G48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="3" t="e">
+        <f t="shared" ref="I48" si="15">H48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J48" s="3" t="e">
+        <f t="shared" ref="J48" si="16">I48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" s="3" t="e">
+        <f t="shared" ref="K48" si="17">J48</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L48" s="3" t="e">
+        <f t="shared" ref="L48" si="18">K48</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="20" t="e">
+        <f>C43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" s="3" t="e">
+        <f>C49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E49" s="3" t="e">
+        <f>D49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" s="3" t="e">
+        <f t="shared" ref="F49:L49" si="19">E49</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G49" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I49" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J49" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L49" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="20">
-        <v>1</v>
-      </c>
-      <c r="D47" s="20">
-        <v>2</v>
-      </c>
-      <c r="E47" s="20">
-        <v>3</v>
-      </c>
-      <c r="F47" s="20">
-        <v>4</v>
-      </c>
-      <c r="G47" s="20">
-        <v>5</v>
-      </c>
-      <c r="H47" s="20">
-        <v>6</v>
-      </c>
-      <c r="I47" s="20">
-        <v>7</v>
-      </c>
-      <c r="J47" s="20">
-        <v>8</v>
-      </c>
-      <c r="K47" s="20">
-        <v>9</v>
-      </c>
-      <c r="L47" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" s="4" customFormat="1">
-      <c r="B48" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="22" t="e">
-        <f>C42</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D48" s="4" t="e">
-        <f>C48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E48" s="4" t="e">
-        <f>D48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F48" s="4" t="e">
-        <f t="shared" ref="F48" si="12">E48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G48" s="4" t="e">
-        <f t="shared" ref="G48" si="13">F48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H48" s="4" t="e">
-        <f t="shared" ref="H48" si="14">G48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I48" s="4" t="e">
-        <f t="shared" ref="I48" si="15">H48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J48" s="4" t="e">
-        <f t="shared" ref="J48" si="16">I48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K48" s="4" t="e">
-        <f t="shared" ref="K48" si="17">J48</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L48" s="4" t="e">
-        <f t="shared" ref="L48" si="18">K48</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" s="4" customFormat="1">
-      <c r="B49" s="20" t="s">
+      <c r="C50" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="20" t="e">
+        <f>C48/(1+$C$8)^C47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="20" t="e">
+        <f t="shared" ref="D51:L51" si="20">D48/(1+$C$8)^D47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" s="20" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="20" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" s="20" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" s="20" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I51" s="20" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J51" s="20" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" s="20" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L51" s="20" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M51" s="20"/>
+    </row>
+    <row r="52" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="22" t="e">
-        <f>C43</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D49" s="4" t="e">
-        <f>C49</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E49" s="4" t="e">
-        <f>D49</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F49" s="4" t="e">
-        <f t="shared" ref="F49:L49" si="19">E49</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G49" s="4" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H49" s="4" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I49" s="4" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J49" s="4" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K49" s="4" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L49" s="4" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" s="4" customFormat="1">
-      <c r="B50" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" s="4" customFormat="1">
-      <c r="B51" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="22" t="e">
-        <f>C48/(1+$C$8)^C47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D51" s="22" t="e">
-        <f t="shared" ref="D51:L51" si="20">D48/(1+$C$8)^D47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E51" s="22" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F51" s="22" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" s="22" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H51" s="22" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I51" s="22" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J51" s="22" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K51" s="22" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L51" s="22" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M51" s="22"/>
-    </row>
-    <row r="52" spans="2:13" s="4" customFormat="1">
-      <c r="B52" s="20" t="s">
+      <c r="C52" s="20" t="e">
+        <f>C49/(1+$C$8)^C47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="20" t="e">
+        <f>D49/(1+$C$8)^D47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" s="20" t="e">
+        <f t="shared" ref="E52:L52" si="21">E49/(1+$C$8)^E47</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" s="20" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" s="20" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" s="20" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I52" s="20" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J52" s="20" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" s="20" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L52" s="20" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M52" s="20"/>
+    </row>
+    <row r="53" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="22" t="e">
-        <f>C49/(1+$C$8)^C47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D52" s="22" t="e">
-        <f>D49/(1+$C$8)^D47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E52" s="22" t="e">
-        <f t="shared" ref="E52:L52" si="21">E49/(1+$C$8)^E47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F52" s="22" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" s="22" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H52" s="22" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I52" s="22" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J52" s="22" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K52" s="22" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L52" s="22" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M52" s="22"/>
-    </row>
-    <row r="53" spans="2:13" s="4" customFormat="1">
-      <c r="B53" s="20" t="s">
+      <c r="C53" s="18" t="e">
+        <f>C36</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="20" t="e">
-        <f>C36</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" s="4" customFormat="1">
-      <c r="B54" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="20" t="e">
+      <c r="C54" s="18" t="e">
         <f>C37</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="4" customFormat="1">
-      <c r="B55" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="4" t="str">
+    <row r="55" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="3" t="str">
         <f>C12</f>
         <v>#TSLCP</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
-      <c r="B56" s="20" t="s">
+    <row r="56" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
+      <c r="B56" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="23" t="e">
+        <f>((C51+D51+E51+F51+G51+H51+I51+J51+K51+L51)+C53)*(1-0.1*3.14)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
+      <c r="B57" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="25" t="e">
-        <f>((C51+D51+E51+F51+G51+H51+I51+J51+K51+L51)+C53)*(1-0.1*3.14)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
-      <c r="B57" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="25" t="e">
+      <c r="C57" s="23" t="e">
         <f>((C52+D52+E52+F52+G52+H52+I52+J52+K52+L52)+C54)*(1-0.1*3.14)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
-      <c r="B58" s="20" t="s">
+    <row r="58" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
+      <c r="B58" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="24" t="e">
+        <f>(C56*1000000000)/($C$55*1000000)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
+      <c r="B59" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="26" t="e">
-        <f>(C56*1000000000)/($C$55*1000000)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" s="4" customFormat="1" ht="66.599999999999994">
-      <c r="B59" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="26" t="e">
+      <c r="C59" s="24" t="e">
         <f>(C57*1000000000)/($C$55*1000000)</f>
         <v>#VALUE!</v>
       </c>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D421CDA4-793D-4D4B-B3AA-7E01868E0DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3B8C1A-2B15-164C-8D06-AFB7F3F5368D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,40 +172,318 @@
     <t>#PB</t>
   </si>
   <si>
+    <t>#DTP</t>
+  </si>
+  <si>
+    <t>#NDHLNST</t>
+  </si>
+  <si>
+    <t>#BLDMB</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>#SYMBOL</t>
+  </si>
+  <si>
+    <t>DÒNG TIỀN THỰC (Cổ tức #CT)</t>
+  </si>
+  <si>
+    <t>LÃI VỐN (Mua rẻ tài sản)</t>
+  </si>
+  <si>
+    <t>P/B&lt;2(&lt;= 2)</t>
+  </si>
+  <si>
+    <t>Tỷ lệ lãi ròng (&gt;= 5)</t>
+  </si>
+  <si>
+    <t>ROA (&gt;= 5%)</t>
+  </si>
+  <si>
+    <t>ROE (&gt;= 15%)</t>
+  </si>
+  <si>
+    <t>ROIC (&gt;= 10%)</t>
+  </si>
+  <si>
+    <t>Nợ/VCSH (&lt;= 1)</t>
+  </si>
+  <si>
+    <t>LNST #QGN</t>
+  </si>
+  <si>
+    <t>#QFY0</t>
+  </si>
+  <si>
+    <t>#QFY1</t>
+  </si>
+  <si>
+    <t>#QFY2</t>
+  </si>
+  <si>
+    <t>#QFY3</t>
+  </si>
+  <si>
+    <t>VỐN CHỦ SỞ HỮU HIỆN TẠI[#VCSHFY] (tỷ đồng)</t>
+  </si>
+  <si>
+    <t>Nợ dài hạn(#NDH)/LNST(#LNST) (#NDHLNSTFY) &lt;= 5</t>
+  </si>
+  <si>
+    <t>P/E &lt;15(có thể 20) &lt;= 15</t>
+  </si>
+  <si>
+    <t>Tỷ lệ lãi gộp &gt;= 15%</t>
+  </si>
+  <si>
+    <t>#Q4</t>
+  </si>
+  <si>
+    <t>#QFY4</t>
+  </si>
+  <si>
+    <t>LỢI NHUẬN TRUNG BÌNH MỖI NĂM TRONG 10 NĂM TỚI (Trước)</t>
+  </si>
+  <si>
+    <t>LỢI NHUẬN TRUNG BÌNH MỖI NĂM TRONG 10 NĂM TỚI (Sau)</t>
+  </si>
+  <si>
+    <t>Lợi nhuận đưa vào công thức (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>Lợi nhuận đưa vào công thức (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Tổng giá trị thực doanh nghiệp (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>Tổng giá trị thực doanh nghiệp (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Giá trị thực cổ phiếu hiện tại (Trước)</t>
+  </si>
+  <si>
+    <t>Giá trị thực cổ phiếu hiện tại (Sau)</t>
+  </si>
+  <si>
+    <t>GIÁ TRỊ THỰC CỔ PHIẾU (Trước, Sau)</t>
+  </si>
+  <si>
+    <t>Lãi vốn (mua rẻ tài sản) Trước</t>
+  </si>
+  <si>
+    <t>Lãi vốn (mua rẻ tài sản) Sau</t>
+  </si>
+  <si>
+    <t>Số tiền tăng vốn chủ sở hữu (Trước)</t>
+  </si>
+  <si>
+    <t>Số tiền tăng vốn chủ sở hữu (Sau)</t>
+  </si>
+  <si>
+    <t>Vốn chủ sở hữu sau 1 năm (Trước)</t>
+  </si>
+  <si>
+    <t>Vốn chủ sở hữu sau 1 năm (Sau)</t>
+  </si>
+  <si>
+    <t>ROE (Trước)</t>
+  </si>
+  <si>
+    <t>ROE (Sau)</t>
+  </si>
+  <si>
+    <t>Lợi nhuận (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>Lợi nhuận (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng) sau</t>
+  </si>
+  <si>
+    <t>Vốn chủ sở hữu hiện tại (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>Vốn chủ sở hữu hiện tại (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Giá trị thực cổ phiếu (Trước)</t>
+  </si>
+  <si>
+    <t>Giá trị thực cổ phiếu (Sau)</t>
+  </si>
+  <si>
+    <t>Giá trị thực sau 1 năm (Trước)</t>
+  </si>
+  <si>
+    <t>Giá trị thực sau 1 năm (Sau)</t>
+  </si>
+  <si>
+    <t>Tăng giá trị (Trước)</t>
+  </si>
+  <si>
+    <t>Tăng giá trị (Sau)</t>
+  </si>
+  <si>
+    <t>LNST #QFY0 ~ #QFY3 (tỷ đồng) Trước</t>
+  </si>
+  <si>
+    <t>LNST #QFY1 ~ #QFY4 (tỷ đồng) Sau</t>
+  </si>
+  <si>
+    <t>Lãi Vốn &gt; 50% cần nghiêm túc xem xét kỹ. Không loại trừ khả năng đó là 1 doanh nghiệp nhỏ &amp; tiền ẩn nhiều rủi ro.</t>
+  </si>
+  <si>
+    <t>Bất động sản</t>
+  </si>
+  <si>
+    <t>Công nghiệp</t>
+  </si>
+  <si>
+    <t>Hàng hóa không thiết yếu</t>
+  </si>
+  <si>
+    <t>Hàng hóa thiết yếu</t>
+  </si>
+  <si>
+    <t>Công nghệ</t>
+  </si>
+  <si>
+    <t>Năng lượng</t>
+  </si>
+  <si>
+    <t>Chăm sóc sức khỏe</t>
+  </si>
+  <si>
+    <t>Tài chính</t>
+  </si>
+  <si>
+    <t>Tiện ích</t>
+  </si>
+  <si>
+    <t>Nguyên vật liệu</t>
+  </si>
+  <si>
+    <t>Dịch vụ Học thuật và Giáo dục</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>Nhóm ngành</t>
+  </si>
+  <si>
+    <t>#0PEBDS</t>
+  </si>
+  <si>
+    <t>#0PECN</t>
+  </si>
+  <si>
+    <t>#0PEHHKTY</t>
+  </si>
+  <si>
+    <t>#0PEHHTT</t>
+  </si>
+  <si>
+    <t>#0PECNG</t>
+  </si>
+  <si>
+    <t>#0PENL</t>
+  </si>
+  <si>
+    <t>#0PECSSK</t>
+  </si>
+  <si>
+    <t>#0PETC</t>
+  </si>
+  <si>
+    <t>#0PETI</t>
+  </si>
+  <si>
+    <t>#0PENVL</t>
+  </si>
+  <si>
+    <t>#0PEDVHTGD</t>
+  </si>
+  <si>
+    <t>#0TREND</t>
+  </si>
+  <si>
+    <t>#DGN</t>
+  </si>
+  <si>
+    <t>Simplize:</t>
+  </si>
+  <si>
+    <t>#VCSHUP</t>
+  </si>
+  <si>
+    <t>TIÊU CHUẨN ĐỊNH GIÁ DOANH NGHIỆP TỐT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Doanh thu tăng đều </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Đạt = 1, Không đạt = 0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lợi nhuận gộp tăng đều  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Đạt=1, Không đạt = 0)  </t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Mô hình đơn giản tập chung </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF00B050"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="163"/>
       </rPr>
       <t>(Đạt = 1, Không đạt = 0)</t>
     </r>
   </si>
   <si>
-    <t>#DTP</t>
-  </si>
-  <si>
-    <t>#NDHLNST</t>
-  </si>
-  <si>
-    <t>#BLDMB</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>#SYMBOL</t>
-  </si>
-  <si>
-    <t>DÒNG TIỀN THỰC (Cổ tức #CT)</t>
-  </si>
-  <si>
-    <t>LÃI VỐN (Mua rẻ tài sản)</t>
+    <r>
+      <t xml:space="preserve">Ban lãnh đạo mua/bán cố phần </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Đạt = 1, Không đạt = 0)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -213,296 +491,13 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF00B050"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="163"/>
       </rPr>
       <t>(Đạt = 1, Không đạt = 0)</t>
     </r>
-  </si>
-  <si>
-    <t>P/B&lt;2(&lt;= 2)</t>
-  </si>
-  <si>
-    <t>Tỷ lệ lãi ròng (&gt;= 5)</t>
-  </si>
-  <si>
-    <t>ROA (&gt;= 5%)</t>
-  </si>
-  <si>
-    <t>ROE (&gt;= 15%)</t>
-  </si>
-  <si>
-    <t>ROIC (&gt;= 10%)</t>
-  </si>
-  <si>
-    <t>Nợ/VCSH (&lt;= 1)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lợi nhuận gộp tăng đều  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve">(Đạt=1, Không đạt = 0)  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Doanh thu tăng đều </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-      </rPr>
-      <t>(Đạt = 1, Không đạt = 0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ban lãnh đạo mua/bán cố phần </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-      </rPr>
-      <t>(Đạt = 1, Không đạt = 0)</t>
-    </r>
-  </si>
-  <si>
-    <t>LNST #QGN</t>
-  </si>
-  <si>
-    <t>#QFY0</t>
-  </si>
-  <si>
-    <t>#QFY1</t>
-  </si>
-  <si>
-    <t>#QFY2</t>
-  </si>
-  <si>
-    <t>#QFY3</t>
-  </si>
-  <si>
-    <t>VỐN CHỦ SỞ HỮU HIỆN TẠI[#VCSHFY] (tỷ đồng)</t>
-  </si>
-  <si>
-    <t>Nợ dài hạn(#NDH)/LNST(#LNST) (#NDHLNSTFY) &lt;= 5</t>
-  </si>
-  <si>
-    <t>P/E &lt;15(có thể 20) &lt;= 15</t>
-  </si>
-  <si>
-    <t>Tỷ lệ lãi gộp &gt;= 15%</t>
-  </si>
-  <si>
-    <t>#Q4</t>
-  </si>
-  <si>
-    <t>#QFY4</t>
-  </si>
-  <si>
-    <t>LỢI NHUẬN TRUNG BÌNH MỖI NĂM TRONG 10 NĂM TỚI (Trước)</t>
-  </si>
-  <si>
-    <t>LỢI NHUẬN TRUNG BÌNH MỖI NĂM TRONG 10 NĂM TỚI (Sau)</t>
-  </si>
-  <si>
-    <t>Lợi nhuận đưa vào công thức (tỷ đồng) Trước</t>
-  </si>
-  <si>
-    <t>Lợi nhuận đưa vào công thức (tỷ đồng) Sau</t>
-  </si>
-  <si>
-    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng) Trước</t>
-  </si>
-  <si>
-    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng) Sau</t>
-  </si>
-  <si>
-    <t>Tổng giá trị thực doanh nghiệp (tỷ đồng) Trước</t>
-  </si>
-  <si>
-    <t>Tổng giá trị thực doanh nghiệp (tỷ đồng) Sau</t>
-  </si>
-  <si>
-    <t>Giá trị thực cổ phiếu hiện tại (Trước)</t>
-  </si>
-  <si>
-    <t>Giá trị thực cổ phiếu hiện tại (Sau)</t>
-  </si>
-  <si>
-    <t>GIÁ TRỊ THỰC CỔ PHIẾU (Trước, Sau)</t>
-  </si>
-  <si>
-    <t>Lãi vốn (mua rẻ tài sản) Trước</t>
-  </si>
-  <si>
-    <t>Lãi vốn (mua rẻ tài sản) Sau</t>
-  </si>
-  <si>
-    <t>Số tiền tăng vốn chủ sở hữu (Trước)</t>
-  </si>
-  <si>
-    <t>Số tiền tăng vốn chủ sở hữu (Sau)</t>
-  </si>
-  <si>
-    <t>Vốn chủ sở hữu sau 1 năm (Trước)</t>
-  </si>
-  <si>
-    <t>Vốn chủ sở hữu sau 1 năm (Sau)</t>
-  </si>
-  <si>
-    <t>ROE (Trước)</t>
-  </si>
-  <si>
-    <t>ROE (Sau)</t>
-  </si>
-  <si>
-    <t>Lợi nhuận (tỷ đồng) Trước</t>
-  </si>
-  <si>
-    <t>Lợi nhuận (tỷ đồng) Sau</t>
-  </si>
-  <si>
-    <t>Lợi nhuận quy hồi về hiện tại (tỷ đồng) sau</t>
-  </si>
-  <si>
-    <t>Vốn chủ sở hữu hiện tại (tỷ đồng) Trước</t>
-  </si>
-  <si>
-    <t>Vốn chủ sở hữu hiện tại (tỷ đồng) Sau</t>
-  </si>
-  <si>
-    <t>Giá trị thực cổ phiếu (Trước)</t>
-  </si>
-  <si>
-    <t>Giá trị thực cổ phiếu (Sau)</t>
-  </si>
-  <si>
-    <t>Giá trị thực sau 1 năm (Trước)</t>
-  </si>
-  <si>
-    <t>Giá trị thực sau 1 năm (Sau)</t>
-  </si>
-  <si>
-    <t>Tăng giá trị (Trước)</t>
-  </si>
-  <si>
-    <t>Tăng giá trị (Sau)</t>
-  </si>
-  <si>
-    <t>LNST #QFY0 ~ #QFY3 (tỷ đồng) Trước</t>
-  </si>
-  <si>
-    <t>LNST #QFY1 ~ #QFY4 (tỷ đồng) Sau</t>
-  </si>
-  <si>
-    <t>Lãi Vốn &gt; 50% cần nghiêm túc xem xét kỹ. Không loại trừ khả năng đó là 1 doanh nghiệp nhỏ &amp; tiền ẩn nhiều rủi ro.</t>
-  </si>
-  <si>
-    <t>Bất động sản</t>
-  </si>
-  <si>
-    <t>Công nghiệp</t>
-  </si>
-  <si>
-    <t>Hàng hóa không thiết yếu</t>
-  </si>
-  <si>
-    <t>Hàng hóa thiết yếu</t>
-  </si>
-  <si>
-    <t>Công nghệ</t>
-  </si>
-  <si>
-    <t>Năng lượng</t>
-  </si>
-  <si>
-    <t>Chăm sóc sức khỏe</t>
-  </si>
-  <si>
-    <t>Tài chính</t>
-  </si>
-  <si>
-    <t>Tiện ích</t>
-  </si>
-  <si>
-    <t>Nguyên vật liệu</t>
-  </si>
-  <si>
-    <t>Dịch vụ Học thuật và Giáo dục</t>
-  </si>
-  <si>
-    <t>P/E</t>
-  </si>
-  <si>
-    <t>Nhóm ngành</t>
-  </si>
-  <si>
-    <t>#0PEBDS</t>
-  </si>
-  <si>
-    <t>#0PECN</t>
-  </si>
-  <si>
-    <t>#0PEHHKTY</t>
-  </si>
-  <si>
-    <t>#0PEHHTT</t>
-  </si>
-  <si>
-    <t>#0PECNG</t>
-  </si>
-  <si>
-    <t>#0PENL</t>
-  </si>
-  <si>
-    <t>#0PECSSK</t>
-  </si>
-  <si>
-    <t>#0PETC</t>
-  </si>
-  <si>
-    <t>#0PETI</t>
-  </si>
-  <si>
-    <t>#0PENVL</t>
-  </si>
-  <si>
-    <t>#0PEDVHTGD</t>
-  </si>
-  <si>
-    <t>#0TREND</t>
-  </si>
-  <si>
-    <t>#DGN</t>
-  </si>
-  <si>
-    <t>Simplize:</t>
-  </si>
-  <si>
-    <t>#VCSHUP</t>
-  </si>
-  <si>
-    <t>TIÊU CHUẨN ĐỊNH GIÁ DOANH NGHIỆP TỐT</t>
   </si>
   <si>
     <r>
@@ -510,21 +505,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF00B050"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="163"/>
       </rPr>
       <t>(Đạt=1, Không đạt = 0)</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="163"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -551,7 +544,7 @@
     <numFmt numFmtId="166" formatCode="0.00_ "/>
     <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,43 +702,6 @@
       <charset val="163"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFBC32E4"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -787,22 +743,58 @@
       <charset val="163"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="163"/>
     </font>
     <font>
       <b/>
       <vertAlign val="subscript"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="163"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFBC32E4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1155,7 +1147,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1190,148 +1182,149 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="14" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="20" fillId="7" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="28" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="7" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1967,410 +1960,446 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="36" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="36" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="37"/>
+    <col min="1" max="1" width="48.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="34" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="94"/>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="85"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="46" t="e">
+        <f>E2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="49" t="e">
+        <f>D2+D3+D5+D4</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="46" t="e">
+        <f>E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="49" t="e">
+        <f>D3+D4+D6+D5</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="84"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="66" t="e">
-        <f>E2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="47" t="e">
-        <f>D2+D3+D5+D4</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="66" t="e">
-        <f>E3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="47" t="e">
-        <f>D3+D4+D6+D5</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
+      <c r="B4" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="61" t="s">
+      <c r="D6" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>72</v>
-      </c>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="51" t="s">
         <v>34</v>
       </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="53" t="e">
+      <c r="A8" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="56" t="e">
         <f>Hidden!C17</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C8" s="67" t="e">
+      <c r="C8" s="57" t="e">
         <f>Hidden!C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>132</v>
+      <c r="D8" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="74" t="e">
+      <c r="A9" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="61" t="e">
         <f>Hidden!C22</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C9" s="75" t="e">
+      <c r="C9" s="62" t="e">
         <f>Hidden!C23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="86"/>
+      <c r="D9" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="87"/>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="62" t="e">
+      <c r="A10" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="64" t="e">
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C10" s="68" t="e">
+      <c r="C10" s="65" t="e">
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="62" t="e">
+      <c r="B11" s="64" t="e">
         <f>Hidden!C25</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C11" s="68" t="e">
+      <c r="C11" s="65" t="e">
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="63" t="e">
+      <c r="B12" s="67" t="e">
         <f>Hidden!C27</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C12" s="63" t="e">
+      <c r="C12" s="67" t="e">
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="64" t="e">
+      <c r="B13" s="69" t="e">
         <f>IF(B12 &gt;= 20%, "YES", "NO")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C13" s="64" t="e">
+      <c r="C13" s="69" t="e">
         <f>IF(C12 &gt;= 20%, "YES", "NO")</f>
         <v>#VALUE!</v>
       </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="72" t="s">
         <v>15</v>
       </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="40" t="e">
+      <c r="C15" s="75" t="e">
         <f>IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
         <v>#N/A</v>
       </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="40" t="e">
+      <c r="C16" s="75" t="e">
         <f>IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="79" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="80" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+    </row>
+    <row r="17" spans="1:5" s="44" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="83" t="e">
+      <c r="B17" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="78" t="e">
         <f>IF(B17="N/A", "N/A", _xlfn.IFS(B17=1,"YES",B17=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="40" t="str">
+      <c r="C18" s="75" t="str">
         <f>IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=15,"YES",B18&lt;15,"NO"))</f>
         <v>YES</v>
       </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="40" t="str">
+      <c r="C19" s="75" t="str">
         <f>IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO"))</f>
         <v>YES</v>
       </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="40" t="str">
+      <c r="C20" s="75" t="str">
         <f>IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=5,"YES",B20&lt;5,"NO"))</f>
         <v>YES</v>
       </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="40" t="str">
+      <c r="C21" s="75" t="str">
         <f>IF(B21="N/A", "N/A", _xlfn.IFS(B21&gt;=15,"YES",B21&lt;15,"NO"))</f>
         <v>YES</v>
       </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="40" t="str">
+      <c r="C22" s="75" t="str">
         <f>IF(B22="N/A", "N/A", _xlfn.IFS(B22&gt;=10,"YES",B22&lt;10,"NO"))</f>
         <v>YES</v>
       </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="40" t="str">
+      <c r="C23" s="75" t="str">
         <f>IF(B23="N/A", "N/A", _xlfn.IFS(B23&lt;=1,"YES",B23&gt;1,"NO"))</f>
         <v>NO</v>
       </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="40" t="str">
+      <c r="C24" s="75" t="str">
         <f>IF(B24="N/A", "N/A", _xlfn.IFS(B24&lt;=15,"YES",B24&gt;15,"NO"))</f>
         <v>NO</v>
       </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="40" t="str">
+      <c r="C25" s="75" t="str">
         <f>IF(B25="N/A", "N/A", _xlfn.IFS(B25&lt;=2,"YES",B25&gt;2,"NO"))</f>
         <v>NO</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="40" t="str">
+      <c r="A26" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="75" t="str">
         <f>IF(B26="N/A", "N/A", _xlfn.IFS(B26=1,"YES",B26=0,"NO"))</f>
         <v>N/A</v>
       </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="40" t="e">
+      <c r="A27" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="75" t="e">
         <f>IF(B27="N/A", "N/A", _xlfn.IFS(B27=1,"YES",B27=0,"NO"))</f>
         <v>#N/A</v>
       </c>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="40" t="e">
+      <c r="A28" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="75" t="e">
         <f>IF(B28="N/A", "N/A", _xlfn.IFS(B28=1,"YES",B28=0,"NO"))</f>
         <v>#N/A</v>
       </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="45" t="str">
+      <c r="A29" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="84" t="str">
         <f>IF(B29="N/A", "N/A", IF(AND(0&lt;=B29, B29&lt;=5),"YES", "NO"))</f>
         <v>NO</v>
       </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2466,145 +2495,145 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="69" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="69"/>
+    <col min="1" max="1" width="25.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="40" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B7" s="41" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B8" s="41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B9" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="71" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B10" s="41" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="71" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B11" s="41" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="71" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B12" s="41" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="70" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="95" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="70" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="95"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
-      <c r="B14" s="91"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2636,44 +2665,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="57"/>
-      <c r="C2" s="58">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2024</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="38">
         <f ca="1">C2+1</f>
         <v>2025</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="38">
         <f t="shared" ref="E2:L2" ca="1" si="0">D2+1</f>
         <v>2026</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="38">
         <f t="shared" ca="1" si="0"/>
         <v>2027</v>
       </c>
-      <c r="G2" s="59">
+      <c r="G2" s="38">
         <f t="shared" ca="1" si="0"/>
         <v>2028</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="38">
         <f t="shared" ca="1" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="38">
         <f t="shared" ca="1" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="38">
         <f t="shared" ca="1" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K2" s="59">
+      <c r="K2" s="38">
         <f t="shared" ca="1" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L2" s="59">
+      <c r="L2" s="38">
         <f t="shared" ca="1" si="0"/>
         <v>2033</v>
       </c>
@@ -2717,7 +2746,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" s="27" t="e">
         <f>'Định giá'!B2</f>
@@ -2736,7 +2765,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" s="27" t="e">
         <f>'Định giá'!B3</f>
@@ -2755,7 +2784,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C6" t="e">
         <f>C4</f>
@@ -2800,7 +2829,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C7" t="e">
         <f>C5</f>
@@ -2853,7 +2882,7 @@
     </row>
     <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C9" s="9" t="e">
         <f>C6/(1+$C$8)^C3</f>
@@ -2899,7 +2928,7 @@
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="9" t="e">
         <f>C7/(1+$C$8)^C3</f>
@@ -2981,7 +3010,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C15" s="10" t="e">
         <f>((C9+D9+E9+F9+G9+H9+I9+J9+K9+L9)+C11)*(1-0.1*3.14)</f>
@@ -2990,7 +3019,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C16" s="10" t="e">
         <f>((C10+D10+E10+F10+G10+H10+I10+J10+K10+L10)+C11)*(1-0.1*3.14)</f>
@@ -2999,7 +3028,7 @@
     </row>
     <row r="17" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C17" s="30" t="e">
         <f>(C15*1000000000)/($C$12*1000000)</f>
@@ -3008,7 +3037,7 @@
     </row>
     <row r="18" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C18" s="30" t="e">
         <f>(C16*1000000000)/($C$12*1000000)</f>
@@ -3017,7 +3046,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C19" s="11" t="e">
         <f>C58</f>
@@ -3026,7 +3055,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C20" s="11" t="e">
         <f>C59</f>
@@ -3048,7 +3077,7 @@
     </row>
     <row r="22" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C22" s="33" t="e">
         <f>C17/$C$14-1</f>
@@ -3060,7 +3089,7 @@
     </row>
     <row r="23" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C23" s="33" t="e">
         <f>C18/$C$14-1</f>
@@ -3081,7 +3110,7 @@
     </row>
     <row r="25" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C25" s="33" t="e">
         <f>C19/C17-1</f>
@@ -3090,7 +3119,7 @@
     </row>
     <row r="26" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C26" s="33" t="e">
         <f>C20/C18-1</f>
@@ -3138,7 +3167,7 @@
     </row>
     <row r="34" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C34" s="3" t="e">
         <f>C6-$C$33</f>
@@ -3147,7 +3176,7 @@
     </row>
     <row r="35" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C35" s="3" t="e">
         <f>C7-$C$33</f>
@@ -3156,7 +3185,7 @@
     </row>
     <row r="36" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C36" s="18" t="e">
         <f>C34+$C$11</f>
@@ -3165,7 +3194,7 @@
     </row>
     <row r="37" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C37" s="18" t="e">
         <f>C35+$C$11</f>
@@ -3174,7 +3203,7 @@
     </row>
     <row r="38" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C38" s="19" t="e">
         <f>C6/$C$11</f>
@@ -3183,7 +3212,7 @@
     </row>
     <row r="39" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C39" s="19" t="e">
         <f>C7/$C$11</f>
@@ -3229,43 +3258,43 @@
     <row r="44" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="60">
+      <c r="C46" s="39">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2024</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D46" s="39">
         <f t="shared" ref="D46:L46" ca="1" si="11">C46 + 1</f>
         <v>2025</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="39">
         <f t="shared" ca="1" si="11"/>
         <v>2026</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="39">
         <f t="shared" ca="1" si="11"/>
         <v>2027</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="39">
         <f t="shared" ca="1" si="11"/>
         <v>2028</v>
       </c>
-      <c r="H46" s="60">
+      <c r="H46" s="39">
         <f t="shared" ca="1" si="11"/>
         <v>2029</v>
       </c>
-      <c r="I46" s="60">
+      <c r="I46" s="39">
         <f t="shared" ca="1" si="11"/>
         <v>2030</v>
       </c>
-      <c r="J46" s="60">
+      <c r="J46" s="39">
         <f t="shared" ca="1" si="11"/>
         <v>2031</v>
       </c>
-      <c r="K46" s="60">
+      <c r="K46" s="39">
         <f t="shared" ca="1" si="11"/>
         <v>2032</v>
       </c>
-      <c r="L46" s="60">
+      <c r="L46" s="39">
         <f t="shared" ca="1" si="11"/>
         <v>2033</v>
       </c>
@@ -3307,7 +3336,7 @@
     </row>
     <row r="48" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C48" s="20" t="e">
         <f>C42</f>
@@ -3352,7 +3381,7 @@
     </row>
     <row r="49" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C49" s="20" t="e">
         <f>C43</f>
@@ -3405,7 +3434,7 @@
     </row>
     <row r="51" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C51" s="20" t="e">
         <f>C48/(1+$C$8)^C47</f>
@@ -3451,7 +3480,7 @@
     </row>
     <row r="52" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C52" s="20" t="e">
         <f>C49/(1+$C$8)^C47</f>
@@ -3497,7 +3526,7 @@
     </row>
     <row r="53" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C53" s="18" t="e">
         <f>C36</f>
@@ -3506,7 +3535,7 @@
     </row>
     <row r="54" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C54" s="18" t="e">
         <f>C37</f>
@@ -3524,7 +3553,7 @@
     </row>
     <row r="56" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
       <c r="B56" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C56" s="23" t="e">
         <f>((C51+D51+E51+F51+G51+H51+I51+J51+K51+L51)+C53)*(1-0.1*3.14)</f>
@@ -3533,7 +3562,7 @@
     </row>
     <row r="57" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
       <c r="B57" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C57" s="23" t="e">
         <f>((C52+D52+E52+F52+G52+H52+I52+J52+K52+L52)+C54)*(1-0.1*3.14)</f>
@@ -3542,7 +3571,7 @@
     </row>
     <row r="58" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
       <c r="B58" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C58" s="24" t="e">
         <f>(C56*1000000000)/($C$55*1000000)</f>
@@ -3551,7 +3580,7 @@
     </row>
     <row r="59" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
       <c r="B59" s="18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C59" s="24" t="e">
         <f>(C57*1000000000)/($C$55*1000000)</f>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3B8C1A-2B15-164C-8D06-AFB7F3F5368D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079AA5D4-A3BE-6A4D-808A-9D291304A819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -338,9 +342,6 @@
   </si>
   <si>
     <t>LNST #QFY1 ~ #QFY4 (tỷ đồng) Sau</t>
-  </si>
-  <si>
-    <t>Lãi Vốn &gt; 50% cần nghiêm túc xem xét kỹ. Không loại trừ khả năng đó là 1 doanh nghiệp nhỏ &amp; tiền ẩn nhiều rủi ro.</t>
   </si>
   <si>
     <t>Bất động sản</t>
@@ -460,20 +461,6 @@
   <si>
     <r>
       <t xml:space="preserve">Mô hình đơn giản tập chung </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Đạt = 1, Không đạt = 0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ban lãnh đạo mua/bán cố phần </t>
     </r>
     <r>
       <rPr>
@@ -532,6 +519,42 @@
       <t>#QFY1 ~ #QFY4: #CVCSH</t>
     </r>
   </si>
+  <si>
+    <t>Lãi Vốn &gt; 50% cần xem xét kỹ. Không loại trừ khả năng đó là 1 doanh nghiệp nhỏ &amp; tiền ẩn nhiều rủi ro.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ban lãnh đạo mua/bán cố phần </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Đạt = 1, Không đạt = 0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>#IBLDMB</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -544,7 +567,7 @@
     <numFmt numFmtId="166" formatCode="0.00_ "/>
     <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,13 +773,6 @@
     </font>
     <font>
       <b/>
-      <vertAlign val="subscript"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FFBC32E4"/>
       <name val="Times New Roman"/>
@@ -1201,130 +1217,130 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="27" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="7" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="28" fillId="7" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1576,9 +1592,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1616,9 +1632,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1651,26 +1667,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1703,26 +1702,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1960,7 +1942,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1974,15 +1956,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="45" t="s">
@@ -2091,13 +2073,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="60" t="s">
         <v>51</v>
       </c>
@@ -2109,12 +2091,12 @@
         <f>Hidden!C23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="87"/>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="88"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
         <v>50</v>
       </c>
@@ -2126,8 +2108,8 @@
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="63" t="s">
@@ -2141,8 +2123,8 @@
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="66" t="s">
@@ -2156,8 +2138,8 @@
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68" t="s">
@@ -2176,7 +2158,7 @@
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>14</v>
@@ -2189,7 +2171,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="74" t="s">
         <v>38</v>
@@ -2203,7 +2185,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>39</v>
@@ -2217,10 +2199,10 @@
     </row>
     <row r="17" spans="1:5" s="44" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="78" t="e">
         <f>IF(B17="N/A", "N/A", _xlfn.IFS(B17=1,"YES",B17=0,"NO"))</f>
@@ -2343,7 +2325,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" s="76" t="s">
         <v>48</v>
@@ -2355,9 +2337,9 @@
       <c r="D26" s="52"/>
       <c r="E26" s="52"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="73" t="s">
-        <v>134</v>
+    <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="85" t="s">
+        <v>136</v>
       </c>
       <c r="B27" s="76" t="s">
         <v>47</v>
@@ -2371,7 +2353,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="73" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B28" s="76" t="s">
         <v>45</v>
@@ -2405,7 +2387,7 @@
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D9:E12"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:C12">
     <cfRule type="cellIs" dxfId="24" priority="38" operator="lessThan">
@@ -2503,133 +2485,133 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="93" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="93"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="93"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079AA5D4-A3BE-6A4D-808A-9D291304A819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EAED4F-7900-F74B-AE3E-379818E3D7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,7 +1163,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1281,12 +1281,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1295,20 +1289,11 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1333,14 +1318,23 @@
     <xf numFmtId="9" fontId="28" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1349,7 +1343,97 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1413,156 +1497,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -1582,10 +1516,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nhóm ngành" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="P/E" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nhóm ngành" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="P/E" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1947,7 +1881,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="35" customWidth="1"/>
     <col min="3" max="3" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="34" customWidth="1"/>
@@ -1956,15 +1890,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="52"/>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="86"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="45" t="s">
@@ -2091,10 +2025,10 @@
         <f>Hidden!C23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="88"/>
+      <c r="E9" s="83"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
@@ -2108,8 +2042,8 @@
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="63" t="s">
@@ -2123,8 +2057,8 @@
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="66" t="s">
@@ -2138,8 +2072,8 @@
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68" t="s">
@@ -2176,7 +2110,7 @@
       <c r="B15" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="75" t="e">
+      <c r="C15" s="76" t="e">
         <f>IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
         <v>#N/A</v>
       </c>
@@ -2187,10 +2121,10 @@
       <c r="A16" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="75" t="e">
+      <c r="C16" s="76" t="e">
         <f>IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
         <v>#N/A</v>
       </c>
@@ -2198,27 +2132,27 @@
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" s="44" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="75" t="s">
         <v>134</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="78" t="e">
+      <c r="C17" s="76" t="e">
         <f>IF(B17="N/A", "N/A", _xlfn.IFS(B17=1,"YES",B17=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="75" t="str">
+      <c r="C18" s="76" t="str">
         <f>IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=15,"YES",B18&lt;15,"NO"))</f>
         <v>YES</v>
       </c>
@@ -2229,10 +2163,10 @@
       <c r="A19" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="75" t="str">
+      <c r="C19" s="76" t="str">
         <f>IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO"))</f>
         <v>YES</v>
       </c>
@@ -2243,10 +2177,10 @@
       <c r="A20" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="75" t="str">
+      <c r="C20" s="76" t="str">
         <f>IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=5,"YES",B20&lt;5,"NO"))</f>
         <v>YES</v>
       </c>
@@ -2257,10 +2191,10 @@
       <c r="A21" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="75" t="str">
+      <c r="C21" s="76" t="str">
         <f>IF(B21="N/A", "N/A", _xlfn.IFS(B21&gt;=15,"YES",B21&lt;15,"NO"))</f>
         <v>YES</v>
       </c>
@@ -2271,10 +2205,10 @@
       <c r="A22" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="75" t="str">
+      <c r="C22" s="76" t="str">
         <f>IF(B22="N/A", "N/A", _xlfn.IFS(B22&gt;=10,"YES",B22&lt;10,"NO"))</f>
         <v>YES</v>
       </c>
@@ -2285,10 +2219,10 @@
       <c r="A23" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="75" t="str">
+      <c r="C23" s="76" t="str">
         <f>IF(B23="N/A", "N/A", _xlfn.IFS(B23&lt;=1,"YES",B23&gt;1,"NO"))</f>
         <v>NO</v>
       </c>
@@ -2299,10 +2233,10 @@
       <c r="A24" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="75" t="str">
+      <c r="C24" s="76" t="str">
         <f>IF(B24="N/A", "N/A", _xlfn.IFS(B24&lt;=15,"YES",B24&gt;15,"NO"))</f>
         <v>NO</v>
       </c>
@@ -2313,24 +2247,24 @@
       <c r="A25" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="75" t="str">
+      <c r="C25" s="76" t="str">
         <f>IF(B25="N/A", "N/A", _xlfn.IFS(B25&lt;=2,"YES",B25&gt;2,"NO"))</f>
         <v>NO</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="75" t="str">
+      <c r="C26" s="76" t="str">
         <f>IF(B26="N/A", "N/A", _xlfn.IFS(B26=1,"YES",B26=0,"NO"))</f>
         <v>N/A</v>
       </c>
@@ -2338,13 +2272,13 @@
       <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="75" t="e">
+      <c r="C27" s="76" t="e">
         <f>IF(B27="N/A", "N/A", _xlfn.IFS(B27=1,"YES",B27=0,"NO"))</f>
         <v>#N/A</v>
       </c>
@@ -2355,10 +2289,10 @@
       <c r="A28" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="75" t="e">
+      <c r="C28" s="76" t="e">
         <f>IF(B28="N/A", "N/A", _xlfn.IFS(B28=1,"YES",B28=0,"NO"))</f>
         <v>#N/A</v>
       </c>
@@ -2366,13 +2300,13 @@
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="84" t="str">
+      <c r="C29" s="93" t="str">
         <f>IF(B29="N/A", "N/A", IF(AND(0&lt;=B29, B29&lt;=5),"YES", "NO"))</f>
         <v>NO</v>
       </c>
@@ -2389,79 +2323,49 @@
     <mergeCell ref="D9:E12"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C9:C12">
-    <cfRule type="cellIs" dxfId="24" priority="38" operator="lessThan">
+  <conditionalFormatting sqref="B9:C12">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",B13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C15:C29">
-    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="5" priority="28" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="4" priority="29" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="3" priority="30" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="2" priority="31" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="1" priority="32" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="0" priority="33" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B11">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",B13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.27500000000000002" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2580,38 +2484,38 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="93"/>
+      <c r="B13" s="90"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="90"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EAED4F-7900-F74B-AE3E-379818E3D7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBFF4EC-BA30-D841-9559-4E9C05A88C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -555,19 +555,21 @@
       <t>#IBLDMB</t>
     </r>
   </si>
+  <si>
+    <t>Đơn vị: triệu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,6 +816,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1163,7 +1172,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1218,15 +1227,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1297,6 +1299,15 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1327,14 +1338,18 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1894,7 +1909,7 @@
         <v>49</v>
       </c>
       <c r="B1" s="89"/>
-      <c r="C1" s="52"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="81" t="s">
         <v>58</v>
       </c>
@@ -1904,17 +1919,17 @@
       <c r="A2" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="46" t="e">
+      <c r="B2" s="93" t="e">
         <f>E2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="49" t="e">
+      <c r="E2" s="95" t="e">
         <f>D2+D3+D5+D4</f>
         <v>#VALUE!</v>
       </c>
@@ -1923,105 +1938,107 @@
       <c r="A3" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="46" t="e">
+      <c r="B3" s="93" t="e">
         <f>E3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="49" t="e">
+      <c r="E3" s="95" t="e">
         <f>D3+D4+D6+D5</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="56" t="e">
+      <c r="B8" s="53" t="e">
         <f>Hidden!C17</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C8" s="57" t="e">
+      <c r="C8" s="54" t="e">
         <f>Hidden!C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="56" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="61" t="e">
+      <c r="B9" s="58" t="e">
         <f>Hidden!C22</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C9" s="62" t="e">
+      <c r="C9" s="59" t="e">
         <f>Hidden!C23</f>
         <v>#VALUE!</v>
       </c>
@@ -2031,14 +2048,14 @@
       <c r="E9" s="83"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="64" t="e">
+      <c r="B10" s="61" t="e">
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C10" s="65" t="e">
+      <c r="C10" s="62" t="e">
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
@@ -2046,14 +2063,14 @@
       <c r="E10" s="85"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="64" t="e">
+      <c r="B11" s="61" t="e">
         <f>Hidden!C25</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C11" s="65" t="e">
+      <c r="C11" s="62" t="e">
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
@@ -2061,14 +2078,14 @@
       <c r="E11" s="85"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="67" t="e">
+      <c r="B12" s="64" t="e">
         <f>Hidden!C27</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C12" s="67" t="e">
+      <c r="C12" s="64" t="e">
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
@@ -2076,242 +2093,242 @@
       <c r="E12" s="87"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="69" t="e">
+      <c r="B13" s="66" t="e">
         <f>IF(B12 &gt;= 20%, "YES", "NO")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C13" s="69" t="e">
+      <c r="C13" s="66" t="e">
         <f>IF(C12 &gt;= 20%, "YES", "NO")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="76" t="e">
+      <c r="C15" s="73" t="e">
         <f>IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="76" t="e">
+      <c r="C16" s="73" t="e">
         <f>IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" s="44" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="76" t="e">
+      <c r="C17" s="73" t="e">
         <f>IF(B17="N/A", "N/A", _xlfn.IFS(B17=1,"YES",B17=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="76" t="str">
+      <c r="C18" s="73" t="str">
         <f>IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=15,"YES",B18&lt;15,"NO"))</f>
         <v>YES</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="76" t="str">
+      <c r="C19" s="73" t="str">
         <f>IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO"))</f>
         <v>YES</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="76" t="str">
+      <c r="C20" s="73" t="str">
         <f>IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=5,"YES",B20&lt;5,"NO"))</f>
         <v>YES</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="76" t="str">
+      <c r="C21" s="73" t="str">
         <f>IF(B21="N/A", "N/A", _xlfn.IFS(B21&gt;=15,"YES",B21&lt;15,"NO"))</f>
         <v>YES</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="76" t="str">
+      <c r="C22" s="73" t="str">
         <f>IF(B22="N/A", "N/A", _xlfn.IFS(B22&gt;=10,"YES",B22&lt;10,"NO"))</f>
         <v>YES</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="76" t="str">
+      <c r="C23" s="73" t="str">
         <f>IF(B23="N/A", "N/A", _xlfn.IFS(B23&lt;=1,"YES",B23&gt;1,"NO"))</f>
         <v>NO</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="76" t="str">
+      <c r="C24" s="73" t="str">
         <f>IF(B24="N/A", "N/A", _xlfn.IFS(B24&lt;=15,"YES",B24&gt;15,"NO"))</f>
         <v>NO</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="76" t="str">
+      <c r="C25" s="73" t="str">
         <f>IF(B25="N/A", "N/A", _xlfn.IFS(B25&lt;=2,"YES",B25&gt;2,"NO"))</f>
         <v>NO</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="76" t="str">
+      <c r="C26" s="73" t="str">
         <f>IF(B26="N/A", "N/A", _xlfn.IFS(B26=1,"YES",B26=0,"NO"))</f>
         <v>N/A</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="76" t="e">
+      <c r="C27" s="73" t="e">
         <f>IF(B27="N/A", "N/A", _xlfn.IFS(B27=1,"YES",B27=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="76" t="e">
+      <c r="C28" s="73" t="e">
         <f>IF(B28="N/A", "N/A", _xlfn.IFS(B28=1,"YES",B28=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="93" t="str">
+      <c r="C29" s="80" t="str">
         <f>IF(B29="N/A", "N/A", IF(AND(0&lt;=B29, B29&lt;=5),"YES", "NO"))</f>
         <v>NO</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBFF4EC-BA30-D841-9559-4E9C05A88C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E5E6D6-F33E-8C48-A60B-63F055F0F792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,36 +1308,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1350,6 +1320,36 @@
     </xf>
     <xf numFmtId="4" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1358,18 +1358,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1395,7 +1395,35 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1414,14 +1442,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1435,7 +1463,19 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1531,10 +1571,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nhóm ngành" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="P/E" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nhóm ngành" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="P/E" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1905,31 +1945,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="94"/>
       <c r="C1" s="49"/>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="81"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="93" t="e">
+      <c r="B2" s="83" t="e">
         <f>E2</f>
         <v>#VALUE!</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="95" t="e">
+      <c r="E2" s="85" t="e">
         <f>D2+D3+D5+D4</f>
         <v>#VALUE!</v>
       </c>
@@ -1938,17 +1978,17 @@
       <c r="A3" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="93" t="e">
+      <c r="B3" s="83" t="e">
         <f>E3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="95" t="e">
+      <c r="E3" s="85" t="e">
         <f>D3+D4+D6+D5</f>
         <v>#VALUE!</v>
       </c>
@@ -1957,13 +1997,13 @@
       <c r="A4" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="84" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="81" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="49"/>
@@ -1978,7 +2018,7 @@
       <c r="C5" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="81" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="49"/>
@@ -1993,7 +2033,7 @@
       <c r="C6" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="81" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="49"/>
@@ -2006,7 +2046,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="82" t="s">
         <v>137</v>
       </c>
       <c r="E7" s="49"/>
@@ -2042,10 +2082,10 @@
         <f>Hidden!C23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="88"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="60" t="s">
@@ -2059,8 +2099,8 @@
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="60" t="s">
@@ -2074,8 +2114,8 @@
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
@@ -2089,8 +2129,8 @@
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
@@ -2117,7 +2157,10 @@
       <c r="C14" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="73" t="e">
+        <f>IF(OR(C29="NO", (C12 * 100) &lt; 10, (C11 * 100) &lt;= 0, C28="NO"), "NO", "YES")</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -2341,48 +2384,68 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:C12">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C29">
-    <cfRule type="containsText" dxfId="5" priority="28" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="11" priority="39" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="34" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="29" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="30" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="8" priority="37" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="31" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="7" priority="36" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="32" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="6" priority="35" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="33" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.27500000000000002" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2501,38 +2564,38 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="90"/>
+      <c r="B13" s="95"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E5E6D6-F33E-8C48-A60B-63F055F0F792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD755C5F-B05B-F34A-AA28-8C63E2065B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="139">
   <si>
     <t xml:space="preserve"> LƯU Ý KHI SỬ DỤNG PHẦN MỀM ĐỊNH GIÁ  NÀY:</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>Đơn vị: triệu</t>
+  </si>
+  <si>
+    <t>VALUE</t>
   </si>
 </sst>
 </file>
@@ -1154,9 +1157,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1172,7 +1173,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1274,9 +1275,6 @@
     <xf numFmtId="0" fontId="29" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1350,6 +1348,12 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1945,31 +1949,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="49"/>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="86"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="83" t="e">
+      <c r="B2" s="82" t="e">
         <f>E2</f>
         <v>#VALUE!</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="85" t="e">
+      <c r="E2" s="84" t="e">
         <f>D2+D3+D5+D4</f>
         <v>#VALUE!</v>
       </c>
@@ -1978,17 +1982,17 @@
       <c r="A3" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="83" t="e">
+      <c r="B3" s="82" t="e">
         <f>E3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="85" t="e">
+      <c r="E3" s="84" t="e">
         <f>D3+D4+D6+D5</f>
         <v>#VALUE!</v>
       </c>
@@ -1997,13 +2001,13 @@
       <c r="A4" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="80" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="49"/>
@@ -2018,7 +2022,7 @@
       <c r="C5" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="49"/>
@@ -2033,7 +2037,7 @@
       <c r="C6" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="80" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="49"/>
@@ -2046,7 +2050,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="81" t="s">
         <v>137</v>
       </c>
       <c r="E7" s="49"/>
@@ -2082,10 +2086,10 @@
         <f>Hidden!C23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="88"/>
+      <c r="E9" s="87"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="60" t="s">
@@ -2099,8 +2103,8 @@
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="60" t="s">
@@ -2114,8 +2118,8 @@
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
@@ -2129,8 +2133,8 @@
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
@@ -2144,7 +2148,9 @@
         <f>IF(C12 &gt;= 20%, "YES", "NO")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="65" t="s">
+        <v>138</v>
+      </c>
       <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2154,23 +2160,23 @@
       <c r="B14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="73" t="e">
-        <f>IF(OR(C29="NO", (C12 * 100) &lt; 10, (C11 * 100) &lt;= 0, C28="NO"), "NO", "YES")</f>
+      <c r="D14" s="96" t="e">
+        <f>IF(OR(C29="NO", (C12 * 100) &lt; 10, (C11 * 100) &lt;= 0, (C9 * 100) &lt;= 0, C28="NO"), "NO", "YES")</f>
         <v>#VALUE!</v>
       </c>
       <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="73" t="e">
+      <c r="C15" s="72" t="e">
         <f>IF(B15="N/A", "N/A", _xlfn.IFS(B15=1,"YES",B15=0,"NO"))</f>
         <v>#N/A</v>
       </c>
@@ -2178,13 +2184,13 @@
       <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="73" t="e">
+      <c r="C16" s="72" t="e">
         <f>IF(B16="N/A", "N/A", _xlfn.IFS(B16=1,"YES",B16=0,"NO"))</f>
         <v>#N/A</v>
       </c>
@@ -2192,27 +2198,27 @@
       <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5" s="44" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="73" t="e">
+      <c r="C17" s="72" t="e">
         <f>IF(B17="N/A", "N/A", _xlfn.IFS(B17=1,"YES",B17=0,"NO"))</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="73" t="str">
+      <c r="C18" s="72" t="str">
         <f>IF(B18="N/A", "N/A", _xlfn.IFS(B18&gt;=15,"YES",B18&lt;15,"NO"))</f>
         <v>YES</v>
       </c>
@@ -2220,13 +2226,13 @@
       <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="73" t="str">
+      <c r="C19" s="72" t="str">
         <f>IF(B19="N/A", "N/A", _xlfn.IFS(B19&gt;=5,"YES",B19&lt;5,"NO"))</f>
         <v>YES</v>
       </c>
@@ -2234,13 +2240,13 @@
       <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="73" t="str">
+      <c r="C20" s="72" t="str">
         <f>IF(B20="N/A", "N/A", _xlfn.IFS(B20&gt;=5,"YES",B20&lt;5,"NO"))</f>
         <v>YES</v>
       </c>
@@ -2248,13 +2254,13 @@
       <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="73" t="str">
+      <c r="C21" s="72" t="str">
         <f>IF(B21="N/A", "N/A", _xlfn.IFS(B21&gt;=15,"YES",B21&lt;15,"NO"))</f>
         <v>YES</v>
       </c>
@@ -2262,13 +2268,13 @@
       <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="73" t="str">
+      <c r="C22" s="72" t="str">
         <f>IF(B22="N/A", "N/A", _xlfn.IFS(B22&gt;=10,"YES",B22&lt;10,"NO"))</f>
         <v>YES</v>
       </c>
@@ -2276,13 +2282,13 @@
       <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="73" t="str">
+      <c r="C23" s="72" t="str">
         <f>IF(B23="N/A", "N/A", _xlfn.IFS(B23&lt;=1,"YES",B23&gt;1,"NO"))</f>
         <v>NO</v>
       </c>
@@ -2290,13 +2296,13 @@
       <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="73" t="str">
+      <c r="C24" s="72" t="str">
         <f>IF(B24="N/A", "N/A", _xlfn.IFS(B24&lt;=15,"YES",B24&gt;15,"NO"))</f>
         <v>NO</v>
       </c>
@@ -2304,27 +2310,27 @@
       <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="73" t="str">
+      <c r="C25" s="72" t="str">
         <f>IF(B25="N/A", "N/A", _xlfn.IFS(B25&lt;=2,"YES",B25&gt;2,"NO"))</f>
         <v>NO</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="73" t="str">
+      <c r="C26" s="72" t="str">
         <f>IF(B26="N/A", "N/A", _xlfn.IFS(B26=1,"YES",B26=0,"NO"))</f>
         <v>N/A</v>
       </c>
@@ -2332,13 +2338,13 @@
       <c r="E26" s="49"/>
     </row>
     <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="73" t="e">
+      <c r="C27" s="72" t="e">
         <f>IF(B27="N/A", "N/A", _xlfn.IFS(B27=1,"YES",B27=0,"NO"))</f>
         <v>#N/A</v>
       </c>
@@ -2346,13 +2352,13 @@
       <c r="E27" s="49"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="73" t="e">
+      <c r="C28" s="72" t="e">
         <f>IF(B28="N/A", "N/A", _xlfn.IFS(B28=1,"YES",B28=0,"NO"))</f>
         <v>#N/A</v>
       </c>
@@ -2360,13 +2366,13 @@
       <c r="E28" s="49"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="80" t="str">
+      <c r="C29" s="79" t="str">
         <f>IF(B29="N/A", "N/A", IF(AND(0&lt;=B29, B29&lt;=5),"YES", "NO"))</f>
         <v>NO</v>
       </c>
@@ -2564,38 +2570,38 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="94"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="94"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD755C5F-B05B-F34A-AA28-8C63E2065B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDF97EF-65E0-7547-BDDB-5D617E71F1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,6 +1319,12 @@
     <xf numFmtId="4" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1348,12 +1354,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1949,15 +1949,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="95"/>
       <c r="C1" s="49"/>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="85"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="45" t="s">
@@ -2086,10 +2086,10 @@
         <f>Hidden!C23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="89"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="60" t="s">
@@ -2103,8 +2103,8 @@
         <f>Hidden!C24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="60" t="s">
@@ -2118,8 +2118,8 @@
         <f>Hidden!C26</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
@@ -2133,8 +2133,8 @@
         <f>Hidden!C28</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
@@ -2160,11 +2160,11 @@
       <c r="B14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="96" t="e">
-        <f>IF(OR(C29="NO", (C12 * 100) &lt; 10, (C11 * 100) &lt;= 0, (C9 * 100) &lt;= 0, C28="NO"), "NO", "YES")</f>
+      <c r="D14" s="86" t="e">
+        <f>IF(OR(C29="NO", (C12 * 100) &lt; 10, (C11 * 100) &lt;= 0, (C9 * 100) &lt;= 0, C27="NO"), "NO", "YES")</f>
         <v>#VALUE!</v>
       </c>
       <c r="E14" s="49"/>
@@ -2570,38 +2570,38 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="94"/>
+      <c r="B13" s="96"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="96"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDF97EF-65E0-7547-BDDB-5D617E71F1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CFC801-E0B8-6542-BDD1-990D7F4C0908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HƯỚNG DẪN" sheetId="8" state="hidden" r:id="rId1"/>
     <sheet name="Định giá" sheetId="9" r:id="rId2"/>
     <sheet name="Xu hướng ngành" sheetId="10" r:id="rId3"/>
-    <sheet name="Hidden" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Hidden" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Xu hướng ngành'!$A$1:$B$20</definedName>
@@ -1934,7 +1934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2623,7 +2623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2640,43 +2640,43 @@
       <c r="B2" s="36"/>
       <c r="C2" s="37">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D2" s="38">
         <f ca="1">C2+1</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E2" s="38">
         <f t="shared" ref="E2:L2" ca="1" si="0">D2+1</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="F2" s="38">
         <f t="shared" ca="1" si="0"/>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="G2" s="38">
         <f t="shared" ca="1" si="0"/>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="H2" s="38">
         <f t="shared" ca="1" si="0"/>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" ca="1" si="0"/>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="J2" s="38">
         <f t="shared" ca="1" si="0"/>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="K2" s="38">
         <f t="shared" ca="1" si="0"/>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="L2" s="38">
         <f t="shared" ca="1" si="0"/>
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -3232,43 +3232,43 @@
     <row r="46" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="39">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D46" s="39">
         <f t="shared" ref="D46:L46" ca="1" si="11">C46 + 1</f>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E46" s="39">
         <f t="shared" ca="1" si="11"/>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="F46" s="39">
         <f t="shared" ca="1" si="11"/>
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="G46" s="39">
         <f t="shared" ca="1" si="11"/>
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="H46" s="39">
         <f t="shared" ca="1" si="11"/>
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="I46" s="39">
         <f t="shared" ca="1" si="11"/>
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="J46" s="39">
         <f t="shared" ca="1" si="11"/>
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="K46" s="39">
         <f t="shared" ca="1" si="11"/>
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="L46" s="39">
         <f t="shared" ca="1" si="11"/>
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="47" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/website/file/template.xlsx
+++ b/website/file/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27103"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Working/tienpd3.github.io/website/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\tienpd3.github.io\website\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CFC801-E0B8-6542-BDD1-990D7F4C0908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FC3AB1-CDAE-4D9D-A647-36BEB86C67E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HƯỚNG DẪN" sheetId="8" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Xu hướng ngành'!$A$1:$B$20</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -572,7 +570,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1360,20 +1358,20 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1399,6 +1397,18 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1406,7 +1416,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1420,14 +1430,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1446,7 +1449,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1460,26 +1477,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1877,52 +1875,52 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:3">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:3">
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:3">
       <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:3">
       <c r="C13" s="25"/>
     </row>
   </sheetData>
@@ -1934,21 +1932,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="43.6328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="35" customWidth="1"/>
     <col min="3" max="3" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="34" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="34" customWidth="1"/>
     <col min="6" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>49</v>
       </c>
@@ -1959,7 +1957,7 @@
       </c>
       <c r="E1" s="87"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="45" t="s">
         <v>99</v>
       </c>
@@ -1978,7 +1976,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="45" t="s">
         <v>100</v>
       </c>
@@ -1997,7 +1995,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="47" t="s">
         <v>63</v>
       </c>
@@ -2012,7 +2010,7 @@
       </c>
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="47" t="s">
         <v>8</v>
       </c>
@@ -2027,7 +2025,7 @@
       </c>
       <c r="E5" s="49"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="47" t="s">
         <v>9</v>
       </c>
@@ -2042,7 +2040,7 @@
       </c>
       <c r="E6" s="49"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="47" t="s">
         <v>10</v>
       </c>
@@ -2055,7 +2053,7 @@
       </c>
       <c r="E7" s="49"/>
     </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14.5" customHeight="1">
       <c r="A8" s="52" t="s">
         <v>79</v>
       </c>
@@ -2074,7 +2072,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="57" t="s">
         <v>51</v>
       </c>
@@ -2091,7 +2089,7 @@
       </c>
       <c r="E9" s="89"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="60" t="s">
         <v>50</v>
       </c>
@@ -2106,7 +2104,7 @@
       <c r="D10" s="90"/>
       <c r="E10" s="91"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="60" t="s">
         <v>12</v>
       </c>
@@ -2121,7 +2119,7 @@
       <c r="D11" s="90"/>
       <c r="E11" s="91"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14.5" thickBot="1">
       <c r="A12" s="63" t="s">
         <v>13</v>
       </c>
@@ -2136,7 +2134,7 @@
       <c r="D12" s="92"/>
       <c r="E12" s="93"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14.5" thickBot="1">
       <c r="A13" s="65" t="s">
         <v>26</v>
       </c>
@@ -2153,7 +2151,7 @@
       </c>
       <c r="E13" s="49"/>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="67" t="s">
         <v>129</v>
       </c>
@@ -2169,7 +2167,7 @@
       </c>
       <c r="E14" s="49"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="69" t="s">
         <v>130</v>
       </c>
@@ -2183,7 +2181,7 @@
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="69" t="s">
         <v>131</v>
       </c>
@@ -2197,7 +2195,7 @@
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
     </row>
-    <row r="17" spans="1:5" s="44" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="44" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="71" t="s">
         <v>134</v>
       </c>
@@ -2211,7 +2209,7 @@
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="69" t="s">
         <v>66</v>
       </c>
@@ -2225,7 +2223,7 @@
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="69" t="s">
         <v>53</v>
       </c>
@@ -2239,7 +2237,7 @@
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="69" t="s">
         <v>54</v>
       </c>
@@ -2253,7 +2251,7 @@
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="69" t="s">
         <v>55</v>
       </c>
@@ -2267,7 +2265,7 @@
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="69" t="s">
         <v>56</v>
       </c>
@@ -2281,7 +2279,7 @@
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="69" t="s">
         <v>57</v>
       </c>
@@ -2295,7 +2293,7 @@
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="69" t="s">
         <v>65</v>
       </c>
@@ -2309,7 +2307,7 @@
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="69" t="s">
         <v>52</v>
       </c>
@@ -2323,7 +2321,7 @@
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="69" t="s">
         <v>132</v>
       </c>
@@ -2337,7 +2335,7 @@
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
     </row>
-    <row r="27" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="25" customHeight="1">
       <c r="A27" s="76" t="s">
         <v>136</v>
       </c>
@@ -2351,7 +2349,7 @@
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="69" t="s">
         <v>133</v>
       </c>
@@ -2365,7 +2363,7 @@
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="14.5" thickBot="1">
       <c r="A29" s="75" t="s">
         <v>64</v>
       </c>
@@ -2379,7 +2377,7 @@
       <c r="D29" s="49"/>
       <c r="E29" s="49"/>
     </row>
-    <row r="30" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="41.5" customHeight="1">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
     </row>
@@ -2395,48 +2393,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",B13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C29">
-    <cfRule type="containsText" dxfId="11" priority="39" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="11" priority="34" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="35" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="34" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="38" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="9" priority="36" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="37" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="36" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="7" priority="38" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="35" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="6" priority="39" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",D14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
@@ -2447,11 +2445,11 @@
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",D14)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.27500000000000002" right="0.156944444444444" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2465,15 +2463,15 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="40" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="40"/>
+    <col min="1" max="1" width="25.6328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.81640625" style="40" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="41" t="s">
         <v>113</v>
       </c>
@@ -2481,7 +2479,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="42" t="s">
         <v>101</v>
       </c>
@@ -2489,7 +2487,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="42" t="s">
         <v>102</v>
       </c>
@@ -2497,7 +2495,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="42" t="s">
         <v>103</v>
       </c>
@@ -2505,7 +2503,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="42" t="s">
         <v>104</v>
       </c>
@@ -2513,7 +2511,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="42" t="s">
         <v>105</v>
       </c>
@@ -2521,7 +2519,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="42" t="s">
         <v>106</v>
       </c>
@@ -2529,7 +2527,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="42" t="s">
         <v>107</v>
       </c>
@@ -2537,7 +2535,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="42" t="s">
         <v>108</v>
       </c>
@@ -2545,7 +2543,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="42" t="s">
         <v>109</v>
       </c>
@@ -2553,7 +2551,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="42" t="s">
         <v>110</v>
       </c>
@@ -2561,7 +2559,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="42" t="s">
         <v>111</v>
       </c>
@@ -2569,41 +2567,41 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="96" t="s">
         <v>125</v>
       </c>
       <c r="B13" s="96"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="96"/>
       <c r="B14" s="96"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="96"/>
       <c r="B15" s="96"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="96"/>
       <c r="B17" s="96"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="96"/>
       <c r="B20" s="96"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
     </row>
@@ -2623,20 +2621,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="4" customWidth="1"/>
-    <col min="5" max="12" width="8.83203125" style="4"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="4" customWidth="1"/>
+    <col min="5" max="12" width="8.81640625" style="4"/>
+    <col min="13" max="13" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" s="36"/>
       <c r="C2" s="37">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
@@ -2680,7 +2678,7 @@
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
@@ -2716,7 +2714,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="B4" s="26" t="s">
         <v>69</v>
       </c>
@@ -2735,7 +2733,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5" s="26" t="s">
         <v>70</v>
       </c>
@@ -2754,7 +2752,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="B6" s="5" t="s">
         <v>71</v>
       </c>
@@ -2799,7 +2797,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13">
       <c r="B7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2844,7 +2842,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -2852,7 +2850,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" s="1" customFormat="1">
       <c r="B9" s="8" t="s">
         <v>73</v>
       </c>
@@ -2898,7 +2896,7 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" s="1" customFormat="1">
       <c r="B10" s="8" t="s">
         <v>74</v>
       </c>
@@ -2944,7 +2942,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13">
       <c r="B11" s="26" t="s">
         <v>22</v>
       </c>
@@ -2953,7 +2951,7 @@
         <v>#VCSH</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13">
       <c r="B12" s="26" t="s">
         <v>23</v>
       </c>
@@ -2962,7 +2960,7 @@
         <v>#TSLCP</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13">
       <c r="B13" s="26" t="s">
         <v>16</v>
       </c>
@@ -2971,7 +2969,7 @@
         <v>#TLCT</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="50" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:13" ht="50">
       <c r="B14" s="26" t="s">
         <v>24</v>
       </c>
@@ -2980,7 +2978,7 @@
         <v>#TGCP</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13">
       <c r="B15" s="6" t="s">
         <v>75</v>
       </c>
@@ -2989,7 +2987,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13">
       <c r="B16" s="6" t="s">
         <v>76</v>
       </c>
@@ -2998,7 +2996,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:12" ht="50">
       <c r="B17" s="6" t="s">
         <v>77</v>
       </c>
@@ -3007,7 +3005,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:12" ht="50">
       <c r="B18" s="6" t="s">
         <v>78</v>
       </c>
@@ -3016,7 +3014,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" s="4" t="s">
         <v>95</v>
       </c>
@@ -3025,7 +3023,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" s="4" t="s">
         <v>96</v>
       </c>
@@ -3034,7 +3032,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" s="2" customFormat="1">
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -3047,7 +3045,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:12" ht="50">
       <c r="B22" s="15" t="s">
         <v>80</v>
       </c>
@@ -3059,7 +3057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:12" ht="50">
       <c r="B23" s="15" t="s">
         <v>81</v>
       </c>
@@ -3071,7 +3069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:12" ht="50">
       <c r="B24" s="15" t="s">
         <v>25</v>
       </c>
@@ -3080,7 +3078,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:12" ht="50">
       <c r="B25" s="15" t="s">
         <v>97</v>
       </c>
@@ -3089,7 +3087,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:12" ht="50">
       <c r="B26" s="15" t="s">
         <v>98</v>
       </c>
@@ -3098,7 +3096,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:12" ht="50">
       <c r="B27" s="31" t="s">
         <v>13</v>
       </c>
@@ -3107,7 +3105,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="50" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:12" ht="50">
       <c r="B28" s="31" t="s">
         <v>13</v>
       </c>
@@ -3116,9 +3114,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" s="3" customFormat="1"/>
+    <row r="31" spans="2:12" s="3" customFormat="1"/>
+    <row r="32" spans="2:12" s="3" customFormat="1">
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
@@ -3127,7 +3125,7 @@
         <v>#TLCT</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" s="3" customFormat="1">
       <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
@@ -3137,7 +3135,7 @@
       </c>
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" s="3" customFormat="1">
       <c r="B34" s="3" t="s">
         <v>82</v>
       </c>
@@ -3146,7 +3144,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" s="3" customFormat="1">
       <c r="B35" s="3" t="s">
         <v>83</v>
       </c>
@@ -3155,7 +3153,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" s="3" customFormat="1">
       <c r="B36" s="18" t="s">
         <v>84</v>
       </c>
@@ -3164,7 +3162,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" s="3" customFormat="1">
       <c r="B37" s="18" t="s">
         <v>85</v>
       </c>
@@ -3173,7 +3171,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" s="3" customFormat="1">
       <c r="B38" s="3" t="s">
         <v>86</v>
       </c>
@@ -3182,7 +3180,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" s="3" customFormat="1">
       <c r="B39" s="3" t="s">
         <v>87</v>
       </c>
@@ -3191,7 +3189,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" s="3" customFormat="1">
       <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
@@ -3200,7 +3198,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" s="3" customFormat="1">
       <c r="B41" s="3" t="s">
         <v>18</v>
       </c>
@@ -3209,7 +3207,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" s="3" customFormat="1">
       <c r="B42" s="18" t="s">
         <v>19</v>
       </c>
@@ -3218,7 +3216,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" s="3" customFormat="1">
       <c r="B43" s="18" t="s">
         <v>19</v>
       </c>
@@ -3227,9 +3225,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" s="3" customFormat="1"/>
+    <row r="45" spans="2:12" s="3" customFormat="1"/>
+    <row r="46" spans="2:12" s="3" customFormat="1">
       <c r="C46" s="39">
         <f ca="1">YEAR("01/01/"&amp;YEAR(TODAY()) + 1)</f>
         <v>2025</v>
@@ -3271,7 +3269,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" s="3" customFormat="1">
       <c r="B47" s="18" t="s">
         <v>20</v>
       </c>
@@ -3306,7 +3304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" s="3" customFormat="1">
       <c r="B48" s="18" t="s">
         <v>88</v>
       </c>
@@ -3351,7 +3349,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="3" customFormat="1">
       <c r="B49" s="18" t="s">
         <v>89</v>
       </c>
@@ -3396,7 +3394,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" s="3" customFormat="1">
       <c r="B50" s="18" t="s">
         <v>21</v>
       </c>
@@ -3404,7 +3402,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" s="3" customFormat="1">
       <c r="B51" s="18" t="s">
         <v>73</v>
       </c>
@@ -3450,7 +3448,7 @@
       </c>
       <c r="M51" s="20"/>
     </row>
-    <row r="52" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" s="3" customFormat="1">
       <c r="B52" s="18" t="s">
         <v>90</v>
       </c>
@@ -3496,7 +3494,7 @@
       </c>
       <c r="M52" s="20"/>
     </row>
-    <row r="53" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" s="3" customFormat="1">
       <c r="B53" s="18" t="s">
         <v>91</v>
       </c>
@@ -3505,7 +3503,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" s="3" customFormat="1">
       <c r="B54" s="18" t="s">
         <v>92</v>
       </c>
@@ -3514,7 +3512,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" s="3" customFormat="1">
       <c r="B55" s="18" t="s">
         <v>23</v>
       </c>
@@ -3523,7 +3521,7 @@
         <v>#TSLCP</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
+    <row r="56" spans="2:13" s="3" customFormat="1" ht="66.5">
       <c r="B56" s="18" t="s">
         <v>75</v>
       </c>
@@ -3532,7 +3530,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
+    <row r="57" spans="2:13" s="3" customFormat="1" ht="66.5">
       <c r="B57" s="18" t="s">
         <v>76</v>
       </c>
@@ -3541,7 +3539,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
+    <row r="58" spans="2:13" s="3" customFormat="1" ht="66.5">
       <c r="B58" s="18" t="s">
         <v>93</v>
       </c>
@@ -3550,7 +3548,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="2:13" s="3" customFormat="1" ht="67" x14ac:dyDescent="0.75">
+    <row r="59" spans="2:13" s="3" customFormat="1" ht="66.5">
       <c r="B59" s="18" t="s">
         <v>94</v>
       </c>
